--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18165" windowHeight="6060" activeTab="1"/>
+    <workbookView windowWidth="12840" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -70,6 +70,9 @@
     <t>res_path</t>
   </si>
   <si>
+    <t>portrait_path</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -94,12 +97,18 @@
     <t>资源路径</t>
   </si>
   <si>
+    <t>头像路径</t>
+  </si>
+  <si>
     <t>快递员</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/DeliveryMan.png</t>
   </si>
   <si>
+    <t>Assets/GameRes/</t>
+  </si>
+  <si>
     <t>卖鱼佬</t>
   </si>
   <si>
@@ -167,6 +176,12 @@
   </si>
   <si>
     <t>23:11</t>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
+    <t>17:22</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1247,8 @@
   <sheetPr/>
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1269,7 +1284,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1302,21 +1319,23 @@
     </row>
     <row r="2" s="12" customFormat="1" spans="1:35">
       <c r="A2" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -1349,21 +1368,23 @@
     </row>
     <row r="3" s="11" customFormat="1" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1399,10 +1420,13 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="14"/>
       <c r="I4" s="14"/>
@@ -1415,10 +1439,13 @@
         <v>10002</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="14"/>
       <c r="I5" s="14"/>
@@ -1431,10 +1458,13 @@
         <v>10003</v>
       </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="14"/>
       <c r="I6" s="14"/>
@@ -1447,10 +1477,13 @@
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
       </c>
       <c r="G7" s="14"/>
       <c r="I7" s="14"/>
@@ -1463,10 +1496,13 @@
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="14"/>
       <c r="I8" s="14"/>
@@ -1479,10 +1515,13 @@
         <v>10006</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="14"/>
       <c r="I9" s="14"/>
@@ -1495,10 +1534,13 @@
         <v>10007</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
       </c>
       <c r="G10" s="14"/>
       <c r="I10" s="14"/>
@@ -1549,8 +1591,8 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1573,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -1582,16 +1624,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1605,13 +1647,13 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1621,32 +1663,45 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6">
+        <v>10004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="5:6">
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="10"/>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12840" windowHeight="6720"/>
+    <workbookView windowWidth="25665" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <t>Assets/GameRes/Picture/Character/DeliveryMan.png</t>
   </si>
   <si>
-    <t>Assets/GameRes/</t>
+    <t>Assets/GameRes/Picture/Character/Portrait/</t>
   </si>
   <si>
     <t>卖鱼佬</t>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1257,10 +1257,8 @@
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
+    <col min="6" max="8" width="40.125" customWidth="1"/>
     <col min="9" max="9" width="12.3833333333333" customWidth="1"/>
     <col min="10" max="10" width="17.8833333333333" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25665" windowHeight="13140"/>
+    <workbookView windowWidth="22215" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -106,7 +106,7 @@
     <t>Assets/GameRes/Picture/Character/DeliveryMan.png</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/</t>
+    <t>Assets/GameRes/Picture/Character/Portrait/DeliveryManPortrait.png</t>
   </si>
   <si>
     <t>卖鱼佬</t>
@@ -115,34 +115,52 @@
     <t>Assets/GameRes/Picture/Character/FishMan.png</t>
   </si>
   <si>
+    <t>Assets/GameRes/Picture/Character/Portrait/FishManPortrait.png</t>
+  </si>
+  <si>
     <t>女士</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/Lady.png</t>
   </si>
   <si>
+    <t>Assets/GameRes/Picture/Character/Portrait/LadyPortrait.png</t>
+  </si>
+  <si>
     <t>小萝莉</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/LittleGirl.png</t>
   </si>
   <si>
+    <t>Assets/GameRes/Picture/Character/Portrait/LittleGirlPortrait.png</t>
+  </si>
+  <si>
     <t>商人</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/Merchant.png</t>
   </si>
   <si>
+    <t>Assets/GameRes/Picture/Character/Portrait/MerchantPortrait.png</t>
+  </si>
+  <si>
     <t>妇女</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/Woman.png</t>
   </si>
   <si>
+    <t>Assets/GameRes/Picture/Character/Portrait/WomanPortrait.png</t>
+  </si>
+  <si>
     <t>小胖</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/YoungFatMan.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Character/Portrait/YoungFatManPortrait.png</t>
   </si>
   <si>
     <t>*character_appear_infos</t>
@@ -1247,8 +1265,8 @@
   <sheetPr/>
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1258,7 +1276,8 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
-    <col min="6" max="8" width="40.125" customWidth="1"/>
+    <col min="6" max="6" width="61" customWidth="1"/>
+    <col min="7" max="8" width="40.125" customWidth="1"/>
     <col min="9" max="9" width="12.3833333333333" customWidth="1"/>
     <col min="10" max="10" width="17.8833333333333" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
@@ -1443,7 +1462,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="14"/>
       <c r="I5" s="14"/>
@@ -1456,13 +1475,13 @@
         <v>10003</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G6" s="14"/>
       <c r="I6" s="14"/>
@@ -1475,13 +1494,13 @@
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G7" s="14"/>
       <c r="I7" s="14"/>
@@ -1494,13 +1513,13 @@
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G8" s="14"/>
       <c r="I8" s="14"/>
@@ -1513,13 +1532,13 @@
         <v>10006</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G9" s="14"/>
       <c r="I9" s="14"/>
@@ -1532,13 +1551,13 @@
         <v>10007</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G10" s="14"/>
       <c r="I10" s="14"/>
@@ -1613,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -1631,7 +1650,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1645,13 +1664,13 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1664,24 +1683,24 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1689,16 +1708,16 @@
         <v>10004</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="5:6">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22215" windowHeight="13140"/>
+    <workbookView windowHeight="17370"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -1265,7 +1265,7 @@
   <sheetPr/>
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1609,11 +1609,12 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17370"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -73,6 +73,12 @@
     <t>portrait_path</t>
   </si>
   <si>
+    <t>like_flavour</t>
+  </si>
+  <si>
+    <t>unlike_flavour</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>(list#sep=,),food.flavorTag</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -100,6 +109,12 @@
     <t>头像路径</t>
   </si>
   <si>
+    <t>喜欢的口味</t>
+  </si>
+  <si>
+    <t>讨厌的口味</t>
+  </si>
+  <si>
     <t>快递员</t>
   </si>
   <si>
@@ -107,6 +122,12 @@
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/Portrait/DeliveryManPortrait.png</t>
+  </si>
+  <si>
+    <t>家常,清淡</t>
+  </si>
+  <si>
+    <t>肉,重油,饱腹</t>
   </si>
   <si>
     <t>卖鱼佬</t>
@@ -212,7 +233,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +254,18 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -751,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,7 +796,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,28 +805,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,98 +829,104 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -920,6 +953,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="31" applyBorder="1" applyAlignment="1">
@@ -1265,8 +1300,8 @@
   <sheetPr/>
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1275,8 +1310,8 @@
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
-    <col min="5" max="5" width="53" customWidth="1"/>
-    <col min="6" max="6" width="61" customWidth="1"/>
+    <col min="5" max="5" width="45.1583333333333" customWidth="1"/>
+    <col min="6" max="6" width="38.825" customWidth="1"/>
     <col min="7" max="8" width="40.125" customWidth="1"/>
     <col min="9" max="9" width="12.3833333333333" customWidth="1"/>
     <col min="10" max="10" width="17.8833333333333" customWidth="1"/>
@@ -1304,14 +1339,18 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1334,33 +1373,37 @@
       <c r="AH1"/>
       <c r="AI1"/>
     </row>
-    <row r="2" s="12" customFormat="1" spans="1:35">
+    <row r="2" s="12" customFormat="1" ht="16.5" spans="1:35">
       <c r="A2" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="I2" s="13"/>
-      <c r="J2" s="19"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="18"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="20"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1385,31 +1428,35 @@
     </row>
     <row r="3" s="11" customFormat="1" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="22"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="18"/>
+      <c r="N3" s="20"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1432,165 +1479,200 @@
       <c r="AH3"/>
       <c r="AI3"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" ht="16.5" spans="2:13">
       <c r="B4">
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="2:13">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:13">
       <c r="B5">
         <v>10002</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="2:13">
+        <v>27</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:13">
       <c r="B6">
         <v>10003</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="2:13">
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:13">
       <c r="B7">
         <v>10004</v>
       </c>
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="2:13">
+      <c r="I7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:13">
       <c r="B8">
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="2:13">
+        <v>36</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:13">
       <c r="B9">
         <v>10006</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>30</v>
+      <c r="C9" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="2:13">
+        <v>39</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:13">
       <c r="B10">
         <v>10007</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="3:13">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="I12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="I12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1608,8 +1690,8 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1633,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -1642,16 +1724,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1665,13 +1747,13 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1681,27 +1763,27 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1709,16 +1791,16 @@
         <v>10004</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="5:6">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
     <sheet name="人物出现时间" sheetId="3" r:id="rId2"/>
+    <sheet name="人物评分对话" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -221,6 +222,30 @@
   </si>
   <si>
     <t>17:22</t>
+  </si>
+  <si>
+    <t>*comments</t>
+  </si>
+  <si>
+    <t>dialogue_id</t>
+  </si>
+  <si>
+    <t>start_value</t>
+  </si>
+  <si>
+    <t>end_value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -926,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -938,12 +963,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1300,8 +1331,8 @@
   <sheetPr/>
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1310,9 +1341,10 @@
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
-    <col min="5" max="5" width="45.1583333333333" customWidth="1"/>
-    <col min="6" max="6" width="38.825" customWidth="1"/>
-    <col min="7" max="8" width="40.125" customWidth="1"/>
+    <col min="5" max="5" width="46.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="43.275" customWidth="1"/>
+    <col min="7" max="7" width="26.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="40.125" customWidth="1"/>
     <col min="9" max="9" width="12.3833333333333" customWidth="1"/>
     <col min="10" max="10" width="17.8833333333333" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
@@ -1320,7 +1352,7 @@
     <col min="13" max="13" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:35">
+    <row r="1" s="13" customFormat="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,9 +1380,9 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1373,37 +1405,37 @@
       <c r="AH1"/>
       <c r="AI1"/>
     </row>
-    <row r="2" s="12" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="14" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="20"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="22"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1426,7 +1458,7 @@
       <c r="AH2"/>
       <c r="AI2"/>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:35">
+    <row r="3" s="13" customFormat="1" spans="1:35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1452,11 +1484,11 @@
         <v>19</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="24"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="24"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="20"/>
+      <c r="N3" s="22"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1492,16 +1524,16 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="I4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" ht="16.5" spans="2:13">
       <c r="B5">
@@ -1516,16 +1548,16 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="I5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" ht="16.5" spans="2:13">
       <c r="B6">
@@ -1540,16 +1572,16 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="I6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" ht="16.5" spans="2:13">
       <c r="B7">
@@ -1564,16 +1596,16 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="I7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" ht="16.5" spans="2:13">
       <c r="B8">
@@ -1588,22 +1620,22 @@
       <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="I8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" ht="16.5" spans="2:13">
       <c r="B9">
         <v>10006</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E9" t="s">
@@ -1612,16 +1644,16 @@
       <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="I9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" ht="16.5" spans="2:13">
       <c r="B10">
@@ -1636,43 +1668,43 @@
       <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="I10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="3:13">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="I12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1691,7 +1723,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1700,7 +1732,7 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="17.7416666666667" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1719,8 +1751,8 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1737,26 +1769,26 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4">
@@ -1768,10 +1800,10 @@
       <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1779,10 +1811,10 @@
       <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1796,80 +1828,217 @@
       <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="9.6" customWidth="1"/>
+    <col min="3" max="3" width="13.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.7583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="9">
+        <v>10001</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <v>1002</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="9">
+        <v>10004</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9">
+        <f>$D$4*1000+1</f>
+        <v>1001001</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
+        <v>31</v>
+      </c>
+      <c r="F7" s="9">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -116,13 +116,13 @@
     <t>讨厌的口味</t>
   </si>
   <si>
-    <t>快递员</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/DeliveryMan.png</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/DeliveryManPortrait.png</t>
+    <t>章鱼</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Character/YoungFatMan.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Character/Portrait/YoungFatManPortrait.png</t>
   </si>
   <si>
     <t>家常,清淡</t>
@@ -158,7 +158,7 @@
     <t>Assets/GameRes/Picture/Character/Portrait/LittleGirlPortrait.png</t>
   </si>
   <si>
-    <t>商人</t>
+    <t>老板</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/Merchant.png</t>
@@ -179,12 +179,6 @@
     <t>小胖</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/YoungFatMan.png</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/YoungFatManPortrait.png</t>
-  </si>
-  <si>
     <t>*character_appear_infos</t>
   </si>
   <si>
@@ -222,6 +216,9 @@
   </si>
   <si>
     <t>17:22</t>
+  </si>
+  <si>
+    <t>周三</t>
   </si>
   <si>
     <t>*comments</t>
@@ -1332,7 +1329,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1342,7 +1339,7 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
     <col min="5" max="5" width="46.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="43.275" customWidth="1"/>
+    <col min="6" max="6" width="56.175" customWidth="1"/>
     <col min="7" max="7" width="26.6333333333333" customWidth="1"/>
     <col min="8" max="8" width="40.125" customWidth="1"/>
     <col min="9" max="9" width="12.3833333333333" customWidth="1"/>
@@ -1663,10 +1660,10 @@
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>23</v>
@@ -1720,10 +1717,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1747,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -1765,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1779,13 +1776,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -1798,46 +1795,53 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="12" t="s">
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6">
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
         <v>10004</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6">
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="5:6">
       <c r="E8" s="12"/>
@@ -1902,6 +1906,10 @@
     <row r="23" spans="5:6">
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1919,7 +1927,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1941,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -1957,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1969,13 +1977,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -1990,10 +1998,10 @@
         <v>1001</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -2004,10 +2012,10 @@
         <v>1002</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -2023,10 +2031,10 @@
         <v>1001001</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:6">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -119,7 +119,7 @@
     <t>章鱼</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/YoungFatMan.png</t>
+    <t>Assets/GameRes/Prefabs/NPC/YoungFatMan.prefab</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/Portrait/YoungFatManPortrait.png</t>
@@ -134,7 +134,7 @@
     <t>卖鱼佬</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/FishMan.png</t>
+    <t>Assets/GameRes/Prefabs/NPC/Character.prefab</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/Portrait/FishManPortrait.png</t>
@@ -143,34 +143,22 @@
     <t>女士</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/Lady.png</t>
-  </si>
-  <si>
     <t>Assets/GameRes/Picture/Character/Portrait/LadyPortrait.png</t>
   </si>
   <si>
     <t>小萝莉</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/LittleGirl.png</t>
-  </si>
-  <si>
     <t>Assets/GameRes/Picture/Character/Portrait/LittleGirlPortrait.png</t>
   </si>
   <si>
     <t>老板</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/Merchant.png</t>
-  </si>
-  <si>
     <t>Assets/GameRes/Picture/Character/Portrait/MerchantPortrait.png</t>
   </si>
   <si>
     <t>妇女</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/Woman.png</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/Portrait/WomanPortrait.png</t>
@@ -1328,8 +1316,8 @@
   <sheetPr/>
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1564,10 +1552,10 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>23</v>
@@ -1585,13 +1573,13 @@
         <v>10004</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>23</v>
@@ -1609,13 +1597,13 @@
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>23</v>
@@ -1633,13 +1621,13 @@
         <v>10006</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>23</v>
@@ -1657,10 +1645,10 @@
         <v>10007</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1744,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -1762,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1776,13 +1764,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -1795,35 +1783,35 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1831,16 +1819,16 @@
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="5:6">
@@ -1949,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -1965,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1977,13 +1965,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -1998,10 +1986,10 @@
         <v>1001</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -2012,10 +2000,10 @@
         <v>1002</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -2024,17 +2012,17 @@
         <v>10004</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="9">
         <f>$D$4*1000+1</f>
         <v>1001001</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:6">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -80,6 +80,12 @@
     <t>unlike_flavour</t>
   </si>
   <si>
+    <t>main_dialogue</t>
+  </si>
+  <si>
+    <t>comment_dialogue</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -116,6 +122,12 @@
     <t>讨厌的口味</t>
   </si>
   <si>
+    <t>主线剧情</t>
+  </si>
+  <si>
+    <t>评价剧情</t>
+  </si>
+  <si>
     <t>章鱼</t>
   </si>
   <si>
@@ -131,6 +143,9 @@
     <t>肉,重油,饱腹</t>
   </si>
   <si>
+    <t>Assets/GameRes/Story/</t>
+  </si>
+  <si>
     <t>卖鱼佬</t>
   </si>
   <si>
@@ -225,6 +240,9 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>1002</t>
   </si>
   <si>
     <t>21</t>
@@ -1317,7 +1335,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1330,7 +1348,7 @@
     <col min="6" max="6" width="56.175" customWidth="1"/>
     <col min="7" max="7" width="26.6333333333333" customWidth="1"/>
     <col min="8" max="8" width="40.125" customWidth="1"/>
-    <col min="9" max="9" width="12.3833333333333" customWidth="1"/>
+    <col min="9" max="9" width="25.775" customWidth="1"/>
     <col min="10" max="10" width="17.8833333333333" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
@@ -1362,8 +1380,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="20"/>
       <c r="M1" s="21"/>
@@ -1392,31 +1414,35 @@
     </row>
     <row r="2" s="14" customFormat="1" ht="16.5" spans="1:35">
       <c r="A2" s="15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="K2" s="15"/>
       <c r="L2" s="24"/>
       <c r="M2" s="25"/>
@@ -1445,31 +1471,35 @@
     </row>
     <row r="3" s="13" customFormat="1" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="26"/>
       <c r="M3" s="1"/>
@@ -1501,21 +1531,23 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="K4" s="18"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -1525,19 +1557,19 @@
         <v>10002</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I5" s="18"/>
       <c r="K5" s="18"/>
@@ -1549,19 +1581,19 @@
         <v>10003</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="I6" s="18"/>
       <c r="K6" s="18"/>
@@ -1573,19 +1605,19 @@
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I7" s="18"/>
       <c r="K7" s="18"/>
@@ -1597,19 +1629,19 @@
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I8" s="18"/>
       <c r="K8" s="18"/>
@@ -1621,19 +1653,19 @@
         <v>10006</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I9" s="18"/>
       <c r="K9" s="18"/>
@@ -1645,19 +1677,19 @@
         <v>10007</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
       <c r="G10" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I10" s="18"/>
       <c r="K10" s="18"/>
@@ -1708,7 +1740,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1732,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -1741,16 +1773,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1764,13 +1796,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -1780,38 +1812,38 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1819,16 +1851,16 @@
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="5:6">
@@ -1915,7 +1947,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1937,23 +1969,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1965,13 +1997,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -1980,30 +2012,30 @@
         <v>10001</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="9">
         <v>1001</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9">
-        <v>1002</v>
+      <c r="D5" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -2012,17 +2044,17 @@
         <v>10004</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="9">
         <f>$D$4*1000+1</f>
         <v>1001001</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:6">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowHeight="17820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
     <sheet name="人物出现时间" sheetId="3" r:id="rId2"/>
-    <sheet name="人物评分对话" sheetId="4" r:id="rId3"/>
+    <sheet name="人物评分对话(弃用)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -149,21 +149,27 @@
     <t>卖鱼佬</t>
   </si>
   <si>
+    <t>Assets/GameRes/Prefabs/NPC/FishMan.prefab</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Character/Portrait/FishManPortrait.png</t>
+  </si>
+  <si>
+    <t>女士</t>
+  </si>
+  <si>
     <t>Assets/GameRes/Prefabs/NPC/Character.prefab</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/FishManPortrait.png</t>
-  </si>
-  <si>
-    <t>女士</t>
-  </si>
-  <si>
     <t>Assets/GameRes/Picture/Character/Portrait/LadyPortrait.png</t>
   </si>
   <si>
     <t>小萝莉</t>
   </si>
   <si>
+    <t>Assets/GameRes/Prefabs/NPC/LittleGirl.prefab</t>
+  </si>
+  <si>
     <t>Assets/GameRes/Picture/Character/Portrait/LittleGirlPortrait.png</t>
   </si>
   <si>
@@ -200,7 +206,7 @@
     <t>周一</t>
   </si>
   <si>
-    <t>17:52</t>
+    <t>21:01</t>
   </si>
   <si>
     <t>22:00</t>
@@ -209,19 +215,52 @@
     <t>周二</t>
   </si>
   <si>
-    <t>18:16</t>
+    <t>21:36</t>
   </si>
   <si>
     <t>23:11</t>
   </si>
   <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>22:12</t>
+  </si>
+  <si>
     <t>周六</t>
   </si>
   <si>
-    <t>17:22</t>
-  </si>
-  <si>
-    <t>周三</t>
+    <t>01:01</t>
+  </si>
+  <si>
+    <t>周日</t>
+  </si>
+  <si>
+    <t>21:10</t>
+  </si>
+  <si>
+    <t>21:22</t>
+  </si>
+  <si>
+    <t>22:01</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>21:15</t>
   </si>
   <si>
     <t>*comments</t>
@@ -426,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,10 +857,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,16 +869,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,10 +890,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,28 +914,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -902,16 +947,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,38 +965,41 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -984,10 +1029,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -998,13 +1045,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -1334,8 +1381,8 @@
   <sheetPr/>
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1355,7 +1402,7 @@
     <col min="13" max="13" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:35">
+    <row r="1" s="15" customFormat="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,9 +1434,9 @@
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="24"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1412,41 +1459,41 @@
       <c r="AH1"/>
       <c r="AI1"/>
     </row>
-    <row r="2" s="14" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A2" s="15" t="s">
+    <row r="2" s="16" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="22"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="24"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1469,7 +1516,7 @@
       <c r="AH2"/>
       <c r="AI2"/>
     </row>
-    <row r="3" s="13" customFormat="1" spans="1:35">
+    <row r="3" s="15" customFormat="1" spans="1:35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1497,13 +1544,13 @@
       <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="26"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="22"/>
+      <c r="N3" s="24"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1539,18 +1586,18 @@
       <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" ht="16.5" spans="2:13">
       <c r="B5">
@@ -1565,16 +1612,16 @@
       <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="I5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" ht="16.5" spans="2:13">
       <c r="B6">
@@ -1584,144 +1631,144 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="I6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" ht="16.5" spans="2:13">
       <c r="B7">
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="I7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" ht="16.5" spans="2:13">
       <c r="B8">
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+      <c r="I8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" ht="16.5" spans="2:13">
       <c r="B9">
         <v>10006</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>39</v>
+      <c r="C9" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="I9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" ht="16.5" spans="2:13">
       <c r="B10">
         <v>10007</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
+      <c r="I10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="3:13">
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="I11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="I12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1737,10 +1784,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1764,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -1782,7 +1829,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1796,13 +1843,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -1815,85 +1862,147 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10">
+        <v>10002</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13">
         <v>10004</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="5:6">
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="5:6">
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="5:6">
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="5:6">
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="5:6">
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="5:6">
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="5:6">
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="5:6">
       <c r="E16" s="12"/>
@@ -1930,6 +2039,26 @@
     <row r="24" spans="5:6">
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1947,7 +2076,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1969,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -1985,7 +2114,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1997,13 +2126,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -2018,10 +2147,10 @@
         <v>1001</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -2029,13 +2158,13 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -2044,17 +2173,17 @@
         <v>10004</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="9">
         <f>$D$4*1000+1</f>
         <v>1001001</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:6">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -245,13 +245,13 @@
     <t>01:01</t>
   </si>
   <si>
+    <t>21:22</t>
+  </si>
+  <si>
     <t>周日</t>
   </si>
   <si>
     <t>21:10</t>
-  </si>
-  <si>
-    <t>21:22</t>
   </si>
   <si>
     <t>22:01</t>
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1784,13 +1784,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
@@ -1904,7 +1904,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="4:13">
       <c r="D8" s="13" t="s">
         <v>61</v>
       </c>
@@ -1914,32 +1914,65 @@
       <c r="F8" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="4:6">
+      <c r="I8">
+        <v>10002</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13">
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="K9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1948,15 +1981,15 @@
         <v>61</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>50</v>
@@ -1965,44 +1998,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13">
-        <v>10004</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>51</v>
-      </c>
+    <row r="13" spans="5:6">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="5:6">
       <c r="E16" s="12"/>
@@ -2047,18 +2053,6 @@
     <row r="26" spans="5:6">
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="5:6">
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820" activeTab="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>(list#sep=,),food.flavorTag</t>
+    <t>(set#sep=,),food.flavorTag</t>
   </si>
   <si>
     <t>##</t>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -335,27 +335,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -369,14 +348,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,6 +387,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,6 +450,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -498,18 +498,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -522,19 +600,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,115 +624,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,21 +755,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -798,6 +783,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,166 +854,166 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1022,7 +1022,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1031,30 +1031,30 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1063,52 +1063,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1381,8 +1381,8 @@
   <sheetPr/>
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1786,8 +1786,8 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24765" windowHeight="17655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>##var</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>res_path</t>
+  </si>
+  <si>
+    <t>portrait_path</t>
+  </si>
+  <si>
+    <t>like_flavour</t>
+  </si>
+  <si>
+    <t>unlike_flavour</t>
+  </si>
+  <si>
+    <t>main_dialogue</t>
+  </si>
+  <si>
+    <t>comment_dialogue</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>(set#sep=,),food.flavorTag</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>npcid</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>资源路径</t>
+  </si>
+  <si>
+    <t>头像路径</t>
+  </si>
+  <si>
+    <t>喜欢的口味</t>
+  </si>
+  <si>
+    <t>讨厌的口味</t>
+  </si>
+  <si>
+    <t>主线剧情</t>
+  </si>
+  <si>
+    <t>评价剧情</t>
+  </si>
+  <si>
+    <t>章鱼</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/NPC/YoungFatMan.prefab</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Character/Portrait/YoungFatManPortrait.png</t>
+  </si>
+  <si>
+    <t>家常,清淡</t>
+  </si>
+  <si>
+    <t>肉,重油,饱腹</t>
+  </si>
+  <si>
+    <t>喵老师</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/NPC/LittleGirl.prefab</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Character/Portrait/LittleGirlPortrait.png</t>
+  </si>
+  <si>
+    <t>伊万</t>
+  </si>
+  <si>
+    <t>喵老师的熊</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/NPC/Bear.prefab</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Character/Portrait/DeliveryManPortrait.png</t>
   </si>
   <si>
     <r>
@@ -43,208 +148,69 @@
     </r>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>esc</t>
-    </r>
-  </si>
-  <si>
-    <t>res_path</t>
-  </si>
-  <si>
-    <t>portrait_path</t>
-  </si>
-  <si>
-    <t>like_flavour</t>
-  </si>
-  <si>
-    <t>unlike_flavour</t>
-  </si>
-  <si>
-    <t>main_dialogue</t>
-  </si>
-  <si>
-    <t>comment_dialogue</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>(set#sep=,),food.flavorTag</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>npcid</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>资源路径</t>
-  </si>
-  <si>
-    <t>头像路径</t>
-  </si>
-  <si>
-    <t>喜欢的口味</t>
-  </si>
-  <si>
-    <t>讨厌的口味</t>
-  </si>
-  <si>
-    <t>主线剧情</t>
-  </si>
-  <si>
-    <t>评价剧情</t>
-  </si>
-  <si>
-    <t>章鱼</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Prefabs/NPC/YoungFatMan.prefab</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/YoungFatManPortrait.png</t>
-  </si>
-  <si>
-    <t>家常,清淡</t>
-  </si>
-  <si>
-    <t>肉,重油,饱腹</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Story/</t>
+    <t>partner_id</t>
+  </si>
+  <si>
+    <t>*character_appear_infos</t>
+  </si>
+  <si>
+    <t>(list),common.appear_time</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>enter_time</t>
+  </si>
+  <si>
+    <t>leave_time</t>
+  </si>
+  <si>
+    <t>周一</t>
+  </si>
+  <si>
+    <t>21:01</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>周二</t>
+  </si>
+  <si>
+    <t>21:36</t>
+  </si>
+  <si>
+    <t>23:11</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>22:12</t>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
+    <t>01:01</t>
   </si>
   <si>
     <t>卖鱼佬</t>
   </si>
   <si>
-    <t>Assets/GameRes/Prefabs/NPC/FishMan.prefab</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/FishManPortrait.png</t>
-  </si>
-  <si>
-    <t>女士</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Prefabs/NPC/Character.prefab</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/LadyPortrait.png</t>
-  </si>
-  <si>
-    <t>小萝莉</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Prefabs/NPC/LittleGirl.prefab</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/LittleGirlPortrait.png</t>
-  </si>
-  <si>
-    <t>老板</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/MerchantPortrait.png</t>
-  </si>
-  <si>
-    <t>妇女</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/WomanPortrait.png</t>
-  </si>
-  <si>
-    <t>小胖</t>
-  </si>
-  <si>
-    <t>*character_appear_infos</t>
-  </si>
-  <si>
-    <t>(list),common.appear_time</t>
-  </si>
-  <si>
-    <t>weekday</t>
-  </si>
-  <si>
-    <t>enter_time</t>
-  </si>
-  <si>
-    <t>leave_time</t>
-  </si>
-  <si>
-    <t>周一</t>
-  </si>
-  <si>
-    <t>21:01</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>周二</t>
-  </si>
-  <si>
-    <t>21:36</t>
-  </si>
-  <si>
-    <t>23:11</t>
-  </si>
-  <si>
-    <t>周三</t>
-  </si>
-  <si>
-    <t>21:45</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>周四</t>
-  </si>
-  <si>
-    <t>21:50</t>
-  </si>
-  <si>
-    <t>22:12</t>
-  </si>
-  <si>
-    <t>周六</t>
-  </si>
-  <si>
-    <t>01:01</t>
-  </si>
-  <si>
     <t>21:22</t>
   </si>
   <si>
@@ -273,21 +239,6 @@
   </si>
   <si>
     <t>end_value</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>30</t>
   </si>
 </sst>
 </file>
@@ -300,7 +251,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,15 +274,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="微软雅黑 Light"/>
+      <color rgb="FF006100"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="微软雅黑 Light"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -869,52 +833,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,83 +887,83 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1025,6 +989,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,9 +998,39 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1045,9 +1040,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1379,64 +1372,62 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.225" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
-    <col min="5" max="5" width="46.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="56.175" customWidth="1"/>
-    <col min="7" max="7" width="26.6333333333333" customWidth="1"/>
-    <col min="8" max="8" width="40.125" customWidth="1"/>
-    <col min="9" max="9" width="25.775" customWidth="1"/>
-    <col min="10" max="10" width="17.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.5083333333333" customWidth="1"/>
+    <col min="2" max="3" width="10.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="48.8416666666667" customWidth="1"/>
+    <col min="6" max="6" width="54.05" customWidth="1"/>
+    <col min="7" max="8" width="27.5083333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.675" customWidth="1"/>
+    <col min="10" max="10" width="22.175" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" spans="1:35">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="16" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="24"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1459,41 +1450,41 @@
       <c r="AH1"/>
       <c r="AI1"/>
     </row>
-    <row r="2" s="16" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A2" s="17" t="s">
+    <row r="2" s="17" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="24"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="33"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1516,41 +1507,41 @@
       <c r="AH2"/>
       <c r="AI2"/>
     </row>
-    <row r="3" s="15" customFormat="1" spans="1:35">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="16" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
+      <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="28"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="24"/>
+      <c r="N3" s="33"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1573,202 +1564,106 @@
       <c r="AH3"/>
       <c r="AI3"/>
     </row>
-    <row r="4" ht="16.5" spans="2:13">
-      <c r="B4">
+    <row r="4" ht="39" customHeight="1" spans="1:13">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24">
         <v>10001</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24">
+        <v>10002</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" ht="16.5" spans="2:13">
-      <c r="B5">
-        <v>10002</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:13">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24">
+        <v>10003</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="D6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-    </row>
-    <row r="6" ht="16.5" spans="2:13">
-      <c r="B6">
-        <v>10003</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" ht="16.5" spans="2:13">
-      <c r="B7">
-        <v>10004</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-    </row>
-    <row r="8" ht="16.5" spans="2:13">
-      <c r="B8">
-        <v>10005</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-    </row>
-    <row r="9" ht="16.5" spans="2:13">
-      <c r="B9">
-        <v>10006</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" ht="16.5" spans="2:13">
-      <c r="B10">
-        <v>10007</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="3:13">
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="I11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="3:13">
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="3:13">
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="I7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1784,41 +1679,44 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="7" max="7" width="17.7416666666667" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="3" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="17.7416666666667" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="10"/>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1828,236 +1726,246 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="10"/>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="2:6">
+        <v>41</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4">
         <v>10001</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="4:6">
-      <c r="D5" t="s">
+    <row r="7" spans="5:7">
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="4:6">
-      <c r="D6" t="s">
+    <row r="8" spans="5:14">
+      <c r="E8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="J8">
+        <v>10002</v>
+      </c>
+      <c r="K8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" t="s">
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="N8" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14">
+      <c r="E9" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="4:13">
-      <c r="D8" s="13" t="s">
+      <c r="G9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="N9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I8">
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10">
         <v>10002</v>
       </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>10003</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="F11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="4:13">
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10">
-        <v>10004</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6">
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="5:6">
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="5:6">
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="5:6">
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="G11" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2069,8 +1977,8 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -2086,13 +1994,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -2108,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -2120,76 +2028,45 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="9">
-        <v>10001</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1001</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="9">
-        <v>10004</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="9">
-        <f>$D$4*1000+1</f>
-        <v>1001001</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>31</v>
-      </c>
-      <c r="F7" s="9">
-        <v>50</v>
-      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24765" windowHeight="17655" activeTab="2"/>
+    <workbookView windowWidth="24765" windowHeight="12105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>23:30</t>
+  </si>
+  <si>
+    <t>20:30</t>
   </si>
   <si>
     <t>21:15</t>
@@ -963,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1020,16 +1023,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1425,9 +1422,9 @@
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1481,10 +1478,10 @@
       <c r="J2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="33"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="31"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1539,9 +1536,9 @@
         <v>23</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="37"/>
+      <c r="L3" s="35"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="33"/>
+      <c r="N3" s="31"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1569,101 +1566,101 @@
       <c r="B4" s="24">
         <v>10001</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="24"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:13">
       <c r="A5" s="24"/>
       <c r="B5" s="24">
         <v>10002</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:13">
       <c r="A6" s="24"/>
       <c r="B6" s="24">
         <v>10003</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="24"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="I7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1681,8 +1678,8 @@
   <sheetPr/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1869,7 +1866,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>45</v>
@@ -1889,7 +1886,7 @@
         <v>55</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>54</v>
@@ -1977,7 +1974,7 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2000,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -2028,13 +2025,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" s="8"/>
     </row>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24765" windowHeight="12105" activeTab="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -105,7 +105,7 @@
     <t>肉,重油,饱腹</t>
   </si>
   <si>
-    <t>喵老师</t>
+    <t>喵喵</t>
   </si>
   <si>
     <t>Assets/GameRes/Prefabs/NPC/LittleGirl.prefab</t>
@@ -226,7 +226,10 @@
     <t>23:30</t>
   </si>
   <si>
-    <t>20:30</t>
+    <t>喵老师</t>
+  </si>
+  <si>
+    <t>21:30</t>
   </si>
   <si>
     <t>21:15</t>
@@ -1371,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1678,8 +1681,8 @@
   <sheetPr/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1857,7 +1860,7 @@
         <v>10002</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>10003</v>
@@ -1866,7 +1869,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>45</v>
@@ -1886,7 +1889,7 @@
         <v>55</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>54</v>
@@ -1997,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -2025,13 +2028,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="8"/>
     </row>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -30,6 +30,9 @@
     <t>desc</t>
   </si>
   <si>
+    <t>soul</t>
+  </si>
+  <si>
     <t>res_path</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>灵魂</t>
   </si>
   <si>
     <t>资源路径</t>
@@ -1372,28 +1378,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="10.5083333333333" customWidth="1"/>
     <col min="2" max="3" width="10.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="48.8416666666667" customWidth="1"/>
-    <col min="6" max="6" width="54.05" customWidth="1"/>
-    <col min="7" max="8" width="27.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="16.675" customWidth="1"/>
-    <col min="10" max="10" width="22.175" customWidth="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5.13333333333333" customWidth="1"/>
+    <col min="4" max="5" width="13.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="48.8416666666667" customWidth="1"/>
+    <col min="7" max="7" width="54.05" customWidth="1"/>
+    <col min="8" max="9" width="27.5083333333333" customWidth="1"/>
+    <col min="10" max="10" width="16.675" customWidth="1"/>
+    <col min="11" max="11" width="22.175" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
+    <row r="1" s="16" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1409,10 +1415,10 @@
       <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -1424,11 +1430,13 @@
       <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1"/>
+      <c r="K1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -1449,43 +1457,46 @@
       <c r="AG1"/>
       <c r="AH1"/>
       <c r="AI1"/>
-    </row>
-    <row r="2" s="17" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
+      <c r="AJ1"/>
+    </row>
+    <row r="2" s="17" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
       <c r="A2" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>13</v>
       </c>
+      <c r="G2" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="31"/>
-      <c r="O2"/>
+      <c r="K2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="31"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1506,43 +1517,46 @@
       <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2"/>
-    </row>
-    <row r="3" s="16" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
+      <c r="AJ2"/>
+    </row>
+    <row r="3" s="16" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
       <c r="A3" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="31"/>
-      <c r="O3"/>
+        <v>24</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="31"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -1563,112 +1577,120 @@
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
-    </row>
-    <row r="4" ht="39" customHeight="1" spans="1:13">
+      <c r="AJ3"/>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:14">
       <c r="A4" s="24"/>
       <c r="B4" s="24">
         <v>10001</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>27</v>
       </c>
+      <c r="G4" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="H4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="J4" s="24"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="36"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="36"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:13">
+      <c r="N4" s="36"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:14">
       <c r="A5" s="24"/>
       <c r="B5" s="24">
         <v>10002</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="I5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="24"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="36"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="36"/>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:13">
+      <c r="N5" s="36"/>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:14">
       <c r="A6" s="24"/>
       <c r="B6" s="24">
         <v>10003</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="24"/>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="24"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="36"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="36"/>
-    </row>
-    <row r="7" spans="3:13">
+      <c r="N6" s="36"/>
+    </row>
+    <row r="7" spans="3:14">
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="I7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="36"/>
+      <c r="E7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="J7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="36"/>
-    </row>
-    <row r="8" spans="3:13">
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="3:14">
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="36"/>
+      <c r="E8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1682,7 +1704,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1700,16 +1722,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
@@ -1718,19 +1740,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
@@ -1745,13 +1767,13 @@
       <c r="C3" s="6"/>
       <c r="D3" s="11"/>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1761,98 +1783,98 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="5:7">
       <c r="E6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="5:7">
       <c r="E7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="5:14">
       <c r="E8" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J8">
         <v>10002</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="5:14">
       <c r="E9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -1860,50 +1882,50 @@
         <v>10002</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>10003</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="6:7">
@@ -1994,29 +2016,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -2028,13 +2050,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G3" s="8"/>
     </row>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
     <sheet name="人物出现时间" sheetId="3" r:id="rId2"/>
-    <sheet name="人物评分对话(弃用)" sheetId="4" r:id="rId3"/>
+    <sheet name="人群" sheetId="5" r:id="rId3"/>
+    <sheet name="人物评分对话(弃用)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -130,6 +131,15 @@
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/Portrait/DeliveryManPortrait.png</t>
+  </si>
+  <si>
+    <t>老板</t>
+  </si>
+  <si>
+    <t>店主</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/NPC/ShopKeeper.prefab</t>
   </si>
   <si>
     <r>
@@ -214,24 +224,12 @@
     <t>01:01</t>
   </si>
   <si>
-    <t>卖鱼佬</t>
-  </si>
-  <si>
-    <t>21:22</t>
-  </si>
-  <si>
     <t>周日</t>
   </si>
   <si>
     <t>21:10</t>
   </si>
   <si>
-    <t>22:01</t>
-  </si>
-  <si>
-    <t>23:30</t>
-  </si>
-  <si>
     <t>喵老师</t>
   </si>
   <si>
@@ -239,6 +237,48 @@
   </si>
   <si>
     <t>21:15</t>
+  </si>
+  <si>
+    <t>weekDay</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>peopleNum</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>common.WeekDay</t>
+  </si>
+  <si>
+    <t>人群人数</t>
+  </si>
+  <si>
+    <t>间隔(秒)</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
   <si>
     <t>*comments</t>
@@ -263,7 +303,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +324,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -441,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +503,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,137 +915,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -998,47 +1068,72 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,11 +1141,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1380,8 +1475,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1399,44 +1494,44 @@
     <col min="14" max="14" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="29" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="31" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="31"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -1459,44 +1554,44 @@
       <c r="AI1"/>
       <c r="AJ1"/>
     </row>
-    <row r="2" s="17" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A2" s="20" t="s">
+    <row r="2" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="44"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1519,44 +1614,44 @@
       <c r="AI2"/>
       <c r="AJ2"/>
     </row>
-    <row r="3" s="16" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A3" s="23" t="s">
+    <row r="3" s="29" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="36" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="35"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="31"/>
+      <c r="O3" s="44"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -1580,112 +1675,124 @@
       <c r="AJ3"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:14">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37">
         <v>10001</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37">
         <v>1</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37">
         <v>10002</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37">
         <v>1</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:14">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37">
         <v>10003</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="37">
         <v>0</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-    </row>
-    <row r="7" spans="3:14">
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="J7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:14">
+      <c r="B7" s="37">
+        <v>10004</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="3:14">
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1703,8 +1810,8 @@
   <sheetPr/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1722,21 +1829,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -1752,12 +1859,12 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
@@ -1765,18 +1872,18 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4">
@@ -1789,200 +1896,174 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="5:7">
       <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="5:7">
       <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14">
+      <c r="E8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="5:14">
-      <c r="E8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8">
-        <v>10002</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="G8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="5:14">
       <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="15" t="s">
+      <c r="F9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="G9" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10">
         <v>10002</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>10003</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>56</v>
+      <c r="G11" s="26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="6:7">
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1995,6 +2076,920 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="2:6">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="11">
+        <v>20</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="2:6">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="11">
+        <v>21</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="2:6">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="11">
+        <v>22</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:6">
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="11">
+        <v>23</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="2:6">
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="11">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="2:6">
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="11">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="2:6">
+      <c r="B10" s="11">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="11">
+        <v>26</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="2:6">
+      <c r="B11" s="13">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="13">
+        <v>20</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5</v>
+      </c>
+      <c r="F11" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="2:6">
+      <c r="B12" s="13">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="13">
+        <v>21</v>
+      </c>
+      <c r="E12" s="13">
+        <v>5</v>
+      </c>
+      <c r="F12" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="2:6">
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="13">
+        <v>22</v>
+      </c>
+      <c r="E13" s="13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:6">
+      <c r="B14" s="13">
+        <v>11</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="13">
+        <v>23</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:6">
+      <c r="B15" s="13">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="13">
+        <v>24</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="2:6">
+      <c r="B16" s="13">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="13">
+        <v>25</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="2:6">
+      <c r="B17" s="13">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="13">
+        <v>26</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:6">
+      <c r="B18" s="15">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="15">
+        <v>20</v>
+      </c>
+      <c r="E18" s="15">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:6">
+      <c r="B19" s="15">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="15">
+        <v>21</v>
+      </c>
+      <c r="E19" s="15">
+        <v>5</v>
+      </c>
+      <c r="F19" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:6">
+      <c r="B20" s="15">
+        <v>17</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="15">
+        <v>22</v>
+      </c>
+      <c r="E20" s="15">
+        <v>4</v>
+      </c>
+      <c r="F20" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:6">
+      <c r="B21" s="15">
+        <v>18</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="15">
+        <v>23</v>
+      </c>
+      <c r="E21" s="15">
+        <v>3</v>
+      </c>
+      <c r="F21" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:6">
+      <c r="B22" s="15">
+        <v>19</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="15">
+        <v>24</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2</v>
+      </c>
+      <c r="F22" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:6">
+      <c r="B23" s="15">
+        <v>20</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="15">
+        <v>25</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:6">
+      <c r="B24" s="15">
+        <v>21</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="15">
+        <v>26</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:6">
+      <c r="B25" s="17">
+        <v>22</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="17">
+        <v>20</v>
+      </c>
+      <c r="E25" s="17">
+        <v>5</v>
+      </c>
+      <c r="F25" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:6">
+      <c r="B26" s="17">
+        <v>23</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="17">
+        <v>21</v>
+      </c>
+      <c r="E26" s="17">
+        <v>5</v>
+      </c>
+      <c r="F26" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="2:6">
+      <c r="B27" s="17">
+        <v>24</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="17">
+        <v>22</v>
+      </c>
+      <c r="E27" s="17">
+        <v>4</v>
+      </c>
+      <c r="F27" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="2:6">
+      <c r="B28" s="17">
+        <v>25</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="17">
+        <v>23</v>
+      </c>
+      <c r="E28" s="17">
+        <v>3</v>
+      </c>
+      <c r="F28" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="2:6">
+      <c r="B29" s="17">
+        <v>26</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="17">
+        <v>24</v>
+      </c>
+      <c r="E29" s="17">
+        <v>2</v>
+      </c>
+      <c r="F29" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="2:6">
+      <c r="B30" s="17">
+        <v>27</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="17">
+        <v>25</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="2:6">
+      <c r="B31" s="17">
+        <v>28</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="17">
+        <v>26</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="2:6">
+      <c r="B32" s="11">
+        <v>29</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="11">
+        <v>20</v>
+      </c>
+      <c r="E32" s="11">
+        <v>6</v>
+      </c>
+      <c r="F32" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="2:6">
+      <c r="B33" s="11">
+        <v>30</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="11">
+        <v>21</v>
+      </c>
+      <c r="E33" s="11">
+        <v>7</v>
+      </c>
+      <c r="F33" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="2:6">
+      <c r="B34" s="11">
+        <v>31</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="11">
+        <v>22</v>
+      </c>
+      <c r="E34" s="11">
+        <v>6</v>
+      </c>
+      <c r="F34" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="2:6">
+      <c r="B35" s="11">
+        <v>32</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="11">
+        <v>23</v>
+      </c>
+      <c r="E35" s="11">
+        <v>5</v>
+      </c>
+      <c r="F35" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="2:6">
+      <c r="B36" s="11">
+        <v>33</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="11">
+        <v>24</v>
+      </c>
+      <c r="E36" s="11">
+        <v>3</v>
+      </c>
+      <c r="F36" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="2:6">
+      <c r="B37" s="11">
+        <v>34</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="11">
+        <v>25</v>
+      </c>
+      <c r="E37" s="11">
+        <v>2</v>
+      </c>
+      <c r="F37" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="2:6">
+      <c r="B38" s="11">
+        <v>35</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="11">
+        <v>26</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="2:6">
+      <c r="B39" s="19">
+        <v>36</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="19">
+        <v>20</v>
+      </c>
+      <c r="E39" s="19">
+        <v>6</v>
+      </c>
+      <c r="F39" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="2:6">
+      <c r="B40" s="19">
+        <v>37</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="19">
+        <v>21</v>
+      </c>
+      <c r="E40" s="19">
+        <v>7</v>
+      </c>
+      <c r="F40" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="2:6">
+      <c r="B41" s="19">
+        <v>38</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="19">
+        <v>22</v>
+      </c>
+      <c r="E41" s="19">
+        <v>6</v>
+      </c>
+      <c r="F41" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="2:6">
+      <c r="B42" s="19">
+        <v>39</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="19">
+        <v>23</v>
+      </c>
+      <c r="E42" s="19">
+        <v>5</v>
+      </c>
+      <c r="F42" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="2:6">
+      <c r="B43" s="19">
+        <v>40</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="19">
+        <v>24</v>
+      </c>
+      <c r="E43" s="19">
+        <v>3</v>
+      </c>
+      <c r="F43" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="2:6">
+      <c r="B44" s="19">
+        <v>41</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="19">
+        <v>25</v>
+      </c>
+      <c r="E44" s="19">
+        <v>2</v>
+      </c>
+      <c r="F44" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="2:6">
+      <c r="B45" s="19">
+        <v>42</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="19">
+        <v>26</v>
+      </c>
+      <c r="E45" s="19">
+        <v>2</v>
+      </c>
+      <c r="F45" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="2:6">
+      <c r="B46" s="15">
+        <v>43</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="15">
+        <v>20</v>
+      </c>
+      <c r="E46" s="15">
+        <v>7</v>
+      </c>
+      <c r="F46" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="2:6">
+      <c r="B47" s="15">
+        <v>44</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="15">
+        <v>21</v>
+      </c>
+      <c r="E47" s="15">
+        <v>6</v>
+      </c>
+      <c r="F47" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="2:6">
+      <c r="B48" s="15">
+        <v>45</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="15">
+        <v>22</v>
+      </c>
+      <c r="E48" s="15">
+        <v>7</v>
+      </c>
+      <c r="F48" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="2:6">
+      <c r="B49" s="15">
+        <v>46</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="15">
+        <v>23</v>
+      </c>
+      <c r="E49" s="15">
+        <v>6</v>
+      </c>
+      <c r="F49" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="2:6">
+      <c r="B50" s="15">
+        <v>47</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="15">
+        <v>24</v>
+      </c>
+      <c r="E50" s="15">
+        <v>5</v>
+      </c>
+      <c r="F50" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="2:6">
+      <c r="B51" s="15">
+        <v>48</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="15">
+        <v>25</v>
+      </c>
+      <c r="E51" s="15">
+        <v>3</v>
+      </c>
+      <c r="F51" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="2:6">
+      <c r="B52" s="15">
+        <v>49</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="15">
+        <v>26</v>
+      </c>
+      <c r="E52" s="15">
+        <v>2</v>
+      </c>
+      <c r="F52" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" spans="3:3">
+      <c r="C53" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G7"/>
@@ -2016,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -2038,7 +3033,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -2050,13 +3045,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8"/>
     </row>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="1"/>
+    <workbookView windowWidth="30885" windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -1810,8 +1810,8 @@
   <sheetPr/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30885" windowHeight="17655" activeTab="1"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>##var</t>
   </si>
@@ -176,67 +176,97 @@
     <t>weekday</t>
   </si>
   <si>
-    <t>enter_time</t>
+    <t>weather_limit</t>
+  </si>
+  <si>
+    <t>enter_time_begin</t>
+  </si>
+  <si>
+    <t>enter_time_end</t>
   </si>
   <si>
     <t>leave_time</t>
   </si>
   <si>
+    <t>aa</t>
+  </si>
+  <si>
     <t>周一</t>
   </si>
   <si>
+    <t>晴天;雨天</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>周二</t>
+  </si>
+  <si>
+    <t>21:36</t>
+  </si>
+  <si>
+    <t>21:35</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>26:00</t>
+  </si>
+  <si>
+    <t>周日</t>
+  </si>
+  <si>
+    <t>21:10</t>
+  </si>
+  <si>
+    <t>25:00</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>21:15</t>
+  </si>
+  <si>
+    <t>22:45</t>
+  </si>
+  <si>
     <t>21:01</t>
   </si>
   <si>
     <t>22:00</t>
-  </si>
-  <si>
-    <t>周二</t>
-  </si>
-  <si>
-    <t>21:36</t>
-  </si>
-  <si>
-    <t>23:11</t>
-  </si>
-  <si>
-    <t>周三</t>
-  </si>
-  <si>
-    <t>21:45</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>周四</t>
-  </si>
-  <si>
-    <t>21:50</t>
-  </si>
-  <si>
-    <t>22:12</t>
-  </si>
-  <si>
-    <t>周六</t>
-  </si>
-  <si>
-    <t>01:01</t>
-  </si>
-  <si>
-    <t>周日</t>
-  </si>
-  <si>
-    <t>21:10</t>
-  </si>
-  <si>
-    <t>喵老师</t>
-  </si>
-  <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>21:15</t>
   </si>
   <si>
     <t>weekDay</t>
@@ -487,7 +517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,7 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +957,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,16 +981,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -966,86 +1002,86 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1069,55 +1105,86 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="22" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1141,11 +1208,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1475,8 +1542,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1494,44 +1561,44 @@
     <col min="14" max="14" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A1" s="31" t="s">
+    <row r="1" s="36" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="51"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -1554,44 +1621,44 @@
       <c r="AI1"/>
       <c r="AJ1"/>
     </row>
-    <row r="2" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A2" s="33" t="s">
+    <row r="2" s="37" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="51"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1614,44 +1681,44 @@
       <c r="AI2"/>
       <c r="AJ2"/>
     </row>
-    <row r="3" s="29" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A3" s="36" t="s">
+    <row r="3" s="36" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="43" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="48"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="44"/>
+      <c r="O3" s="51"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -1675,124 +1742,124 @@
       <c r="AJ3"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:14">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44">
         <v>10001</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44">
         <v>1</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44">
         <v>10002</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44">
         <v>1</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:14">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44">
         <v>10003</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="44">
+        <v>1</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:14">
+      <c r="B7" s="44">
+        <v>10004</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="44">
         <v>0</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-    </row>
-    <row r="7" ht="16.5" spans="2:14">
-      <c r="B7" s="37">
-        <v>10004</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="37">
-        <v>0</v>
-      </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
+      <c r="H7" s="47"/>
+      <c r="J7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
     </row>
     <row r="8" spans="3:14">
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1808,23 +1875,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="17.7416666666667" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="14.3916666666667" customWidth="1"/>
+    <col min="6" max="7" width="16.025" customWidth="1"/>
+    <col min="8" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="17.7416666666667" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,12 +1907,14 @@
       <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="F1" s="22"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1861,12 +1930,14 @@
       <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="F2" s="22"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1882,193 +1953,326 @@
       <c r="G3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4">
+      <c r="H3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27">
         <v>10001</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
+      <c r="C5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="27">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7">
-      <c r="E5" t="s">
+      <c r="E5" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="5:7">
-      <c r="E6" t="s">
+      <c r="H5" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="I5" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="24" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="5:7">
-      <c r="E7" t="s">
+      <c r="F6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="H6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="I6" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="5:14">
-      <c r="E8" s="25" t="s">
+      <c r="F7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="26" t="s">
+      <c r="H7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="5:14">
-      <c r="E9" t="s">
+      <c r="I7" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10">
+      <c r="H8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29">
         <v>10002</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="29">
+        <v>10003</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D10">
-        <v>10003</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="6:7">
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="6:7">
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="6:7">
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="6:7">
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="6:7">
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="6:7">
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="6:7">
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="6:7">
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="6:7">
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-    </row>
-    <row r="25" spans="6:7">
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="6:7">
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="F12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9">
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="6:9">
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="6:9">
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="6:9">
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="6:9">
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="6:9">
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="6:9">
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2080,8 +2284,8 @@
   <sheetPr/>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2101,16 +2305,16 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2121,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -2141,10 +2345,10 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:6">
@@ -2152,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D4" s="11">
         <v>20</v>
@@ -2169,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D5" s="11">
         <v>21</v>
@@ -2186,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D6" s="11">
         <v>22</v>
@@ -2203,7 +2407,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D7" s="11">
         <v>23</v>
@@ -2220,7 +2424,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D8" s="11">
         <v>24</v>
@@ -2237,7 +2441,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D9" s="11">
         <v>25</v>
@@ -2254,7 +2458,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D10" s="11">
         <v>26</v>
@@ -2271,7 +2475,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D11" s="13">
         <v>20</v>
@@ -2288,7 +2492,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D12" s="13">
         <v>21</v>
@@ -2305,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D13" s="13">
         <v>22</v>
@@ -2322,7 +2526,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D14" s="13">
         <v>23</v>
@@ -2339,7 +2543,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D15" s="13">
         <v>24</v>
@@ -2356,7 +2560,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D16" s="13">
         <v>25</v>
@@ -2373,7 +2577,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D17" s="13">
         <v>26</v>
@@ -2390,7 +2594,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D18" s="15">
         <v>20</v>
@@ -2407,7 +2611,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D19" s="15">
         <v>21</v>
@@ -2424,7 +2628,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D20" s="15">
         <v>22</v>
@@ -2441,7 +2645,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D21" s="15">
         <v>23</v>
@@ -2458,7 +2662,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D22" s="15">
         <v>24</v>
@@ -2475,7 +2679,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D23" s="15">
         <v>25</v>
@@ -2492,7 +2696,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D24" s="15">
         <v>26</v>
@@ -2509,7 +2713,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D25" s="17">
         <v>20</v>
@@ -2526,7 +2730,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D26" s="17">
         <v>21</v>
@@ -2543,7 +2747,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D27" s="17">
         <v>22</v>
@@ -2560,7 +2764,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D28" s="17">
         <v>23</v>
@@ -2577,7 +2781,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D29" s="17">
         <v>24</v>
@@ -2594,7 +2798,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D30" s="17">
         <v>25</v>
@@ -2611,7 +2815,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D31" s="17">
         <v>26</v>
@@ -2628,7 +2832,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D32" s="11">
         <v>20</v>
@@ -2645,7 +2849,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D33" s="11">
         <v>21</v>
@@ -2662,7 +2866,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D34" s="11">
         <v>22</v>
@@ -2679,7 +2883,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D35" s="11">
         <v>23</v>
@@ -2696,7 +2900,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D36" s="11">
         <v>24</v>
@@ -2713,7 +2917,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D37" s="11">
         <v>25</v>
@@ -2730,7 +2934,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D38" s="11">
         <v>26</v>
@@ -2747,7 +2951,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D39" s="19">
         <v>20</v>
@@ -2764,7 +2968,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D40" s="19">
         <v>21</v>
@@ -2781,7 +2985,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D41" s="19">
         <v>22</v>
@@ -2798,7 +3002,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D42" s="19">
         <v>23</v>
@@ -2815,7 +3019,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D43" s="19">
         <v>24</v>
@@ -2832,7 +3036,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D44" s="19">
         <v>25</v>
@@ -2849,7 +3053,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D45" s="19">
         <v>26</v>
@@ -2866,7 +3070,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D46" s="15">
         <v>20</v>
@@ -2883,7 +3087,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D47" s="15">
         <v>21</v>
@@ -2900,7 +3104,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D48" s="15">
         <v>22</v>
@@ -2917,7 +3121,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D49" s="15">
         <v>23</v>
@@ -2934,7 +3138,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D50" s="15">
         <v>24</v>
@@ -2951,7 +3155,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D51" s="15">
         <v>25</v>
@@ -2968,7 +3172,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D52" s="15">
         <v>26</v>
@@ -3017,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -3045,13 +3249,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G3" s="8"/>
     </row>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="1"/>
+    <workbookView windowWidth="14850" windowHeight="17655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
     <sheet name="人物出现时间" sheetId="3" r:id="rId2"/>
     <sheet name="人群" sheetId="5" r:id="rId3"/>
-    <sheet name="人物评分对话(弃用)" sheetId="4" r:id="rId4"/>
+    <sheet name="人物行为组" sheetId="6" r:id="rId4"/>
+    <sheet name="人物评分对话(弃用)" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="109">
   <si>
     <t>##var</t>
   </si>
@@ -46,10 +47,7 @@
     <t>unlike_flavour</t>
   </si>
   <si>
-    <t>main_dialogue</t>
-  </si>
-  <si>
-    <t>comment_dialogue</t>
+    <t>behaviour_group</t>
   </si>
   <si>
     <t>##type</t>
@@ -91,10 +89,7 @@
     <t>讨厌的口味</t>
   </si>
   <si>
-    <t>主线剧情</t>
-  </si>
-  <si>
-    <t>评价剧情</t>
+    <t>行为组</t>
   </si>
   <si>
     <t>章鱼</t>
@@ -140,6 +135,21 @@
   </si>
   <si>
     <t>Assets/GameRes/Prefabs/NPC/ShopKeeper.prefab</t>
+  </si>
+  <si>
+    <t>年轻人</t>
+  </si>
+  <si>
+    <t>有点疲惫的年轻人</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/NPC/Young.prefab</t>
+  </si>
+  <si>
+    <t>家常,实惠,荤素搭配,烧烤</t>
+  </si>
+  <si>
+    <t>昂贵</t>
   </si>
   <si>
     <r>
@@ -188,9 +198,6 @@
     <t>leave_time</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
     <t>周一</t>
   </si>
   <si>
@@ -248,7 +255,7 @@
     <t>25:00</t>
   </si>
   <si>
-    <t>bb</t>
+    <t>喵老师</t>
   </si>
   <si>
     <t>21:30</t>
@@ -269,6 +276,18 @@
     <t>22:00</t>
   </si>
   <si>
+    <t>24:30</t>
+  </si>
+  <si>
+    <t>周五</t>
+  </si>
+  <si>
+    <t>雨天</t>
+  </si>
+  <si>
+    <t>24:00</t>
+  </si>
+  <si>
     <t>weekDay</t>
   </si>
   <si>
@@ -309,6 +328,30 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>*group</t>
+  </si>
+  <si>
+    <t>(list),common.behaviour_group</t>
+  </si>
+  <si>
+    <t>behaviour</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>OrderMeal</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>OrderDrink</t>
   </si>
   <si>
     <t>*comments</t>
@@ -333,7 +376,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +394,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -538,6 +587,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -551,12 +606,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,52 +1000,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,83 +1054,83 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1104,45 +1153,60 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFill="1" applyAlignment="1"/>
@@ -1172,35 +1236,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1218,6 +1281,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1542,8 +1606,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1561,44 +1625,42 @@
     <col min="14" max="14" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="36" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A1" s="38" t="s">
+    <row r="1" s="43" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="38" t="s">
-        <v>10</v>
-      </c>
+      <c r="K1" s="45"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -1621,44 +1683,42 @@
       <c r="AI1"/>
       <c r="AJ1"/>
     </row>
-    <row r="2" s="37" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A2" s="40" t="s">
+    <row r="2" s="44" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A2" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="I2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="51"/>
+      <c r="J2" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="57"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1681,44 +1741,42 @@
       <c r="AI2"/>
       <c r="AJ2"/>
     </row>
-    <row r="3" s="36" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A3" s="43" t="s">
+    <row r="3" s="43" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A3" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="H3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="I3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="J3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>25</v>
-      </c>
+      <c r="K3" s="50"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="55"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="51"/>
+      <c r="O3" s="57"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -1742,124 +1800,152 @@
       <c r="AJ3"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:14">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51">
         <v>10001</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51">
+        <v>1</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44">
+      <c r="H4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="51">
+        <v>10001</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:14">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51">
+        <v>10002</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51">
         <v>1</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F5" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="I5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44">
-        <v>10002</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44">
+      <c r="J5" s="51">
+        <v>10001</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:14">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51">
+        <v>10003</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="51">
         <v>1</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:14">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44">
-        <v>10003</v>
-      </c>
-      <c r="C6" s="44" t="s">
+      <c r="F6" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="G6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="44">
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="51">
+        <v>10001</v>
+      </c>
+      <c r="K6" s="51"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:14">
+      <c r="B7" s="51">
+        <v>10004</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="51">
+        <v>0</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="J7" s="51">
+        <v>10001</v>
+      </c>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+    </row>
+    <row r="8" ht="33" spans="2:14">
+      <c r="B8" s="51">
+        <v>20001</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="51">
         <v>1</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-    </row>
-    <row r="7" ht="16.5" spans="2:14">
-      <c r="B7" s="44">
-        <v>10004</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="44">
-        <v>0</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-    </row>
-    <row r="8" spans="3:14">
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
+      <c r="F8" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="51">
+        <v>10001</v>
+      </c>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1877,8 +1963,8 @@
   <sheetPr/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1896,46 +1982,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="23"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="23"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
@@ -1943,331 +2029,397 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="A4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34">
         <v>10001</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="C5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="34">
         <v>0</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="28" t="s">
+      <c r="E5" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="F5" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="G5" s="35" t="s">
         <v>55</v>
       </c>
+      <c r="H5" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="41"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36">
+        <v>10002</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="36">
+        <v>10003</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34">
+        <v>20001</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="34">
+        <v>0</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="28" t="s">
+      <c r="H16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29">
-        <v>10002</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="29">
-        <v>10003</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="6:9">
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="6:9">
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="6:9">
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="6:9">
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="6:9">
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="6:9">
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="6:9">
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="6:9">
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" spans="6:9">
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="6:9">
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
     </row>
     <row r="27" spans="6:9">
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2285,7 +2437,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2302,890 +2454,890 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="2:6">
+      <c r="B4" s="20">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="20">
+        <v>20</v>
+      </c>
+      <c r="E4" s="20">
+        <v>5</v>
+      </c>
+      <c r="F4" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="2:6">
+      <c r="B5" s="20">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="20">
+        <v>21</v>
+      </c>
+      <c r="E5" s="20">
+        <v>5</v>
+      </c>
+      <c r="F5" s="20">
         <v>15</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="2:6">
-      <c r="B4" s="11">
+    </row>
+    <row r="6" ht="16.5" spans="2:6">
+      <c r="B6" s="20">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="20">
+        <v>22</v>
+      </c>
+      <c r="E6" s="20">
+        <v>4</v>
+      </c>
+      <c r="F6" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:6">
+      <c r="B7" s="20">
+        <v>4</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="20">
+        <v>23</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3</v>
+      </c>
+      <c r="F7" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="2:6">
+      <c r="B8" s="20">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="20">
+        <v>24</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2</v>
+      </c>
+      <c r="F8" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="2:6">
+      <c r="B9" s="20">
+        <v>6</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="20">
+        <v>25</v>
+      </c>
+      <c r="E9" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="F9" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="2:6">
+      <c r="B10" s="20">
+        <v>7</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="20">
+        <v>26</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="2:6">
+      <c r="B11" s="22">
+        <v>8</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="22">
         <v>20</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E11" s="22">
         <v>5</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F11" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:6">
-      <c r="B5" s="11">
+    <row r="12" ht="16.5" spans="2:6">
+      <c r="B12" s="22">
+        <v>9</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="22">
+        <v>21</v>
+      </c>
+      <c r="E12" s="22">
+        <v>5</v>
+      </c>
+      <c r="F12" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="2:6">
+      <c r="B13" s="22">
+        <v>10</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="22">
+        <v>22</v>
+      </c>
+      <c r="E13" s="22">
+        <v>4</v>
+      </c>
+      <c r="F13" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:6">
+      <c r="B14" s="22">
+        <v>11</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="22">
+        <v>23</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3</v>
+      </c>
+      <c r="F14" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:6">
+      <c r="B15" s="22">
+        <v>12</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="22">
+        <v>24</v>
+      </c>
+      <c r="E15" s="22">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="F15" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="2:6">
+      <c r="B16" s="22">
+        <v>13</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="22">
+        <v>25</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="2:6">
+      <c r="B17" s="22">
+        <v>14</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="22">
+        <v>26</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:6">
+      <c r="B18" s="24">
+        <v>15</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="24">
+        <v>20</v>
+      </c>
+      <c r="E18" s="24">
+        <v>5</v>
+      </c>
+      <c r="F18" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:6">
+      <c r="B19" s="24">
+        <v>16</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="24">
         <v>21</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E19" s="24">
         <v>5</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F19" s="24">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="2:6">
-      <c r="B6" s="11">
+    <row r="20" ht="16.5" spans="2:6">
+      <c r="B20" s="24">
+        <v>17</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="24">
+        <v>22</v>
+      </c>
+      <c r="E20" s="24">
+        <v>4</v>
+      </c>
+      <c r="F20" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:6">
+      <c r="B21" s="24">
+        <v>18</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="24">
+        <v>23</v>
+      </c>
+      <c r="E21" s="24">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="F21" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:6">
+      <c r="B22" s="24">
+        <v>19</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="24">
+        <v>24</v>
+      </c>
+      <c r="E22" s="24">
+        <v>2</v>
+      </c>
+      <c r="F22" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:6">
+      <c r="B23" s="24">
+        <v>20</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="24">
+        <v>25</v>
+      </c>
+      <c r="E23" s="24">
+        <v>1</v>
+      </c>
+      <c r="F23" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:6">
+      <c r="B24" s="24">
+        <v>21</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="24">
+        <v>26</v>
+      </c>
+      <c r="E24" s="24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:6">
+      <c r="B25" s="26">
         <v>22</v>
       </c>
-      <c r="E6" s="11">
+      <c r="C25" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="26">
+        <v>20</v>
+      </c>
+      <c r="E25" s="26">
+        <v>5</v>
+      </c>
+      <c r="F25" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:6">
+      <c r="B26" s="26">
+        <v>23</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="26">
+        <v>21</v>
+      </c>
+      <c r="E26" s="26">
+        <v>5</v>
+      </c>
+      <c r="F26" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="2:6">
+      <c r="B27" s="26">
+        <v>24</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="26">
+        <v>22</v>
+      </c>
+      <c r="E27" s="26">
         <v>4</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F27" s="26">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="2:6">
-      <c r="B7" s="11">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="11">
+    <row r="28" ht="16.5" spans="2:6">
+      <c r="B28" s="26">
+        <v>25</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="26">
         <v>23</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E28" s="26">
         <v>3</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F28" s="26">
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="2:6">
-      <c r="B8" s="11">
+    <row r="29" ht="16.5" spans="2:6">
+      <c r="B29" s="26">
+        <v>26</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="26">
+        <v>24</v>
+      </c>
+      <c r="E29" s="26">
+        <v>2</v>
+      </c>
+      <c r="F29" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="2:6">
+      <c r="B30" s="26">
+        <v>27</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="26">
+        <v>25</v>
+      </c>
+      <c r="E30" s="26">
+        <v>1</v>
+      </c>
+      <c r="F30" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="2:6">
+      <c r="B31" s="26">
+        <v>28</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="26">
+        <v>26</v>
+      </c>
+      <c r="E31" s="26">
+        <v>1</v>
+      </c>
+      <c r="F31" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="2:6">
+      <c r="B32" s="20">
+        <v>29</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="20">
+        <v>20</v>
+      </c>
+      <c r="E32" s="20">
+        <v>6</v>
+      </c>
+      <c r="F32" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="2:6">
+      <c r="B33" s="20">
+        <v>30</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="20">
+        <v>21</v>
+      </c>
+      <c r="E33" s="20">
+        <v>7</v>
+      </c>
+      <c r="F33" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="2:6">
+      <c r="B34" s="20">
+        <v>31</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="20">
+        <v>22</v>
+      </c>
+      <c r="E34" s="20">
+        <v>6</v>
+      </c>
+      <c r="F34" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="2:6">
+      <c r="B35" s="20">
+        <v>32</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="20">
+        <v>23</v>
+      </c>
+      <c r="E35" s="20">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="F35" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="2:6">
+      <c r="B36" s="20">
+        <v>33</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="20">
         <v>24</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E36" s="20">
+        <v>3</v>
+      </c>
+      <c r="F36" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="2:6">
+      <c r="B37" s="20">
+        <v>34</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="20">
+        <v>25</v>
+      </c>
+      <c r="E37" s="20">
         <v>2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F37" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="2:6">
-      <c r="B9" s="11">
+    <row r="38" ht="16.5" spans="2:6">
+      <c r="B38" s="20">
+        <v>35</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="20">
+        <v>26</v>
+      </c>
+      <c r="E38" s="20">
+        <v>2</v>
+      </c>
+      <c r="F38" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="2:6">
+      <c r="B39" s="28">
+        <v>36</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="28">
+        <v>20</v>
+      </c>
+      <c r="E39" s="28">
         <v>6</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="F39" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="2:6">
+      <c r="B40" s="28">
+        <v>37</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="28">
+        <v>21</v>
+      </c>
+      <c r="E40" s="28">
+        <v>7</v>
+      </c>
+      <c r="F40" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="2:6">
+      <c r="B41" s="28">
+        <v>38</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="28">
+        <v>22</v>
+      </c>
+      <c r="E41" s="28">
+        <v>6</v>
+      </c>
+      <c r="F41" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="2:6">
+      <c r="B42" s="28">
+        <v>39</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="28">
+        <v>23</v>
+      </c>
+      <c r="E42" s="28">
+        <v>5</v>
+      </c>
+      <c r="F42" s="28">
         <v>25</v>
       </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
+    </row>
+    <row r="43" ht="16.5" spans="2:6">
+      <c r="B43" s="28">
+        <v>40</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="28">
+        <v>24</v>
+      </c>
+      <c r="E43" s="28">
+        <v>3</v>
+      </c>
+      <c r="F43" s="28">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="2:6">
-      <c r="B10" s="11">
+    <row r="44" ht="16.5" spans="2:6">
+      <c r="B44" s="28">
+        <v>41</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="28">
+        <v>25</v>
+      </c>
+      <c r="E44" s="28">
+        <v>2</v>
+      </c>
+      <c r="F44" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="2:6">
+      <c r="B45" s="28">
+        <v>42</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="28">
+        <v>26</v>
+      </c>
+      <c r="E45" s="28">
+        <v>2</v>
+      </c>
+      <c r="F45" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="2:6">
+      <c r="B46" s="24">
+        <v>43</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="24">
+        <v>20</v>
+      </c>
+      <c r="E46" s="24">
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="F46" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="2:6">
+      <c r="B47" s="24">
+        <v>44</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="24">
+        <v>21</v>
+      </c>
+      <c r="E47" s="24">
+        <v>6</v>
+      </c>
+      <c r="F47" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="2:6">
+      <c r="B48" s="24">
+        <v>45</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="24">
+        <v>22</v>
+      </c>
+      <c r="E48" s="24">
+        <v>7</v>
+      </c>
+      <c r="F48" s="24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="2:6">
+      <c r="B49" s="24">
+        <v>46</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="24">
+        <v>23</v>
+      </c>
+      <c r="E49" s="24">
+        <v>6</v>
+      </c>
+      <c r="F49" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="2:6">
+      <c r="B50" s="24">
+        <v>47</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="24">
+        <v>24</v>
+      </c>
+      <c r="E50" s="24">
+        <v>5</v>
+      </c>
+      <c r="F50" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="2:6">
+      <c r="B51" s="24">
+        <v>48</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="24">
+        <v>25</v>
+      </c>
+      <c r="E51" s="24">
+        <v>3</v>
+      </c>
+      <c r="F51" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="2:6">
+      <c r="B52" s="24">
+        <v>49</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="24">
         <v>26</v>
       </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E52" s="24">
+        <v>2</v>
+      </c>
+      <c r="F52" s="24">
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="2:6">
-      <c r="B11" s="13">
-        <v>8</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="13">
-        <v>20</v>
-      </c>
-      <c r="E11" s="13">
-        <v>5</v>
-      </c>
-      <c r="F11" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="2:6">
-      <c r="B12" s="13">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="13">
-        <v>21</v>
-      </c>
-      <c r="E12" s="13">
-        <v>5</v>
-      </c>
-      <c r="F12" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="2:6">
-      <c r="B13" s="13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="13">
-        <v>22</v>
-      </c>
-      <c r="E13" s="13">
-        <v>4</v>
-      </c>
-      <c r="F13" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="2:6">
-      <c r="B14" s="13">
-        <v>11</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="13">
-        <v>23</v>
-      </c>
-      <c r="E14" s="13">
-        <v>3</v>
-      </c>
-      <c r="F14" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="2:6">
-      <c r="B15" s="13">
-        <v>12</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="13">
-        <v>24</v>
-      </c>
-      <c r="E15" s="13">
-        <v>2</v>
-      </c>
-      <c r="F15" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="2:6">
-      <c r="B16" s="13">
-        <v>13</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="13">
-        <v>25</v>
-      </c>
-      <c r="E16" s="13">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="2:6">
-      <c r="B17" s="13">
-        <v>14</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="13">
-        <v>26</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="2:6">
-      <c r="B18" s="15">
-        <v>15</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="15">
-        <v>20</v>
-      </c>
-      <c r="E18" s="15">
-        <v>5</v>
-      </c>
-      <c r="F18" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="2:6">
-      <c r="B19" s="15">
-        <v>16</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="15">
-        <v>21</v>
-      </c>
-      <c r="E19" s="15">
-        <v>5</v>
-      </c>
-      <c r="F19" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="2:6">
-      <c r="B20" s="15">
-        <v>17</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="15">
-        <v>22</v>
-      </c>
-      <c r="E20" s="15">
-        <v>4</v>
-      </c>
-      <c r="F20" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="2:6">
-      <c r="B21" s="15">
-        <v>18</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="15">
-        <v>23</v>
-      </c>
-      <c r="E21" s="15">
-        <v>3</v>
-      </c>
-      <c r="F21" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="2:6">
-      <c r="B22" s="15">
-        <v>19</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="15">
-        <v>24</v>
-      </c>
-      <c r="E22" s="15">
-        <v>2</v>
-      </c>
-      <c r="F22" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="2:6">
-      <c r="B23" s="15">
-        <v>20</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="15">
-        <v>25</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="2:6">
-      <c r="B24" s="15">
-        <v>21</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="15">
-        <v>26</v>
-      </c>
-      <c r="E24" s="15">
-        <v>1</v>
-      </c>
-      <c r="F24" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="2:6">
-      <c r="B25" s="17">
-        <v>22</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="17">
-        <v>20</v>
-      </c>
-      <c r="E25" s="17">
-        <v>5</v>
-      </c>
-      <c r="F25" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="2:6">
-      <c r="B26" s="17">
-        <v>23</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="17">
-        <v>21</v>
-      </c>
-      <c r="E26" s="17">
-        <v>5</v>
-      </c>
-      <c r="F26" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="2:6">
-      <c r="B27" s="17">
-        <v>24</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="17">
-        <v>22</v>
-      </c>
-      <c r="E27" s="17">
-        <v>4</v>
-      </c>
-      <c r="F27" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="2:6">
-      <c r="B28" s="17">
-        <v>25</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="17">
-        <v>23</v>
-      </c>
-      <c r="E28" s="17">
-        <v>3</v>
-      </c>
-      <c r="F28" s="17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="2:6">
-      <c r="B29" s="17">
-        <v>26</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="17">
-        <v>24</v>
-      </c>
-      <c r="E29" s="17">
-        <v>2</v>
-      </c>
-      <c r="F29" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="2:6">
-      <c r="B30" s="17">
-        <v>27</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="17">
-        <v>25</v>
-      </c>
-      <c r="E30" s="17">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="2:6">
-      <c r="B31" s="17">
-        <v>28</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="17">
-        <v>26</v>
-      </c>
-      <c r="E31" s="17">
-        <v>1</v>
-      </c>
-      <c r="F31" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="2:6">
-      <c r="B32" s="11">
-        <v>29</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="11">
-        <v>20</v>
-      </c>
-      <c r="E32" s="11">
-        <v>6</v>
-      </c>
-      <c r="F32" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" spans="2:6">
-      <c r="B33" s="11">
-        <v>30</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="11">
-        <v>21</v>
-      </c>
-      <c r="E33" s="11">
-        <v>7</v>
-      </c>
-      <c r="F33" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="2:6">
-      <c r="B34" s="11">
-        <v>31</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="11">
-        <v>22</v>
-      </c>
-      <c r="E34" s="11">
-        <v>6</v>
-      </c>
-      <c r="F34" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="2:6">
-      <c r="B35" s="11">
-        <v>32</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="11">
-        <v>23</v>
-      </c>
-      <c r="E35" s="11">
-        <v>5</v>
-      </c>
-      <c r="F35" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" spans="2:6">
-      <c r="B36" s="11">
-        <v>33</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="11">
-        <v>24</v>
-      </c>
-      <c r="E36" s="11">
-        <v>3</v>
-      </c>
-      <c r="F36" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" spans="2:6">
-      <c r="B37" s="11">
-        <v>34</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="11">
-        <v>25</v>
-      </c>
-      <c r="E37" s="11">
-        <v>2</v>
-      </c>
-      <c r="F37" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5" spans="2:6">
-      <c r="B38" s="11">
-        <v>35</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="11">
-        <v>26</v>
-      </c>
-      <c r="E38" s="11">
-        <v>2</v>
-      </c>
-      <c r="F38" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" spans="2:6">
-      <c r="B39" s="19">
-        <v>36</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="19">
-        <v>20</v>
-      </c>
-      <c r="E39" s="19">
-        <v>6</v>
-      </c>
-      <c r="F39" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" spans="2:6">
-      <c r="B40" s="19">
-        <v>37</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="19">
-        <v>21</v>
-      </c>
-      <c r="E40" s="19">
-        <v>7</v>
-      </c>
-      <c r="F40" s="19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" spans="2:6">
-      <c r="B41" s="19">
-        <v>38</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="19">
-        <v>22</v>
-      </c>
-      <c r="E41" s="19">
-        <v>6</v>
-      </c>
-      <c r="F41" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" spans="2:6">
-      <c r="B42" s="19">
-        <v>39</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="19">
-        <v>23</v>
-      </c>
-      <c r="E42" s="19">
-        <v>5</v>
-      </c>
-      <c r="F42" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" spans="2:6">
-      <c r="B43" s="19">
-        <v>40</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="19">
-        <v>24</v>
-      </c>
-      <c r="E43" s="19">
-        <v>3</v>
-      </c>
-      <c r="F43" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" spans="2:6">
-      <c r="B44" s="19">
-        <v>41</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="19">
-        <v>25</v>
-      </c>
-      <c r="E44" s="19">
-        <v>2</v>
-      </c>
-      <c r="F44" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" spans="2:6">
-      <c r="B45" s="19">
-        <v>42</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="19">
-        <v>26</v>
-      </c>
-      <c r="E45" s="19">
-        <v>2</v>
-      </c>
-      <c r="F45" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" spans="2:6">
-      <c r="B46" s="15">
-        <v>43</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="15">
-        <v>20</v>
-      </c>
-      <c r="E46" s="15">
-        <v>7</v>
-      </c>
-      <c r="F46" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" spans="2:6">
-      <c r="B47" s="15">
-        <v>44</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="15">
-        <v>21</v>
-      </c>
-      <c r="E47" s="15">
-        <v>6</v>
-      </c>
-      <c r="F47" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" spans="2:6">
-      <c r="B48" s="15">
-        <v>45</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="15">
-        <v>22</v>
-      </c>
-      <c r="E48" s="15">
-        <v>7</v>
-      </c>
-      <c r="F48" s="15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" spans="2:6">
-      <c r="B49" s="15">
-        <v>46</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="15">
-        <v>23</v>
-      </c>
-      <c r="E49" s="15">
-        <v>6</v>
-      </c>
-      <c r="F49" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" spans="2:6">
-      <c r="B50" s="15">
-        <v>47</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="15">
-        <v>24</v>
-      </c>
-      <c r="E50" s="15">
-        <v>5</v>
-      </c>
-      <c r="F50" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" spans="2:6">
-      <c r="B51" s="15">
-        <v>48</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="15">
-        <v>25</v>
-      </c>
-      <c r="E51" s="15">
-        <v>3</v>
-      </c>
-      <c r="F51" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" spans="2:6">
-      <c r="B52" s="15">
-        <v>49</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="15">
-        <v>26</v>
-      </c>
-      <c r="E52" s="15">
-        <v>2</v>
-      </c>
-      <c r="F52" s="15">
-        <v>30</v>
-      </c>
-    </row>
     <row r="53" ht="16.5" spans="3:3">
-      <c r="C53" s="21"/>
+      <c r="C53" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3196,10 +3348,206 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="15.8416666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.7083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>10001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>10002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>10003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>10004</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>10005</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -3215,29 +3563,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -3249,13 +3597,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G3" s="8"/>
     </row>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14850" windowHeight="17655" activeTab="3"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -35,10 +35,10 @@
     <t>soul</t>
   </si>
   <si>
-    <t>res_path</t>
-  </si>
-  <si>
-    <t>portrait_path</t>
+    <t>prefab_path</t>
+  </si>
+  <si>
+    <t>picture_path</t>
   </si>
   <si>
     <t>like_flavour</t>
@@ -77,10 +77,10 @@
     <t>灵魂</t>
   </si>
   <si>
-    <t>资源路径</t>
-  </si>
-  <si>
-    <t>头像路径</t>
+    <t>预制体路径</t>
+  </si>
+  <si>
+    <t>图片路径</t>
   </si>
   <si>
     <t>喜欢的口味</t>
@@ -98,7 +98,7 @@
     <t>Assets/GameRes/Prefabs/NPC/YoungFatMan.prefab</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/YoungFatManPortrait.png</t>
+    <t>Assets/GameRes/Picture/Character/extra01/A1.png</t>
   </si>
   <si>
     <t>家常,清淡</t>
@@ -113,9 +113,6 @@
     <t>Assets/GameRes/Prefabs/NPC/LittleGirl.prefab</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/LittleGirlPortrait.png</t>
-  </si>
-  <si>
     <t>伊万</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Assets/GameRes/Prefabs/NPC/Bear.prefab</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/Portrait/DeliveryManPortrait.png</t>
-  </si>
-  <si>
     <t>老板</t>
   </si>
   <si>
@@ -143,7 +137,7 @@
     <t>有点疲惫的年轻人</t>
   </si>
   <si>
-    <t>Assets/GameRes/Prefabs/NPC/Young.prefab</t>
+    <t>Assets/GameRes/Prefabs/NPC/Extra01.prefab</t>
   </si>
   <si>
     <t>家常,实惠,荤素搭配,烧烤</t>
@@ -593,6 +587,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -605,19 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,7 +1124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1174,23 +1168,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1213,16 +1211,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="22" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1606,8 +1604,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1625,42 +1623,42 @@
     <col min="14" max="14" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A1" s="45" t="s">
+    <row r="1" s="47" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45"/>
+      <c r="K1" s="49"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -1683,42 +1681,42 @@
       <c r="AI1"/>
       <c r="AJ1"/>
     </row>
-    <row r="2" s="44" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A2" s="47" t="s">
+    <row r="2" s="48" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="57"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="61"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1741,42 +1739,42 @@
       <c r="AI2"/>
       <c r="AJ2"/>
     </row>
-    <row r="3" s="43" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A3" s="50" t="s">
+    <row r="3" s="47" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="50"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="61"/>
+      <c r="M3" s="65"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="57"/>
+      <c r="O3" s="61"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -1800,152 +1798,150 @@
       <c r="AJ3"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:14">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55">
         <v>10001</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55">
         <v>1</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="55">
         <v>10001</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55">
         <v>10002</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55">
         <v>1</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="55">
+        <v>10001</v>
+      </c>
+      <c r="K5" s="55"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:14">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55">
+        <v>10003</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="51">
+      <c r="D6" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="55">
+        <v>1</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="55">
         <v>10001</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:14">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51">
-        <v>10003</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="51">
+      <c r="K6" s="55"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+    </row>
+    <row r="7" ht="46" customHeight="1" spans="2:14">
+      <c r="B7" s="55">
+        <v>10004</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="55">
+        <v>0</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="J7" s="55">
+        <v>10001</v>
+      </c>
+      <c r="L7" s="66"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+    </row>
+    <row r="8" ht="33" spans="2:14">
+      <c r="B8" s="55">
+        <v>20001</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="55">
         <v>1</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="51">
+      <c r="F8" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="55">
         <v>10001</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-    </row>
-    <row r="7" ht="16.5" spans="2:14">
-      <c r="B7" s="51">
-        <v>10004</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="51">
-        <v>0</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="J7" s="51">
-        <v>10001</v>
-      </c>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-    </row>
-    <row r="8" ht="33" spans="2:14">
-      <c r="B8" s="51">
-        <v>20001</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="51">
-        <v>1</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="51">
-        <v>10001</v>
-      </c>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1963,8 +1959,8 @@
   <sheetPr/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I2"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1982,23 +1978,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -2014,14 +2010,14 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
@@ -2029,397 +2025,397 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="19"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="F5" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34">
-        <v>10001</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="34">
+      <c r="G5" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40">
+        <v>10002</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="40">
+        <v>10003</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38">
+        <v>20001</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="38">
         <v>0</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E14" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="35" t="s">
+      <c r="H17" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36">
-        <v>10002</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="36">
-        <v>10003</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34">
-        <v>20001</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="34">
-        <v>0</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="18" spans="6:9">
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="6:9">
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="6:9">
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="6:9">
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="6:9">
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="6:9">
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="6:9">
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2454,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2477,7 +2473,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2494,850 +2490,850 @@
         <v>14</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="2:6">
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="D4" s="24">
+        <v>20</v>
+      </c>
+      <c r="E4" s="24">
+        <v>5</v>
+      </c>
+      <c r="F4" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="2:6">
+      <c r="B5" s="24">
+        <v>2</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="24">
+        <v>21</v>
+      </c>
+      <c r="E5" s="24">
+        <v>5</v>
+      </c>
+      <c r="F5" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="2:6">
+      <c r="B6" s="24">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="24">
+        <v>22</v>
+      </c>
+      <c r="E6" s="24">
+        <v>4</v>
+      </c>
+      <c r="F6" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:6">
+      <c r="B7" s="24">
+        <v>4</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="24">
+        <v>23</v>
+      </c>
+      <c r="E7" s="24">
+        <v>3</v>
+      </c>
+      <c r="F7" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="2:6">
+      <c r="B8" s="24">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="24">
+        <v>24</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2</v>
+      </c>
+      <c r="F8" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="2:6">
+      <c r="B9" s="24">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="24">
+        <v>25</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="2:6">
+      <c r="B10" s="24">
+        <v>7</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="24">
+        <v>26</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="2:6">
+      <c r="B11" s="26">
+        <v>8</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" spans="2:6">
-      <c r="B4" s="20">
+      <c r="D11" s="26">
+        <v>20</v>
+      </c>
+      <c r="E11" s="26">
+        <v>5</v>
+      </c>
+      <c r="F11" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="2:6">
+      <c r="B12" s="26">
+        <v>9</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="26">
+        <v>21</v>
+      </c>
+      <c r="E12" s="26">
+        <v>5</v>
+      </c>
+      <c r="F12" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="2:6">
+      <c r="B13" s="26">
+        <v>10</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="26">
+        <v>22</v>
+      </c>
+      <c r="E13" s="26">
+        <v>4</v>
+      </c>
+      <c r="F13" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:6">
+      <c r="B14" s="26">
+        <v>11</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="26">
+        <v>23</v>
+      </c>
+      <c r="E14" s="26">
+        <v>3</v>
+      </c>
+      <c r="F14" s="26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:6">
+      <c r="B15" s="26">
+        <v>12</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="26">
+        <v>24</v>
+      </c>
+      <c r="E15" s="26">
+        <v>2</v>
+      </c>
+      <c r="F15" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="2:6">
+      <c r="B16" s="26">
+        <v>13</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="26">
+        <v>25</v>
+      </c>
+      <c r="E16" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="F16" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="2:6">
+      <c r="B17" s="26">
+        <v>14</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="26">
+        <v>26</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1</v>
+      </c>
+      <c r="F17" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:6">
+      <c r="B18" s="28">
+        <v>15</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D18" s="28">
         <v>20</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E18" s="28">
         <v>5</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F18" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:6">
-      <c r="B5" s="20">
+    <row r="19" ht="16.5" spans="2:6">
+      <c r="B19" s="28">
+        <v>16</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="28">
+        <v>21</v>
+      </c>
+      <c r="E19" s="28">
+        <v>5</v>
+      </c>
+      <c r="F19" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:6">
+      <c r="B20" s="28">
+        <v>17</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="28">
+        <v>22</v>
+      </c>
+      <c r="E20" s="28">
+        <v>4</v>
+      </c>
+      <c r="F20" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:6">
+      <c r="B21" s="28">
+        <v>18</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="28">
+        <v>23</v>
+      </c>
+      <c r="E21" s="28">
+        <v>3</v>
+      </c>
+      <c r="F21" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:6">
+      <c r="B22" s="28">
+        <v>19</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="28">
+        <v>24</v>
+      </c>
+      <c r="E22" s="28">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="F22" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:6">
+      <c r="B23" s="28">
+        <v>20</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D23" s="28">
+        <v>25</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1</v>
+      </c>
+      <c r="F23" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:6">
+      <c r="B24" s="28">
         <v>21</v>
       </c>
-      <c r="E5" s="20">
+      <c r="C24" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="28">
+        <v>26</v>
+      </c>
+      <c r="E24" s="28">
+        <v>1</v>
+      </c>
+      <c r="F24" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:6">
+      <c r="B25" s="30">
+        <v>22</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="30">
+        <v>20</v>
+      </c>
+      <c r="E25" s="30">
         <v>5</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F25" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:6">
+      <c r="B26" s="30">
+        <v>23</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="30">
+        <v>21</v>
+      </c>
+      <c r="E26" s="30">
+        <v>5</v>
+      </c>
+      <c r="F26" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="2:6">
-      <c r="B6" s="20">
+    <row r="27" ht="16.5" spans="2:6">
+      <c r="B27" s="30">
+        <v>24</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="30">
+        <v>22</v>
+      </c>
+      <c r="E27" s="30">
+        <v>4</v>
+      </c>
+      <c r="F27" s="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="2:6">
+      <c r="B28" s="30">
+        <v>25</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="30">
+        <v>23</v>
+      </c>
+      <c r="E28" s="30">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="F28" s="30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="2:6">
+      <c r="B29" s="30">
+        <v>26</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="30">
+        <v>24</v>
+      </c>
+      <c r="E29" s="30">
+        <v>2</v>
+      </c>
+      <c r="F29" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="2:6">
+      <c r="B30" s="30">
+        <v>27</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="30">
+        <v>25</v>
+      </c>
+      <c r="E30" s="30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="2:6">
+      <c r="B31" s="30">
+        <v>28</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="30">
+        <v>26</v>
+      </c>
+      <c r="E31" s="30">
+        <v>1</v>
+      </c>
+      <c r="F31" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="2:6">
+      <c r="B32" s="24">
+        <v>29</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="24">
+        <v>20</v>
+      </c>
+      <c r="E32" s="24">
+        <v>6</v>
+      </c>
+      <c r="F32" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="2:6">
+      <c r="B33" s="24">
+        <v>30</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="24">
+        <v>21</v>
+      </c>
+      <c r="E33" s="24">
+        <v>7</v>
+      </c>
+      <c r="F33" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="2:6">
+      <c r="B34" s="24">
+        <v>31</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="24">
         <v>22</v>
       </c>
-      <c r="E6" s="20">
-        <v>4</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="E34" s="24">
+        <v>6</v>
+      </c>
+      <c r="F34" s="24">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="2:6">
-      <c r="B7" s="20">
-        <v>4</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="20">
+    <row r="35" ht="16.5" spans="2:6">
+      <c r="B35" s="24">
+        <v>32</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="24">
         <v>23</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E35" s="24">
+        <v>5</v>
+      </c>
+      <c r="F35" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="2:6">
+      <c r="B36" s="24">
+        <v>33</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="24">
+        <v>24</v>
+      </c>
+      <c r="E36" s="24">
         <v>3</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F36" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="2:6">
+      <c r="B37" s="24">
+        <v>34</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="24">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" ht="16.5" spans="2:6">
-      <c r="B8" s="20">
+      <c r="E37" s="24">
+        <v>2</v>
+      </c>
+      <c r="F37" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="2:6">
+      <c r="B38" s="24">
+        <v>35</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="24">
+        <v>26</v>
+      </c>
+      <c r="E38" s="24">
+        <v>2</v>
+      </c>
+      <c r="F38" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="2:6">
+      <c r="B39" s="32">
+        <v>36</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="32">
+        <v>20</v>
+      </c>
+      <c r="E39" s="32">
+        <v>6</v>
+      </c>
+      <c r="F39" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="2:6">
+      <c r="B40" s="32">
+        <v>37</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="32">
+        <v>21</v>
+      </c>
+      <c r="E40" s="32">
+        <v>7</v>
+      </c>
+      <c r="F40" s="32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="2:6">
+      <c r="B41" s="32">
+        <v>38</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="32">
+        <v>22</v>
+      </c>
+      <c r="E41" s="32">
+        <v>6</v>
+      </c>
+      <c r="F41" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="2:6">
+      <c r="B42" s="32">
+        <v>39</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="32">
+        <v>23</v>
+      </c>
+      <c r="E42" s="32">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="F42" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="2:6">
+      <c r="B43" s="32">
+        <v>40</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="32">
         <v>24</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E43" s="32">
+        <v>3</v>
+      </c>
+      <c r="F43" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="2:6">
+      <c r="B44" s="32">
+        <v>41</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="32">
+        <v>25</v>
+      </c>
+      <c r="E44" s="32">
         <v>2</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F44" s="32">
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="2:6">
-      <c r="B9" s="20">
+    <row r="45" ht="16.5" spans="2:6">
+      <c r="B45" s="32">
+        <v>42</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="32">
+        <v>26</v>
+      </c>
+      <c r="E45" s="32">
+        <v>2</v>
+      </c>
+      <c r="F45" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="2:6">
+      <c r="B46" s="28">
+        <v>43</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="28">
+        <v>20</v>
+      </c>
+      <c r="E46" s="28">
+        <v>7</v>
+      </c>
+      <c r="F46" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="2:6">
+      <c r="B47" s="28">
+        <v>44</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="28">
+        <v>21</v>
+      </c>
+      <c r="E47" s="28">
         <v>6</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="F47" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="2:6">
+      <c r="B48" s="28">
+        <v>45</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="28">
+        <v>22</v>
+      </c>
+      <c r="E48" s="28">
+        <v>7</v>
+      </c>
+      <c r="F48" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="2:6">
+      <c r="B49" s="28">
+        <v>46</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="28">
+        <v>23</v>
+      </c>
+      <c r="E49" s="28">
+        <v>6</v>
+      </c>
+      <c r="F49" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="2:6">
+      <c r="B50" s="28">
+        <v>47</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="28">
+        <v>24</v>
+      </c>
+      <c r="E50" s="28">
+        <v>5</v>
+      </c>
+      <c r="F50" s="28">
         <v>25</v>
       </c>
-      <c r="E9" s="20">
-        <v>1</v>
-      </c>
-      <c r="F9" s="20">
+    </row>
+    <row r="51" ht="16.5" spans="2:6">
+      <c r="B51" s="28">
+        <v>48</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="28">
+        <v>25</v>
+      </c>
+      <c r="E51" s="28">
+        <v>3</v>
+      </c>
+      <c r="F51" s="28">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="2:6">
-      <c r="B10" s="20">
-        <v>7</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="20">
+    <row r="52" ht="16.5" spans="2:6">
+      <c r="B52" s="28">
+        <v>49</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="28">
         <v>26</v>
       </c>
-      <c r="E10" s="20">
-        <v>1</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="E52" s="28">
+        <v>2</v>
+      </c>
+      <c r="F52" s="28">
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="2:6">
-      <c r="B11" s="22">
-        <v>8</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="22">
-        <v>20</v>
-      </c>
-      <c r="E11" s="22">
-        <v>5</v>
-      </c>
-      <c r="F11" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="2:6">
-      <c r="B12" s="22">
-        <v>9</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="22">
-        <v>21</v>
-      </c>
-      <c r="E12" s="22">
-        <v>5</v>
-      </c>
-      <c r="F12" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="2:6">
-      <c r="B13" s="22">
-        <v>10</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="22">
-        <v>22</v>
-      </c>
-      <c r="E13" s="22">
-        <v>4</v>
-      </c>
-      <c r="F13" s="22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="2:6">
-      <c r="B14" s="22">
-        <v>11</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="22">
-        <v>23</v>
-      </c>
-      <c r="E14" s="22">
-        <v>3</v>
-      </c>
-      <c r="F14" s="22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="2:6">
-      <c r="B15" s="22">
-        <v>12</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="22">
-        <v>24</v>
-      </c>
-      <c r="E15" s="22">
-        <v>2</v>
-      </c>
-      <c r="F15" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="2:6">
-      <c r="B16" s="22">
-        <v>13</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="22">
-        <v>25</v>
-      </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="2:6">
-      <c r="B17" s="22">
-        <v>14</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="22">
-        <v>26</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="2:6">
-      <c r="B18" s="24">
-        <v>15</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="24">
-        <v>20</v>
-      </c>
-      <c r="E18" s="24">
-        <v>5</v>
-      </c>
-      <c r="F18" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="2:6">
-      <c r="B19" s="24">
-        <v>16</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="24">
-        <v>21</v>
-      </c>
-      <c r="E19" s="24">
-        <v>5</v>
-      </c>
-      <c r="F19" s="24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="2:6">
-      <c r="B20" s="24">
-        <v>17</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="24">
-        <v>22</v>
-      </c>
-      <c r="E20" s="24">
-        <v>4</v>
-      </c>
-      <c r="F20" s="24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="2:6">
-      <c r="B21" s="24">
-        <v>18</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="24">
-        <v>23</v>
-      </c>
-      <c r="E21" s="24">
-        <v>3</v>
-      </c>
-      <c r="F21" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="2:6">
-      <c r="B22" s="24">
-        <v>19</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="24">
-        <v>24</v>
-      </c>
-      <c r="E22" s="24">
-        <v>2</v>
-      </c>
-      <c r="F22" s="24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="2:6">
-      <c r="B23" s="24">
-        <v>20</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="24">
-        <v>25</v>
-      </c>
-      <c r="E23" s="24">
-        <v>1</v>
-      </c>
-      <c r="F23" s="24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="2:6">
-      <c r="B24" s="24">
-        <v>21</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="24">
-        <v>26</v>
-      </c>
-      <c r="E24" s="24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="2:6">
-      <c r="B25" s="26">
-        <v>22</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="26">
-        <v>20</v>
-      </c>
-      <c r="E25" s="26">
-        <v>5</v>
-      </c>
-      <c r="F25" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="2:6">
-      <c r="B26" s="26">
-        <v>23</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="26">
-        <v>21</v>
-      </c>
-      <c r="E26" s="26">
-        <v>5</v>
-      </c>
-      <c r="F26" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="2:6">
-      <c r="B27" s="26">
-        <v>24</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="26">
-        <v>22</v>
-      </c>
-      <c r="E27" s="26">
-        <v>4</v>
-      </c>
-      <c r="F27" s="26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="2:6">
-      <c r="B28" s="26">
-        <v>25</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="26">
-        <v>23</v>
-      </c>
-      <c r="E28" s="26">
-        <v>3</v>
-      </c>
-      <c r="F28" s="26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="2:6">
-      <c r="B29" s="26">
-        <v>26</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="26">
-        <v>24</v>
-      </c>
-      <c r="E29" s="26">
-        <v>2</v>
-      </c>
-      <c r="F29" s="26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="2:6">
-      <c r="B30" s="26">
-        <v>27</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="26">
-        <v>25</v>
-      </c>
-      <c r="E30" s="26">
-        <v>1</v>
-      </c>
-      <c r="F30" s="26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="2:6">
-      <c r="B31" s="26">
-        <v>28</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="26">
-        <v>26</v>
-      </c>
-      <c r="E31" s="26">
-        <v>1</v>
-      </c>
-      <c r="F31" s="26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="2:6">
-      <c r="B32" s="20">
-        <v>29</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="20">
-        <v>20</v>
-      </c>
-      <c r="E32" s="20">
-        <v>6</v>
-      </c>
-      <c r="F32" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" spans="2:6">
-      <c r="B33" s="20">
-        <v>30</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="20">
-        <v>21</v>
-      </c>
-      <c r="E33" s="20">
-        <v>7</v>
-      </c>
-      <c r="F33" s="20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="2:6">
-      <c r="B34" s="20">
-        <v>31</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="20">
-        <v>22</v>
-      </c>
-      <c r="E34" s="20">
-        <v>6</v>
-      </c>
-      <c r="F34" s="20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="2:6">
-      <c r="B35" s="20">
-        <v>32</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="20">
-        <v>23</v>
-      </c>
-      <c r="E35" s="20">
-        <v>5</v>
-      </c>
-      <c r="F35" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" spans="2:6">
-      <c r="B36" s="20">
-        <v>33</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="20">
-        <v>24</v>
-      </c>
-      <c r="E36" s="20">
-        <v>3</v>
-      </c>
-      <c r="F36" s="20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" spans="2:6">
-      <c r="B37" s="20">
-        <v>34</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="20">
-        <v>25</v>
-      </c>
-      <c r="E37" s="20">
-        <v>2</v>
-      </c>
-      <c r="F37" s="20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5" spans="2:6">
-      <c r="B38" s="20">
-        <v>35</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="20">
-        <v>26</v>
-      </c>
-      <c r="E38" s="20">
-        <v>2</v>
-      </c>
-      <c r="F38" s="20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" spans="2:6">
-      <c r="B39" s="28">
-        <v>36</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="28">
-        <v>20</v>
-      </c>
-      <c r="E39" s="28">
-        <v>6</v>
-      </c>
-      <c r="F39" s="28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" spans="2:6">
-      <c r="B40" s="28">
-        <v>37</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="28">
-        <v>21</v>
-      </c>
-      <c r="E40" s="28">
-        <v>7</v>
-      </c>
-      <c r="F40" s="28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" spans="2:6">
-      <c r="B41" s="28">
-        <v>38</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="28">
-        <v>22</v>
-      </c>
-      <c r="E41" s="28">
-        <v>6</v>
-      </c>
-      <c r="F41" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" spans="2:6">
-      <c r="B42" s="28">
-        <v>39</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="28">
-        <v>23</v>
-      </c>
-      <c r="E42" s="28">
-        <v>5</v>
-      </c>
-      <c r="F42" s="28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" spans="2:6">
-      <c r="B43" s="28">
-        <v>40</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="28">
-        <v>24</v>
-      </c>
-      <c r="E43" s="28">
-        <v>3</v>
-      </c>
-      <c r="F43" s="28">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" spans="2:6">
-      <c r="B44" s="28">
-        <v>41</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="28">
-        <v>25</v>
-      </c>
-      <c r="E44" s="28">
-        <v>2</v>
-      </c>
-      <c r="F44" s="28">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" spans="2:6">
-      <c r="B45" s="28">
-        <v>42</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="28">
-        <v>26</v>
-      </c>
-      <c r="E45" s="28">
-        <v>2</v>
-      </c>
-      <c r="F45" s="28">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" spans="2:6">
-      <c r="B46" s="24">
-        <v>43</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="24">
-        <v>20</v>
-      </c>
-      <c r="E46" s="24">
-        <v>7</v>
-      </c>
-      <c r="F46" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" spans="2:6">
-      <c r="B47" s="24">
-        <v>44</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="24">
-        <v>21</v>
-      </c>
-      <c r="E47" s="24">
-        <v>6</v>
-      </c>
-      <c r="F47" s="24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" spans="2:6">
-      <c r="B48" s="24">
-        <v>45</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="24">
-        <v>22</v>
-      </c>
-      <c r="E48" s="24">
-        <v>7</v>
-      </c>
-      <c r="F48" s="24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" spans="2:6">
-      <c r="B49" s="24">
-        <v>46</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="24">
-        <v>23</v>
-      </c>
-      <c r="E49" s="24">
-        <v>6</v>
-      </c>
-      <c r="F49" s="24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" spans="2:6">
-      <c r="B50" s="24">
-        <v>47</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="24">
-        <v>24</v>
-      </c>
-      <c r="E50" s="24">
-        <v>5</v>
-      </c>
-      <c r="F50" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" spans="2:6">
-      <c r="B51" s="24">
-        <v>48</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="24">
-        <v>25</v>
-      </c>
-      <c r="E51" s="24">
-        <v>3</v>
-      </c>
-      <c r="F51" s="24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" spans="2:6">
-      <c r="B52" s="24">
-        <v>49</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="24">
-        <v>26</v>
-      </c>
-      <c r="E52" s="24">
-        <v>2</v>
-      </c>
-      <c r="F52" s="24">
-        <v>30</v>
-      </c>
-    </row>
     <row r="53" ht="16.5" spans="3:3">
-      <c r="C53" s="30"/>
+      <c r="C53" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3350,8 +3346,8 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3368,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D1" s="12"/>
     </row>
@@ -3380,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="15"/>
     </row>
@@ -3390,125 +3386,147 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19">
+        <v>10001</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D4" s="19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4">
-        <v>10001</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" s="19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D4">
+      <c r="D6" s="19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20">
+        <v>10002</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="20">
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
-      <c r="C5" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D5">
+      <c r="D9" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21">
+        <v>10003</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="21">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="21">
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6">
+    <row r="12" spans="1:4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="21">
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7">
-        <v>10002</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7">
+    <row r="13" spans="1:4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="21">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9">
+    <row r="14" spans="1:4">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22">
+        <v>10004</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="22">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10">
-        <v>10003</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10">
+    <row r="15" spans="1:4">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="22">
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14">
-        <v>10004</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16">
+    <row r="16" spans="1:4">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="22">
         <v>3000</v>
       </c>
     </row>
@@ -3517,7 +3535,7 @@
         <v>10005</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17">
         <v>3000</v>
@@ -3525,7 +3543,7 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <v>1000</v>
@@ -3563,13 +3581,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -3585,7 +3603,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -3597,13 +3615,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G3" s="8"/>
     </row>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="108">
   <si>
     <t>##var</t>
   </si>
@@ -113,6 +113,9 @@
     <t>Assets/GameRes/Prefabs/NPC/LittleGirl.prefab</t>
   </si>
   <si>
+    <t>Assets/GameRes/Picture/Character/extra02/A2.png</t>
+  </si>
+  <si>
     <t>伊万</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
   </si>
   <si>
     <t>Assets/GameRes/Prefabs/NPC/Bear.prefab</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Character/extra03/A3.png</t>
   </si>
   <si>
     <t>老板</t>
@@ -210,10 +216,7 @@
     <t>周二</t>
   </si>
   <si>
-    <t>21:36</t>
-  </si>
-  <si>
-    <t>21:35</t>
+    <t>22:35</t>
   </si>
   <si>
     <t>周三</t>
@@ -1605,7 +1608,7 @@
   <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1844,7 +1847,9 @@
       <c r="F5" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="56" t="s">
+        <v>31</v>
+      </c>
       <c r="H5" s="57" t="s">
         <v>27</v>
       </c>
@@ -1865,18 +1870,20 @@
         <v>10003</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="55">
         <v>1</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="56"/>
+        <v>34</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>35</v>
+      </c>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
       <c r="J6" s="55">
@@ -1892,16 +1899,16 @@
         <v>10004</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="55">
         <v>0</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="58"/>
       <c r="J7" s="55">
@@ -1916,25 +1923,25 @@
         <v>20001</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="55">
         <v>1</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J8" s="55">
         <v>10001</v>
@@ -1960,7 +1967,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1978,16 +1985,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2010,7 +2017,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2027,19 +2034,19 @@
       <c r="C3" s="6"/>
       <c r="D3" s="23"/>
       <c r="E3" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
@@ -2071,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2092,19 +2099,19 @@
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="39" t="s">
+      <c r="H6" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="39" t="s">
         <v>57</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2113,19 +2120,19 @@
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2134,19 +2141,19 @@
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>61</v>
-      </c>
       <c r="I8" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2155,19 +2162,19 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -2178,19 +2185,19 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N10" s="45"/>
       <c r="O10" s="46"/>
@@ -2202,25 +2209,25 @@
         <v>10002</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="40">
         <v>10003</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
@@ -2231,19 +2238,19 @@
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G12" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="41" t="s">
-        <v>72</v>
-      </c>
       <c r="I12" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2252,19 +2259,19 @@
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2273,25 +2280,25 @@
         <v>20001</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="38">
         <v>0</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2300,19 +2307,19 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2321,19 +2328,19 @@
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2342,19 +2349,19 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="6:9">
@@ -2433,7 +2440,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2450,19 +2457,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2473,7 +2480,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2493,10 +2500,10 @@
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:6">
@@ -2504,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="24">
         <v>20</v>
@@ -2521,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="24">
         <v>21</v>
@@ -2538,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="24">
         <v>22</v>
@@ -2555,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="24">
         <v>23</v>
@@ -2572,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="24">
         <v>24</v>
@@ -2589,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="24">
         <v>25</v>
@@ -2606,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="24">
         <v>26</v>
@@ -2623,7 +2630,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" s="26">
         <v>20</v>
@@ -2640,7 +2647,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="26">
         <v>21</v>
@@ -2657,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" s="26">
         <v>22</v>
@@ -2674,7 +2681,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="26">
         <v>23</v>
@@ -2691,7 +2698,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" s="26">
         <v>24</v>
@@ -2708,7 +2715,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="26">
         <v>25</v>
@@ -2725,7 +2732,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" s="26">
         <v>26</v>
@@ -2742,7 +2749,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="28">
         <v>20</v>
@@ -2759,7 +2766,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="28">
         <v>21</v>
@@ -2776,7 +2783,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D20" s="28">
         <v>22</v>
@@ -2793,7 +2800,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" s="28">
         <v>23</v>
@@ -2810,7 +2817,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="28">
         <v>24</v>
@@ -2827,7 +2834,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23" s="28">
         <v>25</v>
@@ -2844,7 +2851,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" s="28">
         <v>26</v>
@@ -2861,7 +2868,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="30">
         <v>20</v>
@@ -2878,7 +2885,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" s="30">
         <v>21</v>
@@ -2895,7 +2902,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" s="30">
         <v>22</v>
@@ -2912,7 +2919,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="30">
         <v>23</v>
@@ -2929,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="30">
         <v>24</v>
@@ -2946,7 +2953,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="30">
         <v>25</v>
@@ -2963,7 +2970,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="30">
         <v>26</v>
@@ -2980,7 +2987,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="24">
         <v>20</v>
@@ -2997,7 +3004,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33" s="24">
         <v>21</v>
@@ -3014,7 +3021,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D34" s="24">
         <v>22</v>
@@ -3031,7 +3038,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" s="24">
         <v>23</v>
@@ -3048,7 +3055,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D36" s="24">
         <v>24</v>
@@ -3065,7 +3072,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D37" s="24">
         <v>25</v>
@@ -3082,7 +3089,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D38" s="24">
         <v>26</v>
@@ -3099,7 +3106,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" s="32">
         <v>20</v>
@@ -3116,7 +3123,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" s="32">
         <v>21</v>
@@ -3133,7 +3140,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D41" s="32">
         <v>22</v>
@@ -3150,7 +3157,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" s="32">
         <v>23</v>
@@ -3167,7 +3174,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D43" s="32">
         <v>24</v>
@@ -3184,7 +3191,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D44" s="32">
         <v>25</v>
@@ -3201,7 +3208,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" s="32">
         <v>26</v>
@@ -3218,7 +3225,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D46" s="28">
         <v>20</v>
@@ -3235,7 +3242,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D47" s="28">
         <v>21</v>
@@ -3252,7 +3259,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D48" s="28">
         <v>22</v>
@@ -3269,7 +3276,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D49" s="28">
         <v>23</v>
@@ -3286,7 +3293,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D50" s="28">
         <v>24</v>
@@ -3303,7 +3310,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D51" s="28">
         <v>25</v>
@@ -3320,7 +3327,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D52" s="28">
         <v>26</v>
@@ -3347,7 +3354,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B17" sqref="B17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3364,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="12"/>
     </row>
@@ -3376,7 +3383,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="15"/>
     </row>
@@ -3386,10 +3393,10 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3398,7 +3405,7 @@
         <v>10001</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" s="19">
         <v>5000</v>
@@ -3408,7 +3415,7 @@
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="19">
         <v>5000</v>
@@ -3418,7 +3425,7 @@
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="19">
         <v>3000</v>
@@ -3430,7 +3437,7 @@
         <v>10002</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="20">
         <v>3000</v>
@@ -3440,7 +3447,7 @@
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="20">
         <v>5000</v>
@@ -3450,7 +3457,7 @@
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" s="20">
         <v>2000</v>
@@ -3462,7 +3469,7 @@
         <v>10003</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D10" s="21">
         <v>3000</v>
@@ -3472,7 +3479,7 @@
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" s="21">
         <v>5000</v>
@@ -3482,7 +3489,7 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12" s="21">
         <v>3000</v>
@@ -3492,7 +3499,7 @@
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="21">
         <v>3000</v>
@@ -3504,7 +3511,7 @@
         <v>10004</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D14" s="22">
         <v>2000</v>
@@ -3514,7 +3521,7 @@
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" s="22">
         <v>3000</v>
@@ -3524,7 +3531,7 @@
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16" s="22">
         <v>3000</v>
@@ -3535,7 +3542,7 @@
         <v>10005</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17">
         <v>3000</v>
@@ -3543,7 +3550,7 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18">
         <v>1000</v>
@@ -3581,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -3603,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -3615,13 +3622,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G3" s="8"/>
     </row>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -201,85 +201,85 @@
     <t>周一</t>
   </si>
   <si>
+    <t>台风</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>周二</t>
+  </si>
+  <si>
+    <t>22:35</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>26:00</t>
+  </si>
+  <si>
+    <t>周日</t>
+  </si>
+  <si>
+    <t>21:10</t>
+  </si>
+  <si>
+    <t>25:00</t>
+  </si>
+  <si>
+    <t>喵老师</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>21:15</t>
+  </si>
+  <si>
+    <t>22:45</t>
+  </si>
+  <si>
+    <t>21:01</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
     <t>晴天;雨天</t>
   </si>
   <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
-    <t>周二</t>
-  </si>
-  <si>
-    <t>22:35</t>
-  </si>
-  <si>
-    <t>周三</t>
-  </si>
-  <si>
-    <t>21:45</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>周四</t>
-  </si>
-  <si>
-    <t>21:50</t>
-  </si>
-  <si>
-    <t>周六</t>
-  </si>
-  <si>
-    <t>23:30</t>
-  </si>
-  <si>
-    <t>26:00</t>
-  </si>
-  <si>
-    <t>周日</t>
-  </si>
-  <si>
-    <t>21:10</t>
-  </si>
-  <si>
-    <t>25:00</t>
-  </si>
-  <si>
-    <t>喵老师</t>
-  </si>
-  <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>22:15</t>
-  </si>
-  <si>
-    <t>21:15</t>
-  </si>
-  <si>
-    <t>22:45</t>
-  </si>
-  <si>
-    <t>21:01</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
     <t>24:30</t>
   </si>
   <si>
     <t>周五</t>
-  </si>
-  <si>
-    <t>雨天</t>
   </si>
   <si>
     <t>24:00</t>
@@ -1607,8 +1607,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1967,7 +1967,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2289,7 +2289,7 @@
         <v>53</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>62</v>
@@ -2310,13 +2310,13 @@
         <v>60</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>66</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" s="38" t="s">
         <v>67</v>
@@ -2328,10 +2328,10 @@
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>56</v>
@@ -2352,7 +2352,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>55</v>
@@ -3353,8 +3353,8 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D18"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3408,7 +3408,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="19">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="111">
   <si>
     <t>##var</t>
   </si>
@@ -116,7 +116,10 @@
     <t>Assets/GameRes/Picture/Character/extra02/A2.png</t>
   </si>
   <si>
-    <t>伊万</t>
+    <t>重油,饱腹</t>
+  </si>
+  <si>
+    <t>伊万先生</t>
   </si>
   <si>
     <t>喵老师的熊</t>
@@ -126,6 +129,12 @@
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/extra03/A3.png</t>
+  </si>
+  <si>
+    <t>肉,实惠,烧烤</t>
+  </si>
+  <si>
+    <t>昂贵,清淡</t>
   </si>
   <si>
     <t>老板</t>
@@ -1607,8 +1616,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1854,7 +1863,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J5" s="55">
         <v>10001</v>
@@ -1870,22 +1879,26 @@
         <v>10003</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="55">
         <v>1</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+        <v>36</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>38</v>
+      </c>
       <c r="J6" s="55">
         <v>10001</v>
       </c>
@@ -1899,16 +1912,16 @@
         <v>10004</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E7" s="55">
         <v>0</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H7" s="58"/>
       <c r="J7" s="55">
@@ -1923,25 +1936,25 @@
         <v>20001</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8" s="55">
         <v>1</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J8" s="55">
         <v>10001</v>
@@ -1985,16 +1998,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2017,7 +2030,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2034,19 +2047,19 @@
       <c r="C3" s="6"/>
       <c r="D3" s="23"/>
       <c r="E3" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
@@ -2078,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2099,19 +2112,19 @@
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2120,19 +2133,19 @@
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>60</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2141,19 +2154,19 @@
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2162,19 +2175,19 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>62</v>
-      </c>
       <c r="H9" s="39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -2185,19 +2198,19 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N10" s="45"/>
       <c r="O10" s="46"/>
@@ -2209,25 +2222,25 @@
         <v>10002</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="40">
         <v>10003</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
@@ -2238,19 +2251,19 @@
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2259,19 +2272,19 @@
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2280,25 +2293,25 @@
         <v>20001</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="38">
         <v>0</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2307,19 +2320,19 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2328,19 +2341,19 @@
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2349,19 +2362,19 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="6:9">
@@ -2457,19 +2470,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2480,7 +2493,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2500,10 +2513,10 @@
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:6">
@@ -2511,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D4" s="24">
         <v>20</v>
@@ -2528,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5" s="24">
         <v>21</v>
@@ -2545,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6" s="24">
         <v>22</v>
@@ -2562,7 +2575,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D7" s="24">
         <v>23</v>
@@ -2579,7 +2592,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D8" s="24">
         <v>24</v>
@@ -2596,7 +2609,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D9" s="24">
         <v>25</v>
@@ -2613,7 +2626,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D10" s="24">
         <v>26</v>
@@ -2630,7 +2643,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D11" s="26">
         <v>20</v>
@@ -2647,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D12" s="26">
         <v>21</v>
@@ -2664,7 +2677,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D13" s="26">
         <v>22</v>
@@ -2681,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D14" s="26">
         <v>23</v>
@@ -2698,7 +2711,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D15" s="26">
         <v>24</v>
@@ -2715,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D16" s="26">
         <v>25</v>
@@ -2732,7 +2745,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17" s="26">
         <v>26</v>
@@ -2749,7 +2762,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D18" s="28">
         <v>20</v>
@@ -2766,7 +2779,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D19" s="28">
         <v>21</v>
@@ -2783,7 +2796,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D20" s="28">
         <v>22</v>
@@ -2800,7 +2813,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D21" s="28">
         <v>23</v>
@@ -2817,7 +2830,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D22" s="28">
         <v>24</v>
@@ -2834,7 +2847,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D23" s="28">
         <v>25</v>
@@ -2851,7 +2864,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D24" s="28">
         <v>26</v>
@@ -2868,7 +2881,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D25" s="30">
         <v>20</v>
@@ -2885,7 +2898,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D26" s="30">
         <v>21</v>
@@ -2902,7 +2915,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D27" s="30">
         <v>22</v>
@@ -2919,7 +2932,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D28" s="30">
         <v>23</v>
@@ -2936,7 +2949,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D29" s="30">
         <v>24</v>
@@ -2953,7 +2966,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" s="30">
         <v>25</v>
@@ -2970,7 +2983,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" s="30">
         <v>26</v>
@@ -2987,7 +3000,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D32" s="24">
         <v>20</v>
@@ -3004,7 +3017,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D33" s="24">
         <v>21</v>
@@ -3021,7 +3034,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D34" s="24">
         <v>22</v>
@@ -3038,7 +3051,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D35" s="24">
         <v>23</v>
@@ -3055,7 +3068,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D36" s="24">
         <v>24</v>
@@ -3072,7 +3085,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D37" s="24">
         <v>25</v>
@@ -3089,7 +3102,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D38" s="24">
         <v>26</v>
@@ -3106,7 +3119,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D39" s="32">
         <v>20</v>
@@ -3123,7 +3136,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D40" s="32">
         <v>21</v>
@@ -3140,7 +3153,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D41" s="32">
         <v>22</v>
@@ -3157,7 +3170,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D42" s="32">
         <v>23</v>
@@ -3174,7 +3187,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D43" s="32">
         <v>24</v>
@@ -3191,7 +3204,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D44" s="32">
         <v>25</v>
@@ -3208,7 +3221,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D45" s="32">
         <v>26</v>
@@ -3225,7 +3238,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D46" s="28">
         <v>20</v>
@@ -3242,7 +3255,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D47" s="28">
         <v>21</v>
@@ -3259,7 +3272,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D48" s="28">
         <v>22</v>
@@ -3276,7 +3289,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D49" s="28">
         <v>23</v>
@@ -3293,7 +3306,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D50" s="28">
         <v>24</v>
@@ -3310,7 +3323,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D51" s="28">
         <v>25</v>
@@ -3327,7 +3340,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D52" s="28">
         <v>26</v>
@@ -3371,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1" s="12"/>
     </row>
@@ -3383,7 +3396,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D2" s="15"/>
     </row>
@@ -3393,10 +3406,10 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3405,7 +3418,7 @@
         <v>10001</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D4" s="19">
         <v>5000</v>
@@ -3415,7 +3428,7 @@
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D5" s="19">
         <v>5000</v>
@@ -3425,7 +3438,7 @@
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" s="19">
         <v>3000</v>
@@ -3437,7 +3450,7 @@
         <v>10002</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D7" s="20">
         <v>3000</v>
@@ -3447,7 +3460,7 @@
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D8" s="20">
         <v>5000</v>
@@ -3457,7 +3470,7 @@
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D9" s="20">
         <v>2000</v>
@@ -3469,7 +3482,7 @@
         <v>10003</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D10" s="21">
         <v>3000</v>
@@ -3479,7 +3492,7 @@
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D11" s="21">
         <v>5000</v>
@@ -3489,7 +3502,7 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D12" s="21">
         <v>3000</v>
@@ -3499,7 +3512,7 @@
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D13" s="21">
         <v>3000</v>
@@ -3511,7 +3524,7 @@
         <v>10004</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D14" s="22">
         <v>2000</v>
@@ -3521,7 +3534,7 @@
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D15" s="22">
         <v>3000</v>
@@ -3531,7 +3544,7 @@
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D16" s="22">
         <v>3000</v>
@@ -3542,7 +3555,7 @@
         <v>10005</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D17">
         <v>3000</v>
@@ -3550,7 +3563,7 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D18">
         <v>1000</v>
@@ -3588,13 +3601,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -3610,7 +3623,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -3622,13 +3635,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G3" s="8"/>
     </row>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="112">
   <si>
     <t>##var</t>
   </si>
@@ -210,58 +210,61 @@
     <t>周一</t>
   </si>
   <si>
+    <t>暴风雪</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>周二</t>
+  </si>
+  <si>
+    <t>22:35</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>26:00</t>
+  </si>
+  <si>
+    <t>周日</t>
+  </si>
+  <si>
+    <t>21:10</t>
+  </si>
+  <si>
+    <t>25:00</t>
+  </si>
+  <si>
+    <t>喵老师</t>
+  </si>
+  <si>
     <t>晴天;雨天</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
-    <t>周二</t>
-  </si>
-  <si>
-    <t>22:35</t>
-  </si>
-  <si>
-    <t>周三</t>
-  </si>
-  <si>
-    <t>21:45</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>周四</t>
-  </si>
-  <si>
-    <t>21:50</t>
-  </si>
-  <si>
-    <t>周六</t>
-  </si>
-  <si>
-    <t>23:30</t>
-  </si>
-  <si>
-    <t>26:00</t>
-  </si>
-  <si>
-    <t>周日</t>
-  </si>
-  <si>
-    <t>21:10</t>
-  </si>
-  <si>
-    <t>25:00</t>
-  </si>
-  <si>
-    <t>喵老师</t>
   </si>
   <si>
     <t>21:30</t>
@@ -1616,8 +1619,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1979,8 +1982,8 @@
   <sheetPr/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2231,13 +2234,13 @@
         <v>63</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" s="41" t="s">
         <v>65</v>
@@ -2254,16 +2257,16 @@
         <v>68</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G12" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="41" t="s">
-        <v>76</v>
-      </c>
       <c r="I12" s="41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2275,13 +2278,13 @@
         <v>71</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" s="41" t="s">
         <v>60</v>
@@ -2302,7 +2305,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>65</v>
@@ -2323,13 +2326,13 @@
         <v>63</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>69</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" s="38" t="s">
         <v>70</v>
@@ -2341,10 +2344,10 @@
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>59</v>
@@ -2353,7 +2356,7 @@
         <v>65</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2365,13 +2368,13 @@
         <v>68</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>58</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I17" s="38" t="s">
         <v>60</v>
@@ -2452,8 +2455,8 @@
   <sheetPr/>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2473,16 +2476,16 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2493,7 +2496,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2513,10 +2516,10 @@
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:6">
@@ -2524,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="24">
         <v>20</v>
@@ -2541,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="24">
         <v>21</v>
@@ -2558,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" s="24">
         <v>22</v>
@@ -2575,7 +2578,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" s="24">
         <v>23</v>
@@ -2592,7 +2595,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="24">
         <v>24</v>
@@ -2609,7 +2612,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" s="24">
         <v>25</v>
@@ -2626,7 +2629,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="24">
         <v>26</v>
@@ -2643,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="26">
         <v>20</v>
@@ -2660,7 +2663,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" s="26">
         <v>21</v>
@@ -2677,7 +2680,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="26">
         <v>22</v>
@@ -2694,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" s="26">
         <v>23</v>
@@ -2711,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="26">
         <v>24</v>
@@ -2728,7 +2731,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16" s="26">
         <v>25</v>
@@ -2745,7 +2748,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" s="26">
         <v>26</v>
@@ -2762,7 +2765,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" s="28">
         <v>20</v>
@@ -2779,7 +2782,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="28">
         <v>21</v>
@@ -2796,7 +2799,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" s="28">
         <v>22</v>
@@ -2813,7 +2816,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" s="28">
         <v>23</v>
@@ -2830,7 +2833,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" s="28">
         <v>24</v>
@@ -2847,7 +2850,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="28">
         <v>25</v>
@@ -2864,7 +2867,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" s="28">
         <v>26</v>
@@ -2881,7 +2884,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="30">
         <v>20</v>
@@ -2898,7 +2901,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" s="30">
         <v>21</v>
@@ -2915,7 +2918,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" s="30">
         <v>22</v>
@@ -2932,7 +2935,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="30">
         <v>23</v>
@@ -2949,7 +2952,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="30">
         <v>24</v>
@@ -2966,7 +2969,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="30">
         <v>25</v>
@@ -2983,7 +2986,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="30">
         <v>26</v>
@@ -3000,7 +3003,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="24">
         <v>20</v>
@@ -3017,7 +3020,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="24">
         <v>21</v>
@@ -3034,7 +3037,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="24">
         <v>22</v>
@@ -3051,7 +3054,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" s="24">
         <v>23</v>
@@ -3068,7 +3071,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D36" s="24">
         <v>24</v>
@@ -3085,7 +3088,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D37" s="24">
         <v>25</v>
@@ -3102,7 +3105,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" s="24">
         <v>26</v>
@@ -3119,7 +3122,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D39" s="32">
         <v>20</v>
@@ -3136,7 +3139,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D40" s="32">
         <v>21</v>
@@ -3153,7 +3156,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D41" s="32">
         <v>22</v>
@@ -3170,7 +3173,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D42" s="32">
         <v>23</v>
@@ -3187,7 +3190,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D43" s="32">
         <v>24</v>
@@ -3204,7 +3207,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D44" s="32">
         <v>25</v>
@@ -3221,7 +3224,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D45" s="32">
         <v>26</v>
@@ -3238,7 +3241,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D46" s="28">
         <v>20</v>
@@ -3255,7 +3258,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D47" s="28">
         <v>21</v>
@@ -3272,7 +3275,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D48" s="28">
         <v>22</v>
@@ -3289,7 +3292,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D49" s="28">
         <v>23</v>
@@ -3306,7 +3309,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D50" s="28">
         <v>24</v>
@@ -3323,7 +3326,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D51" s="28">
         <v>25</v>
@@ -3340,7 +3343,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D52" s="28">
         <v>26</v>
@@ -3366,8 +3369,8 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3384,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="12"/>
     </row>
@@ -3396,7 +3399,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="15"/>
     </row>
@@ -3406,10 +3409,10 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3418,7 +3421,7 @@
         <v>10001</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" s="19">
         <v>5000</v>
@@ -3428,7 +3431,7 @@
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" s="19">
         <v>5000</v>
@@ -3438,7 +3441,7 @@
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="19">
         <v>3000</v>
@@ -3450,7 +3453,7 @@
         <v>10002</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="20">
         <v>3000</v>
@@ -3460,7 +3463,7 @@
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" s="20">
         <v>5000</v>
@@ -3470,7 +3473,7 @@
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D9" s="20">
         <v>2000</v>
@@ -3482,7 +3485,7 @@
         <v>10003</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" s="21">
         <v>3000</v>
@@ -3492,7 +3495,7 @@
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" s="21">
         <v>5000</v>
@@ -3502,7 +3505,7 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" s="21">
         <v>3000</v>
@@ -3512,7 +3515,7 @@
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D13" s="21">
         <v>3000</v>
@@ -3524,7 +3527,7 @@
         <v>10004</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" s="22">
         <v>2000</v>
@@ -3534,7 +3537,7 @@
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>3000</v>
@@ -3544,7 +3547,7 @@
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D16" s="22">
         <v>3000</v>
@@ -3555,7 +3558,7 @@
         <v>10005</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D17">
         <v>3000</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18">
         <v>1000</v>
@@ -3607,7 +3610,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -3635,13 +3638,13 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G3" s="8"/>
     </row>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="6"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="134">
   <si>
     <t>##var</t>
   </si>
@@ -127,7 +127,7 @@
     <t>重油,饱腹</t>
   </si>
   <si>
-    <t>伊万先生</t>
+    <t>伊万</t>
   </si>
   <si>
     <t>喵老师的熊</t>
@@ -281,6 +281,9 @@
     <t>结束区间</t>
   </si>
   <si>
+    <t>伊万先生</t>
+  </si>
+  <si>
     <t>partner_id</t>
   </si>
   <si>
@@ -311,6 +314,9 @@
     <t>喵老师第一阶段行动组</t>
   </si>
   <si>
+    <t>10003</t>
+  </si>
+  <si>
     <t>周三</t>
   </si>
   <si>
@@ -350,6 +356,9 @@
     <t>喵老师第二阶段行动组</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>周二</t>
   </si>
   <si>
@@ -368,9 +377,6 @@
     <t>喵老师第三阶段行动组</t>
   </si>
   <si>
-    <t>10003,10002</t>
-  </si>
-  <si>
     <t>周一</t>
   </si>
   <si>
@@ -380,9 +386,6 @@
     <t>喵老师第四阶段行动组</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>周四</t>
   </si>
   <si>
@@ -420,6 +423,15 @@
   </si>
   <si>
     <t>21:10</t>
+  </si>
+  <si>
+    <t>伊万第一阶段</t>
+  </si>
+  <si>
+    <t>周八</t>
+  </si>
+  <si>
+    <t>伊万第二阶段</t>
   </si>
   <si>
     <t>*comments</t>
@@ -682,6 +694,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -689,12 +707,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1205,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1272,7 +1284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1412,6 +1424,13 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1431,6 +1450,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1439,13 +1461,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1474,23 +1504,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1504,14 +1529,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1528,11 +1553,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1866,8 +1891,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1885,44 +1910,44 @@
     <col min="14" max="14" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="88" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A1" s="60" t="s">
+    <row r="1" s="93" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="64" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="98"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="103"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -1945,44 +1970,44 @@
       <c r="AI1"/>
       <c r="AJ1"/>
     </row>
-    <row r="2" s="89" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A2" s="62" t="s">
+    <row r="2" s="94" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="98"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="103"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -2005,44 +2030,44 @@
       <c r="AI2"/>
       <c r="AJ2"/>
     </row>
-    <row r="3" s="88" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A3" s="64" t="s">
+    <row r="3" s="93" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
+      <c r="A3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="68" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="102"/>
+      <c r="M3" s="107"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="98"/>
+      <c r="O3" s="103"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -2066,170 +2091,170 @@
       <c r="AJ3"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:14">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73">
         <v>10001</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65">
+      <c r="D4" s="73"/>
+      <c r="E4" s="73">
         <v>1</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="73">
         <v>10001</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="73">
         <v>30001</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73">
         <v>10002</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73">
         <v>1</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="73">
         <v>10001</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="73">
         <v>10001</v>
       </c>
-      <c r="L5" s="103"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:14">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73">
         <v>10003</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="73">
         <v>1</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="73">
         <v>10001</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="73">
         <v>0</v>
       </c>
-      <c r="L6" s="103"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
     </row>
     <row r="7" ht="46" customHeight="1" spans="2:14">
-      <c r="B7" s="65">
+      <c r="B7" s="73">
         <v>10004</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="73">
         <v>0</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="J7" s="65">
+      <c r="H7" s="100"/>
+      <c r="J7" s="73">
         <v>10001</v>
       </c>
-      <c r="K7" s="105">
+      <c r="K7" s="110">
         <v>0</v>
       </c>
-      <c r="L7" s="103"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
     </row>
     <row r="8" ht="33" spans="2:14">
-      <c r="B8" s="65">
+      <c r="B8" s="73">
         <v>20001</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="73">
         <v>1</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="73">
         <v>10001</v>
       </c>
-      <c r="K8" s="105">
+      <c r="K8" s="110">
         <v>20001</v>
       </c>
-      <c r="L8" s="103"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2315,121 +2340,121 @@
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:6">
-      <c r="B4" s="79">
+      <c r="B4" s="54">
         <v>1</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="54">
         <v>20</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="54">
         <v>5</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:6">
-      <c r="B5" s="79">
+      <c r="B5" s="54">
         <v>2</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="54">
         <v>21</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="54">
         <v>5</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:6">
-      <c r="B6" s="79">
+      <c r="B6" s="54">
         <v>3</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="54">
         <v>22</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="54">
         <v>4</v>
       </c>
-      <c r="F6" s="79">
+      <c r="F6" s="54">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:6">
-      <c r="B7" s="79">
+      <c r="B7" s="54">
         <v>4</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="54">
         <v>23</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="54">
         <v>3</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="54">
         <v>25</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:6">
-      <c r="B8" s="79">
+      <c r="B8" s="54">
         <v>5</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="54">
         <v>24</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="54">
         <v>2</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="54">
         <v>30</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:6">
-      <c r="B9" s="79">
+      <c r="B9" s="54">
         <v>6</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="54">
         <v>25</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="54">
         <v>1</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="54">
         <v>30</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:6">
-      <c r="B10" s="79">
+      <c r="B10" s="54">
         <v>7</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="54">
         <v>26</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="54">
         <v>1</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="54">
         <v>30</v>
       </c>
     </row>
@@ -2437,7 +2462,7 @@
       <c r="B11" s="48">
         <v>8</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="48">
@@ -2454,7 +2479,7 @@
       <c r="B12" s="48">
         <v>9</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="48">
@@ -2471,7 +2496,7 @@
       <c r="B13" s="48">
         <v>10</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="48">
@@ -2488,7 +2513,7 @@
       <c r="B14" s="48">
         <v>11</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="48">
@@ -2505,7 +2530,7 @@
       <c r="B15" s="48">
         <v>12</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="48">
@@ -2522,7 +2547,7 @@
       <c r="B16" s="48">
         <v>13</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="48">
@@ -2539,7 +2564,7 @@
       <c r="B17" s="48">
         <v>14</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="48">
@@ -2553,359 +2578,359 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:6">
-      <c r="B18" s="82">
+      <c r="B18" s="87">
         <v>15</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="87">
         <v>20</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="87">
         <v>5</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="87">
         <v>10</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:6">
-      <c r="B19" s="82">
+      <c r="B19" s="87">
         <v>16</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="87">
         <v>21</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="87">
         <v>5</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="87">
         <v>15</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:6">
-      <c r="B20" s="82">
+      <c r="B20" s="87">
         <v>17</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="87">
         <v>22</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="87">
         <v>4</v>
       </c>
-      <c r="F20" s="82">
+      <c r="F20" s="87">
         <v>20</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:6">
-      <c r="B21" s="82">
+      <c r="B21" s="87">
         <v>18</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="87">
         <v>23</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="87">
         <v>3</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="87">
         <v>25</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:6">
-      <c r="B22" s="82">
+      <c r="B22" s="87">
         <v>19</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="87">
         <v>24</v>
       </c>
-      <c r="E22" s="82">
+      <c r="E22" s="87">
         <v>2</v>
       </c>
-      <c r="F22" s="82">
+      <c r="F22" s="87">
         <v>30</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:6">
-      <c r="B23" s="82">
+      <c r="B23" s="87">
         <v>20</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="87">
         <v>25</v>
       </c>
-      <c r="E23" s="82">
+      <c r="E23" s="87">
         <v>1</v>
       </c>
-      <c r="F23" s="82">
+      <c r="F23" s="87">
         <v>30</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:6">
-      <c r="B24" s="82">
+      <c r="B24" s="87">
         <v>21</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="87">
         <v>26</v>
       </c>
-      <c r="E24" s="82">
+      <c r="E24" s="87">
         <v>1</v>
       </c>
-      <c r="F24" s="82">
+      <c r="F24" s="87">
         <v>30</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:6">
-      <c r="B25" s="84">
+      <c r="B25" s="89">
         <v>22</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="89">
         <v>20</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="89">
         <v>5</v>
       </c>
-      <c r="F25" s="84">
+      <c r="F25" s="89">
         <v>10</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:6">
-      <c r="B26" s="84">
+      <c r="B26" s="89">
         <v>23</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="84">
+      <c r="D26" s="89">
         <v>21</v>
       </c>
-      <c r="E26" s="84">
+      <c r="E26" s="89">
         <v>5</v>
       </c>
-      <c r="F26" s="84">
+      <c r="F26" s="89">
         <v>15</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:6">
-      <c r="B27" s="84">
+      <c r="B27" s="89">
         <v>24</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="84">
+      <c r="D27" s="89">
         <v>22</v>
       </c>
-      <c r="E27" s="84">
+      <c r="E27" s="89">
         <v>4</v>
       </c>
-      <c r="F27" s="84">
+      <c r="F27" s="89">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:6">
-      <c r="B28" s="84">
+      <c r="B28" s="89">
         <v>25</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="84">
+      <c r="D28" s="89">
         <v>23</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="89">
         <v>3</v>
       </c>
-      <c r="F28" s="84">
+      <c r="F28" s="89">
         <v>25</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:6">
-      <c r="B29" s="84">
+      <c r="B29" s="89">
         <v>26</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="89">
         <v>24</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="89">
         <v>2</v>
       </c>
-      <c r="F29" s="84">
+      <c r="F29" s="89">
         <v>30</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:6">
-      <c r="B30" s="84">
+      <c r="B30" s="89">
         <v>27</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="89">
         <v>25</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="89">
         <v>1</v>
       </c>
-      <c r="F30" s="84">
+      <c r="F30" s="89">
         <v>30</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:6">
-      <c r="B31" s="84">
+      <c r="B31" s="89">
         <v>28</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="89">
         <v>26</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="89">
         <v>1</v>
       </c>
-      <c r="F31" s="84">
+      <c r="F31" s="89">
         <v>30</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:6">
-      <c r="B32" s="79">
+      <c r="B32" s="54">
         <v>29</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="79">
+      <c r="D32" s="54">
         <v>20</v>
       </c>
-      <c r="E32" s="79">
+      <c r="E32" s="54">
         <v>6</v>
       </c>
-      <c r="F32" s="79">
+      <c r="F32" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:6">
-      <c r="B33" s="79">
+      <c r="B33" s="54">
         <v>30</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="79">
+      <c r="D33" s="54">
         <v>21</v>
       </c>
-      <c r="E33" s="79">
+      <c r="E33" s="54">
         <v>7</v>
       </c>
-      <c r="F33" s="79">
+      <c r="F33" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:6">
-      <c r="B34" s="79">
+      <c r="B34" s="54">
         <v>31</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="79">
+      <c r="D34" s="54">
         <v>22</v>
       </c>
-      <c r="E34" s="79">
+      <c r="E34" s="54">
         <v>6</v>
       </c>
-      <c r="F34" s="79">
+      <c r="F34" s="54">
         <v>20</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:6">
-      <c r="B35" s="79">
+      <c r="B35" s="54">
         <v>32</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="79">
+      <c r="D35" s="54">
         <v>23</v>
       </c>
-      <c r="E35" s="79">
+      <c r="E35" s="54">
         <v>5</v>
       </c>
-      <c r="F35" s="79">
+      <c r="F35" s="54">
         <v>25</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:6">
-      <c r="B36" s="79">
+      <c r="B36" s="54">
         <v>33</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="79">
+      <c r="D36" s="54">
         <v>24</v>
       </c>
-      <c r="E36" s="79">
+      <c r="E36" s="54">
         <v>3</v>
       </c>
-      <c r="F36" s="79">
+      <c r="F36" s="54">
         <v>30</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:6">
-      <c r="B37" s="79">
+      <c r="B37" s="54">
         <v>34</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="79">
+      <c r="D37" s="54">
         <v>25</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="54">
         <v>2</v>
       </c>
-      <c r="F37" s="79">
+      <c r="F37" s="54">
         <v>30</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:6">
-      <c r="B38" s="79">
+      <c r="B38" s="54">
         <v>35</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="79">
+      <c r="D38" s="54">
         <v>26</v>
       </c>
-      <c r="E38" s="79">
+      <c r="E38" s="54">
         <v>2</v>
       </c>
-      <c r="F38" s="79">
+      <c r="F38" s="54">
         <v>30</v>
       </c>
     </row>
@@ -2913,7 +2938,7 @@
       <c r="B39" s="32">
         <v>36</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="91" t="s">
         <v>62</v>
       </c>
       <c r="D39" s="32">
@@ -2930,7 +2955,7 @@
       <c r="B40" s="32">
         <v>37</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="91" t="s">
         <v>62</v>
       </c>
       <c r="D40" s="32">
@@ -2947,7 +2972,7 @@
       <c r="B41" s="32">
         <v>38</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="91" t="s">
         <v>62</v>
       </c>
       <c r="D41" s="32">
@@ -2964,7 +2989,7 @@
       <c r="B42" s="32">
         <v>39</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="91" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="32">
@@ -2981,7 +3006,7 @@
       <c r="B43" s="32">
         <v>40</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="91" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="32">
@@ -2998,7 +3023,7 @@
       <c r="B44" s="32">
         <v>41</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="91" t="s">
         <v>62</v>
       </c>
       <c r="D44" s="32">
@@ -3015,7 +3040,7 @@
       <c r="B45" s="32">
         <v>42</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="91" t="s">
         <v>62</v>
       </c>
       <c r="D45" s="32">
@@ -3029,126 +3054,126 @@
       </c>
     </row>
     <row r="46" ht="16.5" spans="2:6">
-      <c r="B46" s="82">
+      <c r="B46" s="87">
         <v>43</v>
       </c>
-      <c r="C46" s="83" t="s">
+      <c r="C46" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="82">
+      <c r="D46" s="87">
         <v>20</v>
       </c>
-      <c r="E46" s="82">
+      <c r="E46" s="87">
         <v>7</v>
       </c>
-      <c r="F46" s="82">
+      <c r="F46" s="87">
         <v>10</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="2:6">
-      <c r="B47" s="82">
+      <c r="B47" s="87">
         <v>44</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="82">
+      <c r="D47" s="87">
         <v>21</v>
       </c>
-      <c r="E47" s="82">
+      <c r="E47" s="87">
         <v>6</v>
       </c>
-      <c r="F47" s="82">
+      <c r="F47" s="87">
         <v>12</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="2:6">
-      <c r="B48" s="82">
+      <c r="B48" s="87">
         <v>45</v>
       </c>
-      <c r="C48" s="83" t="s">
+      <c r="C48" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="87">
         <v>22</v>
       </c>
-      <c r="E48" s="82">
+      <c r="E48" s="87">
         <v>7</v>
       </c>
-      <c r="F48" s="82">
+      <c r="F48" s="87">
         <v>17</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="2:6">
-      <c r="B49" s="82">
+      <c r="B49" s="87">
         <v>46</v>
       </c>
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="82">
+      <c r="D49" s="87">
         <v>23</v>
       </c>
-      <c r="E49" s="82">
+      <c r="E49" s="87">
         <v>6</v>
       </c>
-      <c r="F49" s="82">
+      <c r="F49" s="87">
         <v>20</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="2:6">
-      <c r="B50" s="82">
+      <c r="B50" s="87">
         <v>47</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="82">
+      <c r="D50" s="87">
         <v>24</v>
       </c>
-      <c r="E50" s="82">
+      <c r="E50" s="87">
         <v>5</v>
       </c>
-      <c r="F50" s="82">
+      <c r="F50" s="87">
         <v>25</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="2:6">
-      <c r="B51" s="82">
+      <c r="B51" s="87">
         <v>48</v>
       </c>
-      <c r="C51" s="83" t="s">
+      <c r="C51" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="82">
+      <c r="D51" s="87">
         <v>25</v>
       </c>
-      <c r="E51" s="82">
+      <c r="E51" s="87">
         <v>3</v>
       </c>
-      <c r="F51" s="82">
+      <c r="F51" s="87">
         <v>30</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="2:6">
-      <c r="B52" s="82">
+      <c r="B52" s="87">
         <v>49</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="82">
+      <c r="D52" s="87">
         <v>26</v>
       </c>
-      <c r="E52" s="82">
+      <c r="E52" s="87">
         <v>2</v>
       </c>
-      <c r="F52" s="82">
+      <c r="F52" s="87">
         <v>30</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="3:3">
-      <c r="C53" s="87"/>
+      <c r="C53" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3162,7 +3187,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3172,176 +3197,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="68"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="71"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="82" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83">
         <v>10001</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="83">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="83">
         <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="83">
         <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76">
+      <c r="A7" s="84"/>
+      <c r="B7" s="84">
         <v>10002</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="84">
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76" t="s">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="84">
         <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76" t="s">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="84">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71">
         <v>10003</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="71">
         <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="71">
         <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77" t="s">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="71">
         <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="71">
         <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53">
         <v>10004</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="53">
         <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="53">
         <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="53">
         <v>3000</v>
       </c>
     </row>
@@ -3379,8 +3404,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3394,152 +3419,157 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:6">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="66" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="68" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:6">
-      <c r="B5" s="65">
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70">
         <v>10001</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="69">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="69">
         <v>100</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="69">
         <v>30001</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="2:6">
-      <c r="B6" s="65">
+    <row r="6" ht="16.5" spans="1:6">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72">
         <v>10002</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="71">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="71">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="71">
         <v>10001</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="2:6">
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7">
+    <row r="7" ht="16.5" spans="1:6">
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="71">
         <v>101</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="71">
         <v>200</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="71">
         <v>10002</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="2:6">
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8">
+    <row r="8" ht="16.5" spans="1:6">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="71">
         <v>201</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="71">
         <v>300</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="71">
         <v>10003</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="2:6">
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9">
+    <row r="9" ht="16.5" spans="1:6">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="71">
         <v>301</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="71">
         <v>400</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="71">
         <v>10004</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:6">
-      <c r="B10" s="65">
+      <c r="B10" s="73">
         <v>10003</v>
       </c>
-      <c r="C10" s="65" t="s">
-        <v>35</v>
+      <c r="C10" s="73" t="s">
+        <v>80</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3548,14 +3578,14 @@
         <v>100</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>40001</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:6">
-      <c r="B11" s="65">
+      <c r="B11" s="73">
         <v>20001</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="73" t="s">
         <v>44</v>
       </c>
       <c r="D11">
@@ -3581,16 +3611,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="22"/>
+    <col min="4" max="4" width="17.575" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="15.375" customWidth="1"/>
@@ -3608,10 +3638,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3629,10 +3659,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3647,19 +3677,19 @@
       <c r="C3" s="5"/>
       <c r="D3" s="24"/>
       <c r="E3" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9">
@@ -3675,96 +3705,102 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" ht="28.5" spans="2:9">
+    <row r="5" ht="28.5" spans="2:11">
       <c r="B5" s="26">
         <v>10001</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="28">
-        <v>10003</v>
+        <v>90</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+        <v>95</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="I6" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
       <c r="E7" s="35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>101</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" ht="28.5" spans="2:9">
       <c r="B8" s="37">
         <v>10002</v>
       </c>
       <c r="C8" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="39">
-        <v>0</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>105</v>
+      <c r="I8" s="57" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -3772,19 +3808,19 @@
       <c r="C9" s="35"/>
       <c r="D9" s="36"/>
       <c r="E9" s="35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="2:9">
@@ -3792,25 +3828,25 @@
         <v>10003</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -3818,19 +3854,19 @@
       <c r="C11" s="32"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="57" t="s">
         <v>103</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -3838,19 +3874,19 @@
       <c r="C12" s="35"/>
       <c r="D12" s="36"/>
       <c r="E12" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="2:9">
@@ -3858,25 +3894,25 @@
         <v>10004</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D13" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>111</v>
-      </c>
       <c r="H13" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -3884,19 +3920,19 @@
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -3904,19 +3940,19 @@
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
       <c r="E15" s="35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="55" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -3924,25 +3960,25 @@
         <v>20001</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="56" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -3950,19 +3986,19 @@
       <c r="C17" s="42"/>
       <c r="D17" s="43"/>
       <c r="E17" s="42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="56" t="s">
         <v>118</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -3970,19 +4006,19 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43"/>
       <c r="E18" s="42" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -3990,19 +4026,19 @@
       <c r="C19" s="45"/>
       <c r="D19" s="46"/>
       <c r="E19" s="45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="57" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="I19" s="60" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -4010,25 +4046,25 @@
         <v>30001</v>
       </c>
       <c r="C20" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>101</v>
+      <c r="I20" s="61" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -4036,19 +4072,19 @@
       <c r="C21" s="48"/>
       <c r="D21" s="49"/>
       <c r="E21" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="61" t="s">
         <v>103</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -4056,19 +4092,19 @@
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
       <c r="E22" s="48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="58" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -4076,19 +4112,19 @@
       <c r="C23" s="48"/>
       <c r="D23" s="49"/>
       <c r="E23" s="48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H23" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="58" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -4096,19 +4132,19 @@
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
       <c r="E24" s="48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -4116,19 +4152,123 @@
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
       <c r="E25" s="51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="53">
+        <v>40001</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="55" t="s">
         <v>105</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="53">
+        <v>40002</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="53">
+        <v>40003</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="53">
+        <v>40004</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="63" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4169,7 +4309,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="16"/>
@@ -4185,7 +4325,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="16"/>
@@ -4197,7 +4337,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>74</v>
@@ -4252,7 +4392,7 @@
   <sheetPr/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -4277,10 +4417,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4303,7 +4443,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4320,19 +4460,19 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -4364,19 +4504,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4385,19 +4525,19 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4406,19 +4546,19 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4427,19 +4567,19 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4448,19 +4588,19 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
@@ -4471,19 +4611,19 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="20"/>
@@ -4495,25 +4635,25 @@
         <v>10002</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D11" s="13">
         <v>10003</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
@@ -4524,19 +4664,19 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>93</v>
-      </c>
       <c r="I12" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4545,19 +4685,19 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4572,19 +4712,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4593,19 +4733,19 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4614,19 +4754,19 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4635,19 +4775,19 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="6:9">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17655" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -1891,8 +1891,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -3405,7 +3405,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3613,8 +3613,8 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4393,7 +4393,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="4"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,25 @@
     <sheet name="人物评分对话(弃用)" sheetId="4" r:id="rId6"/>
     <sheet name="人物出现时间(弃用)" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="151">
   <si>
     <t>##var</t>
   </si>
@@ -49,9 +62,6 @@
     <t>unlike_flavour</t>
   </si>
   <si>
-    <t>behaviour_group</t>
-  </si>
-  <si>
     <t>schedule_group</t>
   </si>
   <si>
@@ -94,19 +104,16 @@
     <t>讨厌的口味</t>
   </si>
   <si>
-    <t>行为组</t>
-  </si>
-  <si>
     <t>行程组</t>
   </si>
   <si>
     <t>章鱼</t>
   </si>
   <si>
-    <t>Assets/GameRes/Prefabs/NPC/YoungFatMan.prefab</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/extra01/A1.png</t>
+    <t>小镇青年</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/NPC/Zhangyu.prefab</t>
   </si>
   <si>
     <t>家常,清淡</t>
@@ -118,10 +125,10 @@
     <t>喵喵</t>
   </si>
   <si>
-    <t>Assets/GameRes/Prefabs/NPC/LittleGirl.prefab</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/extra02/A2.png</t>
+    <t>画师</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/NPC/Miao.prefab</t>
   </si>
   <si>
     <t>重油,饱腹</t>
@@ -136,9 +143,6 @@
     <t>Assets/GameRes/Prefabs/NPC/Bear.prefab</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/extra03/A3.png</t>
-  </si>
-  <si>
     <t>肉,实惠,烧烤</t>
   </si>
   <si>
@@ -154,7 +158,34 @@
     <t>Assets/GameRes/Prefabs/NPC/ShopKeeper.prefab</t>
   </si>
   <si>
-    <t>年轻人</t>
+    <t>费南多</t>
+  </si>
+  <si>
+    <t>打游戏中年人</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/NPC/Fernando.prefab</t>
+  </si>
+  <si>
+    <t>阿柯</t>
+  </si>
+  <si>
+    <t>摇滚青年</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/NPC/Ake.prefab</t>
+  </si>
+  <si>
+    <t>夏雨</t>
+  </si>
+  <si>
+    <t>天气姐姐</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/NPC/Xiayu.prefab</t>
+  </si>
+  <si>
+    <t>宇轩</t>
   </si>
   <si>
     <t>有点疲惫的年轻人</t>
@@ -284,9 +315,15 @@
     <t>伊万先生</t>
   </si>
   <si>
+    <t>帅哥费南多</t>
+  </si>
+  <si>
     <t>partner_id</t>
   </si>
   <si>
+    <t>behaviour_id</t>
+  </si>
+  <si>
     <t>*character_appear_infos</t>
   </si>
   <si>
@@ -317,6 +354,9 @@
     <t>10003</t>
   </si>
   <si>
+    <t>10001</t>
+  </si>
+  <si>
     <t>周三</t>
   </si>
   <si>
@@ -359,37 +399,37 @@
     <t>0</t>
   </si>
   <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>25:00</t>
+  </si>
+  <si>
+    <t>24:00</t>
+  </si>
+  <si>
+    <t>喵老师第三阶段行动组</t>
+  </si>
+  <si>
+    <t>周一</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
     <t>周二</t>
   </si>
   <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>25:00</t>
+    <t>喵老师第四阶段行动组</t>
   </si>
   <si>
     <t>周五</t>
   </si>
   <si>
-    <t>24:00</t>
-  </si>
-  <si>
-    <t>喵老师第三阶段行动组</t>
-  </si>
-  <si>
-    <t>周一</t>
-  </si>
-  <si>
-    <t>20:30</t>
-  </si>
-  <si>
-    <t>喵老师第四阶段行动组</t>
-  </si>
-  <si>
-    <t>周四</t>
-  </si>
-  <si>
-    <t>年轻人第一阶段</t>
+    <t>宇轩第一阶段</t>
   </si>
   <si>
     <t>23:30</t>
@@ -401,52 +441,76 @@
     <t>26:00</t>
   </si>
   <si>
+    <t>章鱼第一阶段</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>22:35</t>
+  </si>
+  <si>
+    <t>伊万第一阶段</t>
+  </si>
+  <si>
+    <t>周八</t>
+  </si>
+  <si>
+    <t>暴风雪</t>
+  </si>
+  <si>
+    <t>伊万第二阶段</t>
+  </si>
+  <si>
+    <t>帅哥费南多第一阶段</t>
+  </si>
+  <si>
+    <t>20:15</t>
+  </si>
+  <si>
+    <t>60001</t>
+  </si>
+  <si>
+    <t>阿柯第一阶段</t>
+  </si>
+  <si>
+    <t>70001</t>
+  </si>
+  <si>
+    <t>夏雨第一阶段</t>
+  </si>
+  <si>
+    <t>20:20</t>
+  </si>
+  <si>
+    <t>*comments</t>
+  </si>
+  <si>
+    <t>dialogue_id</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>21:10</t>
+  </si>
+  <si>
+    <t>喵老师</t>
+  </si>
+  <si>
+    <t>年轻人</t>
+  </si>
+  <si>
     <t>雨天</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>章鱼第一阶段</t>
-  </si>
-  <si>
-    <t>暴风雪</t>
-  </si>
-  <si>
-    <t>22:35</t>
-  </si>
-  <si>
-    <t>21:45</t>
-  </si>
-  <si>
-    <t>21:50</t>
-  </si>
-  <si>
-    <t>21:10</t>
-  </si>
-  <si>
-    <t>伊万第一阶段</t>
-  </si>
-  <si>
-    <t>周八</t>
-  </si>
-  <si>
-    <t>伊万第二阶段</t>
-  </si>
-  <si>
-    <t>*comments</t>
-  </si>
-  <si>
-    <t>dialogue_id</t>
-  </si>
-  <si>
-    <t>喵老师</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1284,7 +1348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1424,13 +1488,45 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1453,6 +1549,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1504,6 +1609,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,9 +1672,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1889,65 +1992,63 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.5083333333333" customWidth="1"/>
     <col min="2" max="3" width="10.0083333333333" customWidth="1"/>
-    <col min="4" max="5" width="13.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="48.8416666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.275" customWidth="1"/>
+    <col min="6" max="6" width="44.5166666666667" customWidth="1"/>
     <col min="7" max="7" width="54.05" customWidth="1"/>
     <col min="8" max="9" width="27.5083333333333" customWidth="1"/>
-    <col min="10" max="10" width="16.675" customWidth="1"/>
-    <col min="11" max="11" width="22.175" customWidth="1"/>
-    <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="5.13333333333333" customWidth="1"/>
+    <col min="10" max="10" width="22.175" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="93" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A1" s="64" t="s">
+    <row r="1" s="107" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="103"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -1968,46 +2069,43 @@
       <c r="AG1"/>
       <c r="AH1"/>
       <c r="AI1"/>
-      <c r="AJ1"/>
-    </row>
-    <row r="2" s="94" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A2" s="66" t="s">
+    </row>
+    <row r="2" s="108" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
+      <c r="A2" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="C2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="D2" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="I2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="103"/>
+      <c r="J2" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="118"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="117"/>
+      <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -2028,46 +2126,43 @@
       <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2"/>
-      <c r="AJ2"/>
-    </row>
-    <row r="3" s="93" customFormat="1" ht="22.5" customHeight="1" spans="1:36">
-      <c r="A3" s="68" t="s">
+    </row>
+    <row r="3" s="107" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
+      <c r="A3" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="C3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="D3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="E3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="F3" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="G3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="H3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="I3" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="J3" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="103"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="117"/>
+      <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -2088,178 +2183,230 @@
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
-      <c r="AJ3"/>
-    </row>
-    <row r="4" ht="39" customHeight="1" spans="1:14">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73">
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:13">
+      <c r="A4" s="86"/>
+      <c r="B4" s="86">
         <v>10001</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="86">
+        <v>1</v>
+      </c>
+      <c r="F4" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73">
+      <c r="G4" s="112"/>
+      <c r="H4" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="86">
+        <v>30001</v>
+      </c>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A5" s="86"/>
+      <c r="B5" s="86">
+        <v>10002</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="86">
         <v>1</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F5" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="112"/>
+      <c r="H5" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="73">
+      <c r="I5" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="86">
         <v>10001</v>
       </c>
-      <c r="K4" s="73">
-        <v>30001</v>
-      </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73">
-        <v>10002</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73">
+      <c r="K5" s="122"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:13">
+      <c r="A6" s="86"/>
+      <c r="B6" s="86">
+        <v>10003</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="86">
         <v>1</v>
       </c>
-      <c r="F5" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="73">
-        <v>10001</v>
-      </c>
-      <c r="K5" s="73">
-        <v>10001</v>
-      </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:14">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73">
-        <v>10003</v>
-      </c>
-      <c r="C6" s="73" t="s">
+      <c r="F6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="G6" s="112"/>
+      <c r="H6" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="73">
+      <c r="I6" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="86">
+        <v>40001</v>
+      </c>
+      <c r="K6" s="122"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+    </row>
+    <row r="7" ht="46" customHeight="1" spans="2:13">
+      <c r="B7" s="86">
+        <v>10004</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="86">
+        <v>0</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="114"/>
+      <c r="J7" s="60">
+        <v>0</v>
+      </c>
+      <c r="K7" s="122"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+    </row>
+    <row r="8" ht="46" customHeight="1" spans="2:13">
+      <c r="B8" s="86">
+        <v>10005</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="86">
         <v>1</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="99" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="73">
-        <v>10001</v>
-      </c>
-      <c r="K6" s="73">
-        <v>0</v>
-      </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-    </row>
-    <row r="7" ht="46" customHeight="1" spans="2:14">
-      <c r="B7" s="73">
-        <v>10004</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="73">
-        <v>0</v>
-      </c>
-      <c r="F7" s="73" t="s">
+      <c r="F8" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="J7" s="73">
-        <v>10001</v>
-      </c>
-      <c r="K7" s="110">
-        <v>0</v>
-      </c>
-      <c r="L7" s="108"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-    </row>
-    <row r="8" ht="33" spans="2:14">
-      <c r="B8" s="73">
+      <c r="H8" s="114"/>
+      <c r="J8" s="60">
+        <v>50001</v>
+      </c>
+      <c r="K8" s="122"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+    </row>
+    <row r="9" ht="46" customHeight="1" spans="2:13">
+      <c r="B9" s="86">
+        <v>10006</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="86">
+        <v>1</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="114"/>
+      <c r="J9" s="60">
+        <v>60001</v>
+      </c>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+    </row>
+    <row r="10" ht="46" customHeight="1" spans="2:13">
+      <c r="B10" s="86">
+        <v>10007</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="86">
+        <v>1</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="114"/>
+      <c r="J10" s="60">
+        <v>70001</v>
+      </c>
+      <c r="K10" s="122"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+    </row>
+    <row r="11" ht="33" spans="2:13">
+      <c r="B11" s="86">
         <v>20001</v>
       </c>
-      <c r="C8" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="73">
+      <c r="C11" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="86">
         <v>1</v>
       </c>
-      <c r="F8" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="73">
-        <v>10001</v>
-      </c>
-      <c r="K8" s="110">
-        <v>20001</v>
-      </c>
-      <c r="L8" s="108"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
+      <c r="F11" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="60">
+        <v>80001</v>
+      </c>
+      <c r="K11" s="122"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2273,7 +2420,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2290,61 +2437,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:6">
       <c r="B4" s="54">
         <v>1</v>
       </c>
-      <c r="C4" s="85" t="s">
-        <v>57</v>
+      <c r="C4" s="99" t="s">
+        <v>63</v>
       </c>
       <c r="D4" s="54">
         <v>20</v>
@@ -2360,8 +2507,8 @@
       <c r="B5" s="54">
         <v>2</v>
       </c>
-      <c r="C5" s="85" t="s">
-        <v>57</v>
+      <c r="C5" s="99" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="54">
         <v>21</v>
@@ -2377,8 +2524,8 @@
       <c r="B6" s="54">
         <v>3</v>
       </c>
-      <c r="C6" s="85" t="s">
-        <v>57</v>
+      <c r="C6" s="99" t="s">
+        <v>63</v>
       </c>
       <c r="D6" s="54">
         <v>22</v>
@@ -2394,8 +2541,8 @@
       <c r="B7" s="54">
         <v>4</v>
       </c>
-      <c r="C7" s="85" t="s">
-        <v>57</v>
+      <c r="C7" s="99" t="s">
+        <v>63</v>
       </c>
       <c r="D7" s="54">
         <v>23</v>
@@ -2411,8 +2558,8 @@
       <c r="B8" s="54">
         <v>5</v>
       </c>
-      <c r="C8" s="85" t="s">
-        <v>57</v>
+      <c r="C8" s="99" t="s">
+        <v>63</v>
       </c>
       <c r="D8" s="54">
         <v>24</v>
@@ -2428,8 +2575,8 @@
       <c r="B9" s="54">
         <v>6</v>
       </c>
-      <c r="C9" s="85" t="s">
-        <v>57</v>
+      <c r="C9" s="99" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="54">
         <v>25</v>
@@ -2445,8 +2592,8 @@
       <c r="B10" s="54">
         <v>7</v>
       </c>
-      <c r="C10" s="85" t="s">
-        <v>57</v>
+      <c r="C10" s="99" t="s">
+        <v>63</v>
       </c>
       <c r="D10" s="54">
         <v>26</v>
@@ -2462,8 +2609,8 @@
       <c r="B11" s="48">
         <v>8</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>58</v>
+      <c r="C11" s="100" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="48">
         <v>20</v>
@@ -2479,8 +2626,8 @@
       <c r="B12" s="48">
         <v>9</v>
       </c>
-      <c r="C12" s="86" t="s">
-        <v>58</v>
+      <c r="C12" s="100" t="s">
+        <v>64</v>
       </c>
       <c r="D12" s="48">
         <v>21</v>
@@ -2496,8 +2643,8 @@
       <c r="B13" s="48">
         <v>10</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>58</v>
+      <c r="C13" s="100" t="s">
+        <v>64</v>
       </c>
       <c r="D13" s="48">
         <v>22</v>
@@ -2513,8 +2660,8 @@
       <c r="B14" s="48">
         <v>11</v>
       </c>
-      <c r="C14" s="86" t="s">
-        <v>58</v>
+      <c r="C14" s="100" t="s">
+        <v>64</v>
       </c>
       <c r="D14" s="48">
         <v>23</v>
@@ -2530,8 +2677,8 @@
       <c r="B15" s="48">
         <v>12</v>
       </c>
-      <c r="C15" s="86" t="s">
-        <v>58</v>
+      <c r="C15" s="100" t="s">
+        <v>64</v>
       </c>
       <c r="D15" s="48">
         <v>24</v>
@@ -2547,8 +2694,8 @@
       <c r="B16" s="48">
         <v>13</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>58</v>
+      <c r="C16" s="100" t="s">
+        <v>64</v>
       </c>
       <c r="D16" s="48">
         <v>25</v>
@@ -2564,8 +2711,8 @@
       <c r="B17" s="48">
         <v>14</v>
       </c>
-      <c r="C17" s="86" t="s">
-        <v>58</v>
+      <c r="C17" s="100" t="s">
+        <v>64</v>
       </c>
       <c r="D17" s="48">
         <v>26</v>
@@ -2578,240 +2725,240 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:6">
-      <c r="B18" s="87">
+      <c r="B18" s="101">
         <v>15</v>
       </c>
-      <c r="C18" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="87">
+      <c r="C18" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="101">
         <v>20</v>
       </c>
-      <c r="E18" s="87">
+      <c r="E18" s="101">
         <v>5</v>
       </c>
-      <c r="F18" s="87">
+      <c r="F18" s="101">
         <v>10</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:6">
-      <c r="B19" s="87">
+      <c r="B19" s="101">
         <v>16</v>
       </c>
-      <c r="C19" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="87">
+      <c r="C19" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="101">
         <v>21</v>
       </c>
-      <c r="E19" s="87">
+      <c r="E19" s="101">
         <v>5</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="101">
         <v>15</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:6">
-      <c r="B20" s="87">
+      <c r="B20" s="101">
         <v>17</v>
       </c>
-      <c r="C20" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="87">
+      <c r="C20" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="101">
         <v>22</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="101">
         <v>4</v>
       </c>
-      <c r="F20" s="87">
+      <c r="F20" s="101">
         <v>20</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:6">
-      <c r="B21" s="87">
+      <c r="B21" s="101">
         <v>18</v>
       </c>
-      <c r="C21" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="87">
+      <c r="C21" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="101">
         <v>23</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E21" s="101">
         <v>3</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="101">
         <v>25</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:6">
-      <c r="B22" s="87">
+      <c r="B22" s="101">
         <v>19</v>
       </c>
-      <c r="C22" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="87">
+      <c r="C22" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="101">
         <v>24</v>
       </c>
-      <c r="E22" s="87">
+      <c r="E22" s="101">
         <v>2</v>
       </c>
-      <c r="F22" s="87">
+      <c r="F22" s="101">
         <v>30</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:6">
-      <c r="B23" s="87">
+      <c r="B23" s="101">
         <v>20</v>
       </c>
-      <c r="C23" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="87">
+      <c r="C23" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="101">
         <v>25</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E23" s="101">
         <v>1</v>
       </c>
-      <c r="F23" s="87">
+      <c r="F23" s="101">
         <v>30</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:6">
-      <c r="B24" s="87">
+      <c r="B24" s="101">
         <v>21</v>
       </c>
-      <c r="C24" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="87">
+      <c r="C24" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="101">
         <v>26</v>
       </c>
-      <c r="E24" s="87">
+      <c r="E24" s="101">
         <v>1</v>
       </c>
-      <c r="F24" s="87">
+      <c r="F24" s="101">
         <v>30</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:6">
-      <c r="B25" s="89">
+      <c r="B25" s="103">
         <v>22</v>
       </c>
-      <c r="C25" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="89">
+      <c r="C25" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="103">
         <v>20</v>
       </c>
-      <c r="E25" s="89">
+      <c r="E25" s="103">
         <v>5</v>
       </c>
-      <c r="F25" s="89">
+      <c r="F25" s="103">
         <v>10</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:6">
-      <c r="B26" s="89">
+      <c r="B26" s="103">
         <v>23</v>
       </c>
-      <c r="C26" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="89">
+      <c r="C26" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="103">
         <v>21</v>
       </c>
-      <c r="E26" s="89">
+      <c r="E26" s="103">
         <v>5</v>
       </c>
-      <c r="F26" s="89">
+      <c r="F26" s="103">
         <v>15</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:6">
-      <c r="B27" s="89">
+      <c r="B27" s="103">
         <v>24</v>
       </c>
-      <c r="C27" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="89">
+      <c r="C27" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="103">
         <v>22</v>
       </c>
-      <c r="E27" s="89">
+      <c r="E27" s="103">
         <v>4</v>
       </c>
-      <c r="F27" s="89">
+      <c r="F27" s="103">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:6">
-      <c r="B28" s="89">
+      <c r="B28" s="103">
         <v>25</v>
       </c>
-      <c r="C28" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="89">
+      <c r="C28" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="103">
         <v>23</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28" s="103">
         <v>3</v>
       </c>
-      <c r="F28" s="89">
+      <c r="F28" s="103">
         <v>25</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:6">
-      <c r="B29" s="89">
+      <c r="B29" s="103">
         <v>26</v>
       </c>
-      <c r="C29" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="89">
+      <c r="C29" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="103">
         <v>24</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="103">
         <v>2</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="103">
         <v>30</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:6">
-      <c r="B30" s="89">
+      <c r="B30" s="103">
         <v>27</v>
       </c>
-      <c r="C30" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="89">
+      <c r="C30" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="103">
         <v>25</v>
       </c>
-      <c r="E30" s="89">
+      <c r="E30" s="103">
         <v>1</v>
       </c>
-      <c r="F30" s="89">
+      <c r="F30" s="103">
         <v>30</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:6">
-      <c r="B31" s="89">
+      <c r="B31" s="103">
         <v>28</v>
       </c>
-      <c r="C31" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="89">
+      <c r="C31" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="103">
         <v>26</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31" s="103">
         <v>1</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="103">
         <v>30</v>
       </c>
     </row>
@@ -2819,8 +2966,8 @@
       <c r="B32" s="54">
         <v>29</v>
       </c>
-      <c r="C32" s="85" t="s">
-        <v>61</v>
+      <c r="C32" s="99" t="s">
+        <v>67</v>
       </c>
       <c r="D32" s="54">
         <v>20</v>
@@ -2836,8 +2983,8 @@
       <c r="B33" s="54">
         <v>30</v>
       </c>
-      <c r="C33" s="85" t="s">
-        <v>61</v>
+      <c r="C33" s="99" t="s">
+        <v>67</v>
       </c>
       <c r="D33" s="54">
         <v>21</v>
@@ -2853,8 +3000,8 @@
       <c r="B34" s="54">
         <v>31</v>
       </c>
-      <c r="C34" s="85" t="s">
-        <v>61</v>
+      <c r="C34" s="99" t="s">
+        <v>67</v>
       </c>
       <c r="D34" s="54">
         <v>22</v>
@@ -2870,8 +3017,8 @@
       <c r="B35" s="54">
         <v>32</v>
       </c>
-      <c r="C35" s="85" t="s">
-        <v>61</v>
+      <c r="C35" s="99" t="s">
+        <v>67</v>
       </c>
       <c r="D35" s="54">
         <v>23</v>
@@ -2887,8 +3034,8 @@
       <c r="B36" s="54">
         <v>33</v>
       </c>
-      <c r="C36" s="85" t="s">
-        <v>61</v>
+      <c r="C36" s="99" t="s">
+        <v>67</v>
       </c>
       <c r="D36" s="54">
         <v>24</v>
@@ -2904,8 +3051,8 @@
       <c r="B37" s="54">
         <v>34</v>
       </c>
-      <c r="C37" s="85" t="s">
-        <v>61</v>
+      <c r="C37" s="99" t="s">
+        <v>67</v>
       </c>
       <c r="D37" s="54">
         <v>25</v>
@@ -2921,8 +3068,8 @@
       <c r="B38" s="54">
         <v>35</v>
       </c>
-      <c r="C38" s="85" t="s">
-        <v>61</v>
+      <c r="C38" s="99" t="s">
+        <v>67</v>
       </c>
       <c r="D38" s="54">
         <v>26</v>
@@ -2938,8 +3085,8 @@
       <c r="B39" s="32">
         <v>36</v>
       </c>
-      <c r="C39" s="91" t="s">
-        <v>62</v>
+      <c r="C39" s="105" t="s">
+        <v>68</v>
       </c>
       <c r="D39" s="32">
         <v>20</v>
@@ -2955,8 +3102,8 @@
       <c r="B40" s="32">
         <v>37</v>
       </c>
-      <c r="C40" s="91" t="s">
-        <v>62</v>
+      <c r="C40" s="105" t="s">
+        <v>68</v>
       </c>
       <c r="D40" s="32">
         <v>21</v>
@@ -2972,8 +3119,8 @@
       <c r="B41" s="32">
         <v>38</v>
       </c>
-      <c r="C41" s="91" t="s">
-        <v>62</v>
+      <c r="C41" s="105" t="s">
+        <v>68</v>
       </c>
       <c r="D41" s="32">
         <v>22</v>
@@ -2989,8 +3136,8 @@
       <c r="B42" s="32">
         <v>39</v>
       </c>
-      <c r="C42" s="91" t="s">
-        <v>62</v>
+      <c r="C42" s="105" t="s">
+        <v>68</v>
       </c>
       <c r="D42" s="32">
         <v>23</v>
@@ -3006,8 +3153,8 @@
       <c r="B43" s="32">
         <v>40</v>
       </c>
-      <c r="C43" s="91" t="s">
-        <v>62</v>
+      <c r="C43" s="105" t="s">
+        <v>68</v>
       </c>
       <c r="D43" s="32">
         <v>24</v>
@@ -3023,8 +3170,8 @@
       <c r="B44" s="32">
         <v>41</v>
       </c>
-      <c r="C44" s="91" t="s">
-        <v>62</v>
+      <c r="C44" s="105" t="s">
+        <v>68</v>
       </c>
       <c r="D44" s="32">
         <v>25</v>
@@ -3040,8 +3187,8 @@
       <c r="B45" s="32">
         <v>42</v>
       </c>
-      <c r="C45" s="91" t="s">
-        <v>62</v>
+      <c r="C45" s="105" t="s">
+        <v>68</v>
       </c>
       <c r="D45" s="32">
         <v>26</v>
@@ -3054,126 +3201,126 @@
       </c>
     </row>
     <row r="46" ht="16.5" spans="2:6">
-      <c r="B46" s="87">
+      <c r="B46" s="101">
         <v>43</v>
       </c>
-      <c r="C46" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="87">
+      <c r="C46" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="101">
         <v>20</v>
       </c>
-      <c r="E46" s="87">
+      <c r="E46" s="101">
         <v>7</v>
       </c>
-      <c r="F46" s="87">
+      <c r="F46" s="101">
         <v>10</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="2:6">
-      <c r="B47" s="87">
+      <c r="B47" s="101">
         <v>44</v>
       </c>
-      <c r="C47" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="87">
+      <c r="C47" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="101">
         <v>21</v>
       </c>
-      <c r="E47" s="87">
+      <c r="E47" s="101">
         <v>6</v>
       </c>
-      <c r="F47" s="87">
+      <c r="F47" s="101">
         <v>12</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="2:6">
-      <c r="B48" s="87">
+      <c r="B48" s="101">
         <v>45</v>
       </c>
-      <c r="C48" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="87">
+      <c r="C48" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="101">
         <v>22</v>
       </c>
-      <c r="E48" s="87">
+      <c r="E48" s="101">
         <v>7</v>
       </c>
-      <c r="F48" s="87">
+      <c r="F48" s="101">
         <v>17</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="2:6">
-      <c r="B49" s="87">
+      <c r="B49" s="101">
         <v>46</v>
       </c>
-      <c r="C49" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="87">
+      <c r="C49" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="101">
         <v>23</v>
       </c>
-      <c r="E49" s="87">
+      <c r="E49" s="101">
         <v>6</v>
       </c>
-      <c r="F49" s="87">
+      <c r="F49" s="101">
         <v>20</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="2:6">
-      <c r="B50" s="87">
+      <c r="B50" s="101">
         <v>47</v>
       </c>
-      <c r="C50" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="87">
+      <c r="C50" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="101">
         <v>24</v>
       </c>
-      <c r="E50" s="87">
+      <c r="E50" s="101">
         <v>5</v>
       </c>
-      <c r="F50" s="87">
+      <c r="F50" s="101">
         <v>25</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="2:6">
-      <c r="B51" s="87">
+      <c r="B51" s="101">
         <v>48</v>
       </c>
-      <c r="C51" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="87">
+      <c r="C51" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="101">
         <v>25</v>
       </c>
-      <c r="E51" s="87">
+      <c r="E51" s="101">
         <v>3</v>
       </c>
-      <c r="F51" s="87">
+      <c r="F51" s="101">
         <v>30</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="2:6">
-      <c r="B52" s="87">
+      <c r="B52" s="101">
         <v>49</v>
       </c>
-      <c r="C52" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="87">
+      <c r="C52" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="101">
         <v>26</v>
       </c>
-      <c r="E52" s="87">
+      <c r="E52" s="101">
         <v>2</v>
       </c>
-      <c r="F52" s="87">
+      <c r="F52" s="101">
         <v>30</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="3:3">
-      <c r="C53" s="92"/>
+      <c r="C53" s="106"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3187,7 +3334,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3197,176 +3344,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="76"/>
+      <c r="C1" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>67</v>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96">
         <v>10001</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="83">
+      <c r="C4" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="96">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="83">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="96">
         <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="83">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="96">
         <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84">
+      <c r="A7" s="97"/>
+      <c r="B7" s="97">
         <v>10002</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="84">
+      <c r="C7" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="97">
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="84">
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="97">
         <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="84">
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="97">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71">
+      <c r="A10" s="84"/>
+      <c r="B10" s="84">
         <v>10003</v>
       </c>
-      <c r="C10" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="71">
+      <c r="C10" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="84">
         <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="71">
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="84">
         <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="71">
+      <c r="A12" s="84"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="84">
         <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="71">
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="84">
         <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53">
+      <c r="A14" s="98"/>
+      <c r="B14" s="98">
         <v>10004</v>
       </c>
-      <c r="C14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="53">
+      <c r="C14" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="98">
         <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="53">
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="98">
         <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="53">
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="98">
         <v>3000</v>
       </c>
     </row>
@@ -3375,7 +3522,7 @@
         <v>10005</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <v>3000</v>
@@ -3383,7 +3530,7 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>1000</v>
@@ -3402,10 +3549,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3419,157 +3566,157 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:6">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
+      <c r="D1" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="C2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
+      <c r="D2" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>76</v>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:6">
-      <c r="A4" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>25</v>
+      <c r="A4" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70">
+      <c r="A5" s="82"/>
+      <c r="B5" s="83">
         <v>10001</v>
       </c>
-      <c r="C5" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="69">
+      <c r="C5" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="82">
         <v>0</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="82">
         <v>100</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="82">
         <v>30001</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85">
         <v>10002</v>
       </c>
-      <c r="C6" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="71">
+      <c r="C6" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="84">
         <v>0</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="84">
         <v>100</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="84">
         <v>10001</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="71">
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="84">
         <v>101</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="84">
         <v>200</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="84">
         <v>10002</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="71">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="84">
         <v>201</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="84">
         <v>300</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="84">
         <v>10003</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="71">
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="84">
         <v>301</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="84">
         <v>400</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="84">
         <v>10004</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:6">
-      <c r="B10" s="73">
+      <c r="B10" s="86">
         <v>10003</v>
       </c>
-      <c r="C10" s="73" t="s">
-        <v>80</v>
+      <c r="C10" s="86" t="s">
+        <v>86</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3582,11 +3729,11 @@
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:6">
-      <c r="B11" s="73">
-        <v>20001</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>44</v>
+      <c r="B11" s="86">
+        <v>10005</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>87</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3595,8 +3742,63 @@
         <v>100</v>
       </c>
       <c r="F11">
+        <v>50001</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="2:6">
+      <c r="B12" s="86">
+        <v>10006</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>60001</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="2:6">
+      <c r="B13" s="86">
+        <v>10007</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>70001</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:6">
+      <c r="B14" s="86">
         <v>20001</v>
       </c>
+      <c r="C14" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:3">
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3611,670 +3813,766 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.575" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="17.0333333333333" customWidth="1"/>
+    <col min="4" max="5" width="17.575" style="22" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" ht="25" customHeight="1" spans="1:9">
+      <c r="I1" s="3"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:9">
+      <c r="I2" s="3"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="E3" s="24"/>
       <c r="F3" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" ht="25" customHeight="1" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:10">
       <c r="A4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-    </row>
-    <row r="5" ht="28.5" spans="2:11">
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" ht="28.5" spans="2:12">
       <c r="B5" s="26">
         <v>10001</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="19"/>
+        <v>103</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>105</v>
+      </c>
       <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>93</v>
+      <c r="E6" s="33"/>
+      <c r="F6" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>108</v>
+      </c>
       <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
-      <c r="E7" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>93</v>
+      <c r="E7" s="36"/>
+      <c r="F7" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="68" t="s">
+        <v>112</v>
+      </c>
       <c r="K7" s="19"/>
-    </row>
-    <row r="8" ht="28.5" spans="2:9">
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" ht="28.5" spans="2:10">
       <c r="B8" s="37">
         <v>10002</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>93</v>
+        <v>114</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>115</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+        <v>116</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="34"/>
       <c r="C9" s="35"/>
       <c r="D9" s="36"/>
-      <c r="E9" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>93</v>
+      <c r="E9" s="36"/>
+      <c r="F9" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" spans="2:9">
+        <v>103</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="2:10">
       <c r="B10" s="31">
         <v>10003</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>93</v>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="J11" s="67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="34"/>
       <c r="C12" s="35"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>93</v>
+      <c r="E12" s="36"/>
+      <c r="F12" s="35" t="s">
+        <v>101</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="36" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" ht="28.5" spans="2:9">
+      <c r="J12" s="68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="2:10">
       <c r="B13" s="31">
         <v>10004</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>93</v>
+      <c r="E13" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="J13" s="67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>93</v>
-      </c>
       <c r="G14" s="33" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="J14" s="67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="34"/>
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36"/>
+      <c r="F15" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="41">
+        <v>80001</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="47">
+        <v>30001</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="58" t="s">
+      <c r="G19" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="53">
+        <v>40001</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="53">
+        <v>40002</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="53">
+        <v>40003</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="56">
+        <v>40004</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="59">
+        <v>50001</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="F25" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="41">
-        <v>20001</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="43" t="s">
+      <c r="I27" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="65"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" s="75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="65"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="42" t="s">
+      <c r="J30" s="76" t="s">
         <v>117</v>
-      </c>
-      <c r="I16" s="59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="47">
-        <v>30001</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" s="61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" s="61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="53">
-        <v>40001</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="53">
-        <v>40002</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="53">
-        <v>40003</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="53">
-        <v>40004</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="63" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4287,7 +4585,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -4303,29 +4601,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="16"/>
@@ -4337,13 +4635,13 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G3" s="21"/>
     </row>
@@ -4393,7 +4691,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4411,16 +4709,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4431,19 +4729,19 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4460,26 +4758,26 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -4498,25 +4796,25 @@
         <v>10001</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4525,19 +4823,19 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4546,19 +4844,19 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4570,16 +4868,16 @@
         <v>115</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4588,19 +4886,19 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
@@ -4611,19 +4909,19 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="20"/>
@@ -4635,25 +4933,25 @@
         <v>10002</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D11" s="13">
         <v>10003</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
@@ -4664,19 +4962,19 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4685,19 +4983,19 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4706,25 +5004,25 @@
         <v>20001</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4733,19 +5031,19 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4754,19 +5052,19 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4775,19 +5073,19 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="6:9">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>63202</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>63202:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关联 人物行为组
+人物接下来行为的权重
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="160">
   <si>
     <t>##var</t>
   </si>
@@ -198,6 +232,24 @@
   </si>
   <si>
     <t>昂贵</t>
+  </si>
+  <si>
+    <t>路人A</t>
+  </si>
+  <si>
+    <t>只是个路人</t>
+  </si>
+  <si>
+    <t>路人B</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/NPC/Extra02.prefab</t>
+  </si>
+  <si>
+    <t>路人C</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/NPC/Extra03.prefab</t>
   </si>
   <si>
     <r>
@@ -483,6 +535,15 @@
     <t>20:20</t>
   </si>
   <si>
+    <t>90001</t>
+  </si>
+  <si>
+    <t>路人行动组</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
     <t>*comments</t>
   </si>
   <si>
@@ -517,7 +578,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,8 +767,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,6 +843,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,7 +1302,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,16 +1326,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1272,83 +1350,83 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1527,6 +1605,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1610,6 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1992,10 +2074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2013,41 +2095,41 @@
     <col min="13" max="13" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="107" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
-      <c r="A1" s="77" t="s">
+    <row r="1" s="109" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="78" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="119"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -2070,41 +2152,41 @@
       <c r="AH1"/>
       <c r="AI1"/>
     </row>
-    <row r="2" s="108" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
-      <c r="A2" s="79" t="s">
+    <row r="2" s="110" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="111" t="s">
+      <c r="J2" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="118"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="117"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="119"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -2127,41 +2209,41 @@
       <c r="AH2"/>
       <c r="AI2"/>
     </row>
-    <row r="3" s="107" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
-      <c r="A3" s="81" t="s">
+    <row r="3" s="109" customFormat="1" ht="22.5" customHeight="1" spans="1:35">
+      <c r="A3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="82" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="121"/>
+      <c r="L3" s="123"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="117"/>
+      <c r="N3" s="119"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -2185,223 +2267,304 @@
       <c r="AI3"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:13">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87">
         <v>10001</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="86">
+      <c r="E4" s="87">
         <v>1</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="113" t="s">
+      <c r="G4" s="114"/>
+      <c r="H4" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="113" t="s">
+      <c r="I4" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="86">
+      <c r="J4" s="87">
         <v>30001</v>
       </c>
-      <c r="K4" s="122"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87">
         <v>10002</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="87">
         <v>1</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="113" t="s">
+      <c r="G5" s="114"/>
+      <c r="H5" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="86">
+      <c r="J5" s="87">
         <v>10001</v>
       </c>
-      <c r="K5" s="122"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:13">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87">
         <v>10003</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="87">
         <v>1</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="112"/>
-      <c r="H6" s="113" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="86">
+      <c r="J6" s="87">
         <v>40001</v>
       </c>
-      <c r="K6" s="122"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
     </row>
     <row r="7" ht="46" customHeight="1" spans="2:13">
-      <c r="B7" s="86">
+      <c r="B7" s="87">
         <v>10004</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="87">
         <v>0</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="114"/>
+      <c r="H7" s="116"/>
       <c r="J7" s="60">
         <v>0</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
     </row>
     <row r="8" ht="46" customHeight="1" spans="2:13">
-      <c r="B8" s="86">
+      <c r="B8" s="87">
         <v>10005</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="87">
         <v>1</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="114"/>
+      <c r="H8" s="116"/>
       <c r="J8" s="60">
         <v>50001</v>
       </c>
-      <c r="K8" s="122"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
     </row>
     <row r="9" ht="46" customHeight="1" spans="2:13">
-      <c r="B9" s="86">
+      <c r="B9" s="87">
         <v>10006</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="87">
         <v>1</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="116"/>
       <c r="J9" s="60">
         <v>60001</v>
       </c>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
     </row>
     <row r="10" ht="46" customHeight="1" spans="2:13">
-      <c r="B10" s="86">
+      <c r="B10" s="87">
         <v>10007</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="87">
         <v>1</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="114"/>
+      <c r="H10" s="116"/>
       <c r="J10" s="60">
         <v>70001</v>
       </c>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
     </row>
     <row r="11" ht="33" spans="2:13">
-      <c r="B11" s="86">
+      <c r="B11" s="87">
         <v>20001</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="87">
         <v>1</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86" t="s">
+      <c r="G11" s="87"/>
+      <c r="H11" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="87" t="s">
         <v>54</v>
       </c>
       <c r="J11" s="60">
         <v>80001</v>
       </c>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:10">
+      <c r="B12" s="60">
+        <v>20002</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="60">
+        <v>0</v>
+      </c>
+      <c r="F12" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="60">
+        <v>90001</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="2:10">
+      <c r="B13" s="60">
+        <v>20003</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="60">
+        <v>0</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="60">
+        <v>90001</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:10">
+      <c r="B14" s="60">
+        <v>20004</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="60">
+        <v>0</v>
+      </c>
+      <c r="F14" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="60">
+        <v>90001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2437,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2460,7 +2623,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2480,18 +2643,18 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:6">
       <c r="B4" s="54">
         <v>1</v>
       </c>
-      <c r="C4" s="99" t="s">
-        <v>63</v>
+      <c r="C4" s="101" t="s">
+        <v>69</v>
       </c>
       <c r="D4" s="54">
         <v>20</v>
@@ -2507,8 +2670,8 @@
       <c r="B5" s="54">
         <v>2</v>
       </c>
-      <c r="C5" s="99" t="s">
-        <v>63</v>
+      <c r="C5" s="101" t="s">
+        <v>69</v>
       </c>
       <c r="D5" s="54">
         <v>21</v>
@@ -2524,8 +2687,8 @@
       <c r="B6" s="54">
         <v>3</v>
       </c>
-      <c r="C6" s="99" t="s">
-        <v>63</v>
+      <c r="C6" s="101" t="s">
+        <v>69</v>
       </c>
       <c r="D6" s="54">
         <v>22</v>
@@ -2541,8 +2704,8 @@
       <c r="B7" s="54">
         <v>4</v>
       </c>
-      <c r="C7" s="99" t="s">
-        <v>63</v>
+      <c r="C7" s="101" t="s">
+        <v>69</v>
       </c>
       <c r="D7" s="54">
         <v>23</v>
@@ -2558,8 +2721,8 @@
       <c r="B8" s="54">
         <v>5</v>
       </c>
-      <c r="C8" s="99" t="s">
-        <v>63</v>
+      <c r="C8" s="101" t="s">
+        <v>69</v>
       </c>
       <c r="D8" s="54">
         <v>24</v>
@@ -2575,8 +2738,8 @@
       <c r="B9" s="54">
         <v>6</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>63</v>
+      <c r="C9" s="101" t="s">
+        <v>69</v>
       </c>
       <c r="D9" s="54">
         <v>25</v>
@@ -2592,8 +2755,8 @@
       <c r="B10" s="54">
         <v>7</v>
       </c>
-      <c r="C10" s="99" t="s">
-        <v>63</v>
+      <c r="C10" s="101" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="54">
         <v>26</v>
@@ -2609,8 +2772,8 @@
       <c r="B11" s="48">
         <v>8</v>
       </c>
-      <c r="C11" s="100" t="s">
-        <v>64</v>
+      <c r="C11" s="102" t="s">
+        <v>70</v>
       </c>
       <c r="D11" s="48">
         <v>20</v>
@@ -2626,8 +2789,8 @@
       <c r="B12" s="48">
         <v>9</v>
       </c>
-      <c r="C12" s="100" t="s">
-        <v>64</v>
+      <c r="C12" s="102" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="48">
         <v>21</v>
@@ -2643,8 +2806,8 @@
       <c r="B13" s="48">
         <v>10</v>
       </c>
-      <c r="C13" s="100" t="s">
-        <v>64</v>
+      <c r="C13" s="102" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="48">
         <v>22</v>
@@ -2660,8 +2823,8 @@
       <c r="B14" s="48">
         <v>11</v>
       </c>
-      <c r="C14" s="100" t="s">
-        <v>64</v>
+      <c r="C14" s="102" t="s">
+        <v>70</v>
       </c>
       <c r="D14" s="48">
         <v>23</v>
@@ -2677,8 +2840,8 @@
       <c r="B15" s="48">
         <v>12</v>
       </c>
-      <c r="C15" s="100" t="s">
-        <v>64</v>
+      <c r="C15" s="102" t="s">
+        <v>70</v>
       </c>
       <c r="D15" s="48">
         <v>24</v>
@@ -2694,8 +2857,8 @@
       <c r="B16" s="48">
         <v>13</v>
       </c>
-      <c r="C16" s="100" t="s">
-        <v>64</v>
+      <c r="C16" s="102" t="s">
+        <v>70</v>
       </c>
       <c r="D16" s="48">
         <v>25</v>
@@ -2711,8 +2874,8 @@
       <c r="B17" s="48">
         <v>14</v>
       </c>
-      <c r="C17" s="100" t="s">
-        <v>64</v>
+      <c r="C17" s="102" t="s">
+        <v>70</v>
       </c>
       <c r="D17" s="48">
         <v>26</v>
@@ -2725,240 +2888,240 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:6">
-      <c r="B18" s="101">
+      <c r="B18" s="103">
         <v>15</v>
       </c>
-      <c r="C18" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="101">
+      <c r="C18" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="103">
         <v>20</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E18" s="103">
         <v>5</v>
       </c>
-      <c r="F18" s="101">
+      <c r="F18" s="103">
         <v>10</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:6">
-      <c r="B19" s="101">
+      <c r="B19" s="103">
         <v>16</v>
       </c>
-      <c r="C19" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="101">
+      <c r="C19" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="103">
         <v>21</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E19" s="103">
         <v>5</v>
       </c>
-      <c r="F19" s="101">
+      <c r="F19" s="103">
         <v>15</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:6">
-      <c r="B20" s="101">
+      <c r="B20" s="103">
         <v>17</v>
       </c>
-      <c r="C20" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="101">
+      <c r="C20" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="103">
         <v>22</v>
       </c>
-      <c r="E20" s="101">
+      <c r="E20" s="103">
         <v>4</v>
       </c>
-      <c r="F20" s="101">
+      <c r="F20" s="103">
         <v>20</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:6">
-      <c r="B21" s="101">
+      <c r="B21" s="103">
         <v>18</v>
       </c>
-      <c r="C21" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="101">
+      <c r="C21" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="103">
         <v>23</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E21" s="103">
         <v>3</v>
       </c>
-      <c r="F21" s="101">
+      <c r="F21" s="103">
         <v>25</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:6">
-      <c r="B22" s="101">
+      <c r="B22" s="103">
         <v>19</v>
       </c>
-      <c r="C22" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="101">
+      <c r="C22" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="103">
         <v>24</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="103">
         <v>2</v>
       </c>
-      <c r="F22" s="101">
+      <c r="F22" s="103">
         <v>30</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:6">
-      <c r="B23" s="101">
+      <c r="B23" s="103">
         <v>20</v>
       </c>
-      <c r="C23" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="101">
+      <c r="C23" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="103">
         <v>25</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="103">
         <v>1</v>
       </c>
-      <c r="F23" s="101">
+      <c r="F23" s="103">
         <v>30</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:6">
-      <c r="B24" s="101">
+      <c r="B24" s="103">
         <v>21</v>
       </c>
-      <c r="C24" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="101">
+      <c r="C24" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="103">
         <v>26</v>
       </c>
-      <c r="E24" s="101">
+      <c r="E24" s="103">
         <v>1</v>
       </c>
-      <c r="F24" s="101">
+      <c r="F24" s="103">
         <v>30</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:6">
-      <c r="B25" s="103">
+      <c r="B25" s="105">
         <v>22</v>
       </c>
-      <c r="C25" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="103">
+      <c r="C25" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="105">
         <v>20</v>
       </c>
-      <c r="E25" s="103">
+      <c r="E25" s="105">
         <v>5</v>
       </c>
-      <c r="F25" s="103">
+      <c r="F25" s="105">
         <v>10</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:6">
-      <c r="B26" s="103">
+      <c r="B26" s="105">
         <v>23</v>
       </c>
-      <c r="C26" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="103">
+      <c r="C26" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="105">
         <v>21</v>
       </c>
-      <c r="E26" s="103">
+      <c r="E26" s="105">
         <v>5</v>
       </c>
-      <c r="F26" s="103">
+      <c r="F26" s="105">
         <v>15</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:6">
-      <c r="B27" s="103">
+      <c r="B27" s="105">
         <v>24</v>
       </c>
-      <c r="C27" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="103">
+      <c r="C27" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="105">
         <v>22</v>
       </c>
-      <c r="E27" s="103">
+      <c r="E27" s="105">
         <v>4</v>
       </c>
-      <c r="F27" s="103">
+      <c r="F27" s="105">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:6">
-      <c r="B28" s="103">
+      <c r="B28" s="105">
         <v>25</v>
       </c>
-      <c r="C28" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="103">
+      <c r="C28" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="105">
         <v>23</v>
       </c>
-      <c r="E28" s="103">
+      <c r="E28" s="105">
         <v>3</v>
       </c>
-      <c r="F28" s="103">
+      <c r="F28" s="105">
         <v>25</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:6">
-      <c r="B29" s="103">
+      <c r="B29" s="105">
         <v>26</v>
       </c>
-      <c r="C29" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="103">
+      <c r="C29" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="105">
         <v>24</v>
       </c>
-      <c r="E29" s="103">
+      <c r="E29" s="105">
         <v>2</v>
       </c>
-      <c r="F29" s="103">
+      <c r="F29" s="105">
         <v>30</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:6">
-      <c r="B30" s="103">
+      <c r="B30" s="105">
         <v>27</v>
       </c>
-      <c r="C30" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="103">
+      <c r="C30" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="105">
         <v>25</v>
       </c>
-      <c r="E30" s="103">
+      <c r="E30" s="105">
         <v>1</v>
       </c>
-      <c r="F30" s="103">
+      <c r="F30" s="105">
         <v>30</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:6">
-      <c r="B31" s="103">
+      <c r="B31" s="105">
         <v>28</v>
       </c>
-      <c r="C31" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="103">
+      <c r="C31" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="105">
         <v>26</v>
       </c>
-      <c r="E31" s="103">
+      <c r="E31" s="105">
         <v>1</v>
       </c>
-      <c r="F31" s="103">
+      <c r="F31" s="105">
         <v>30</v>
       </c>
     </row>
@@ -2966,8 +3129,8 @@
       <c r="B32" s="54">
         <v>29</v>
       </c>
-      <c r="C32" s="99" t="s">
-        <v>67</v>
+      <c r="C32" s="101" t="s">
+        <v>73</v>
       </c>
       <c r="D32" s="54">
         <v>20</v>
@@ -2983,8 +3146,8 @@
       <c r="B33" s="54">
         <v>30</v>
       </c>
-      <c r="C33" s="99" t="s">
-        <v>67</v>
+      <c r="C33" s="101" t="s">
+        <v>73</v>
       </c>
       <c r="D33" s="54">
         <v>21</v>
@@ -3000,8 +3163,8 @@
       <c r="B34" s="54">
         <v>31</v>
       </c>
-      <c r="C34" s="99" t="s">
-        <v>67</v>
+      <c r="C34" s="101" t="s">
+        <v>73</v>
       </c>
       <c r="D34" s="54">
         <v>22</v>
@@ -3017,8 +3180,8 @@
       <c r="B35" s="54">
         <v>32</v>
       </c>
-      <c r="C35" s="99" t="s">
-        <v>67</v>
+      <c r="C35" s="101" t="s">
+        <v>73</v>
       </c>
       <c r="D35" s="54">
         <v>23</v>
@@ -3034,8 +3197,8 @@
       <c r="B36" s="54">
         <v>33</v>
       </c>
-      <c r="C36" s="99" t="s">
-        <v>67</v>
+      <c r="C36" s="101" t="s">
+        <v>73</v>
       </c>
       <c r="D36" s="54">
         <v>24</v>
@@ -3051,8 +3214,8 @@
       <c r="B37" s="54">
         <v>34</v>
       </c>
-      <c r="C37" s="99" t="s">
-        <v>67</v>
+      <c r="C37" s="101" t="s">
+        <v>73</v>
       </c>
       <c r="D37" s="54">
         <v>25</v>
@@ -3068,8 +3231,8 @@
       <c r="B38" s="54">
         <v>35</v>
       </c>
-      <c r="C38" s="99" t="s">
-        <v>67</v>
+      <c r="C38" s="101" t="s">
+        <v>73</v>
       </c>
       <c r="D38" s="54">
         <v>26</v>
@@ -3085,8 +3248,8 @@
       <c r="B39" s="32">
         <v>36</v>
       </c>
-      <c r="C39" s="105" t="s">
-        <v>68</v>
+      <c r="C39" s="107" t="s">
+        <v>74</v>
       </c>
       <c r="D39" s="32">
         <v>20</v>
@@ -3102,8 +3265,8 @@
       <c r="B40" s="32">
         <v>37</v>
       </c>
-      <c r="C40" s="105" t="s">
-        <v>68</v>
+      <c r="C40" s="107" t="s">
+        <v>74</v>
       </c>
       <c r="D40" s="32">
         <v>21</v>
@@ -3119,8 +3282,8 @@
       <c r="B41" s="32">
         <v>38</v>
       </c>
-      <c r="C41" s="105" t="s">
-        <v>68</v>
+      <c r="C41" s="107" t="s">
+        <v>74</v>
       </c>
       <c r="D41" s="32">
         <v>22</v>
@@ -3136,8 +3299,8 @@
       <c r="B42" s="32">
         <v>39</v>
       </c>
-      <c r="C42" s="105" t="s">
-        <v>68</v>
+      <c r="C42" s="107" t="s">
+        <v>74</v>
       </c>
       <c r="D42" s="32">
         <v>23</v>
@@ -3153,8 +3316,8 @@
       <c r="B43" s="32">
         <v>40</v>
       </c>
-      <c r="C43" s="105" t="s">
-        <v>68</v>
+      <c r="C43" s="107" t="s">
+        <v>74</v>
       </c>
       <c r="D43" s="32">
         <v>24</v>
@@ -3170,8 +3333,8 @@
       <c r="B44" s="32">
         <v>41</v>
       </c>
-      <c r="C44" s="105" t="s">
-        <v>68</v>
+      <c r="C44" s="107" t="s">
+        <v>74</v>
       </c>
       <c r="D44" s="32">
         <v>25</v>
@@ -3187,8 +3350,8 @@
       <c r="B45" s="32">
         <v>42</v>
       </c>
-      <c r="C45" s="105" t="s">
-        <v>68</v>
+      <c r="C45" s="107" t="s">
+        <v>74</v>
       </c>
       <c r="D45" s="32">
         <v>26</v>
@@ -3201,126 +3364,126 @@
       </c>
     </row>
     <row r="46" ht="16.5" spans="2:6">
-      <c r="B46" s="101">
+      <c r="B46" s="103">
         <v>43</v>
       </c>
-      <c r="C46" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="101">
+      <c r="C46" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="103">
         <v>20</v>
       </c>
-      <c r="E46" s="101">
+      <c r="E46" s="103">
         <v>7</v>
       </c>
-      <c r="F46" s="101">
+      <c r="F46" s="103">
         <v>10</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="2:6">
-      <c r="B47" s="101">
+      <c r="B47" s="103">
         <v>44</v>
       </c>
-      <c r="C47" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="101">
+      <c r="C47" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="103">
         <v>21</v>
       </c>
-      <c r="E47" s="101">
+      <c r="E47" s="103">
         <v>6</v>
       </c>
-      <c r="F47" s="101">
+      <c r="F47" s="103">
         <v>12</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="2:6">
-      <c r="B48" s="101">
+      <c r="B48" s="103">
         <v>45</v>
       </c>
-      <c r="C48" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="101">
+      <c r="C48" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="103">
         <v>22</v>
       </c>
-      <c r="E48" s="101">
+      <c r="E48" s="103">
         <v>7</v>
       </c>
-      <c r="F48" s="101">
+      <c r="F48" s="103">
         <v>17</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="2:6">
-      <c r="B49" s="101">
+      <c r="B49" s="103">
         <v>46</v>
       </c>
-      <c r="C49" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="101">
+      <c r="C49" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="103">
         <v>23</v>
       </c>
-      <c r="E49" s="101">
+      <c r="E49" s="103">
         <v>6</v>
       </c>
-      <c r="F49" s="101">
+      <c r="F49" s="103">
         <v>20</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="2:6">
-      <c r="B50" s="101">
+      <c r="B50" s="103">
         <v>47</v>
       </c>
-      <c r="C50" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="101">
+      <c r="C50" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="103">
         <v>24</v>
       </c>
-      <c r="E50" s="101">
+      <c r="E50" s="103">
         <v>5</v>
       </c>
-      <c r="F50" s="101">
+      <c r="F50" s="103">
         <v>25</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="2:6">
-      <c r="B51" s="101">
+      <c r="B51" s="103">
         <v>48</v>
       </c>
-      <c r="C51" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="101">
+      <c r="C51" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="103">
         <v>25</v>
       </c>
-      <c r="E51" s="101">
+      <c r="E51" s="103">
         <v>3</v>
       </c>
-      <c r="F51" s="101">
+      <c r="F51" s="103">
         <v>30</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="2:6">
-      <c r="B52" s="101">
+      <c r="B52" s="103">
         <v>49</v>
       </c>
-      <c r="C52" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="101">
+      <c r="C52" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="103">
         <v>26</v>
       </c>
-      <c r="E52" s="101">
+      <c r="E52" s="103">
         <v>2</v>
       </c>
-      <c r="F52" s="101">
+      <c r="F52" s="103">
         <v>30</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="3:3">
-      <c r="C53" s="106"/>
+      <c r="C53" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3331,10 +3494,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3344,176 +3507,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="89"/>
+      <c r="C1" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="92"/>
+      <c r="C2" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="93"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>73</v>
+      <c r="B3" s="94"/>
+      <c r="C3" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96">
+      <c r="A4" s="97"/>
+      <c r="B4" s="97">
         <v>10001</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="96">
+      <c r="C4" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="97">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="96">
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="97">
         <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="96">
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="97">
         <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98">
         <v>10002</v>
       </c>
-      <c r="C7" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="97">
+      <c r="C7" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="98">
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="97">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="98">
         <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="97">
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="98">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85">
         <v>10003</v>
       </c>
-      <c r="C10" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="84">
+      <c r="C10" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="85">
         <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="84">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="85">
         <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="84"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="84">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="85">
         <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="84">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="85">
         <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="98"/>
-      <c r="B14" s="98">
+      <c r="A14" s="99"/>
+      <c r="B14" s="99">
         <v>10004</v>
       </c>
-      <c r="C14" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="98">
+      <c r="C14" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="99">
         <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="98">
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="99">
         <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="98"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="98">
+      <c r="A16" s="99"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="99">
         <v>3000</v>
       </c>
     </row>
@@ -3522,7 +3685,7 @@
         <v>10005</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>3000</v>
@@ -3530,10 +3693,22 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D18">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="100"/>
+      <c r="B19" s="100">
+        <v>10006</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="100">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3727,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3566,157 +3741,157 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:6">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
+      <c r="D1" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
+      <c r="D2" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="79" t="s">
-        <v>82</v>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="81" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="81" t="s">
+      <c r="D4" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="82" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83">
+      <c r="A5" s="83"/>
+      <c r="B5" s="84">
         <v>10001</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="83">
         <v>0</v>
       </c>
-      <c r="E5" s="82">
+      <c r="E5" s="83">
         <v>100</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="83">
         <v>30001</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85">
+      <c r="A6" s="85"/>
+      <c r="B6" s="86">
         <v>10002</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="85">
         <v>0</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="85">
         <v>100</v>
       </c>
-      <c r="F6" s="84">
+      <c r="F6" s="85">
         <v>10001</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="84">
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="85">
         <v>101</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="85">
         <v>200</v>
       </c>
-      <c r="F7" s="84">
+      <c r="F7" s="85">
         <v>10002</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="84">
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="85">
         <v>201</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="85">
         <v>300</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="85">
         <v>10003</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="84">
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="85">
         <v>301</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="85">
         <v>400</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="85">
         <v>10004</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:6">
-      <c r="B10" s="86">
+      <c r="B10" s="87">
         <v>10003</v>
       </c>
-      <c r="C10" s="86" t="s">
-        <v>86</v>
+      <c r="C10" s="87" t="s">
+        <v>92</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3729,11 +3904,11 @@
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:6">
-      <c r="B11" s="86">
+      <c r="B11" s="87">
         <v>10005</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>87</v>
+      <c r="C11" s="87" t="s">
+        <v>93</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3746,10 +3921,10 @@
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:6">
-      <c r="B12" s="86">
+      <c r="B12" s="87">
         <v>10006</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="87" t="s">
         <v>44</v>
       </c>
       <c r="D12">
@@ -3763,10 +3938,10 @@
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:6">
-      <c r="B13" s="86">
+      <c r="B13" s="87">
         <v>10007</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="87" t="s">
         <v>47</v>
       </c>
       <c r="D13">
@@ -3780,10 +3955,10 @@
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:6">
-      <c r="B14" s="86">
+      <c r="B14" s="87">
         <v>20001</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="87" t="s">
         <v>50</v>
       </c>
       <c r="D14">
@@ -3797,8 +3972,8 @@
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3813,10 +3988,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3834,19 +4009,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3864,13 +4039,13 @@
         <v>12</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3886,19 +4061,19 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
       <c r="F3" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:10">
@@ -3920,28 +4095,28 @@
         <v>10001</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="66" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>111</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
@@ -3952,19 +4127,19 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="32" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="J6" s="68" t="s">
+        <v>114</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
@@ -3975,19 +4150,19 @@
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="F7" s="35" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="68" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="J7" s="69" t="s">
+        <v>118</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -3997,28 +4172,28 @@
         <v>10002</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="67" t="s">
         <v>117</v>
+      </c>
+      <c r="J8" s="68" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -4027,19 +4202,19 @@
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
       <c r="F9" s="35" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="68" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="2:10">
@@ -4047,28 +4222,28 @@
         <v>10003</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -4077,19 +4252,19 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="67" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -4098,19 +4273,19 @@
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="35" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="J12" s="69" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="2:10">
@@ -4118,28 +4293,28 @@
         <v>10004</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="67" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -4148,19 +4323,19 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="67" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -4169,19 +4344,19 @@
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
       <c r="F15" s="35" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -4189,28 +4364,28 @@
         <v>80001</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="69" t="s">
-        <v>117</v>
+        <v>132</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -4219,19 +4394,19 @@
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="45" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="70" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -4239,28 +4414,28 @@
         <v>30001</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="71" t="s">
-        <v>112</v>
+        <v>136</v>
+      </c>
+      <c r="J18" s="72" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -4269,19 +4444,19 @@
       <c r="D19" s="52"/>
       <c r="E19" s="52"/>
       <c r="F19" s="51" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="72" t="s">
-        <v>112</v>
+        <v>137</v>
+      </c>
+      <c r="J19" s="73" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -4289,28 +4464,28 @@
         <v>40001</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="73" t="s">
-        <v>112</v>
+        <v>136</v>
+      </c>
+      <c r="J20" s="74" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -4318,28 +4493,28 @@
         <v>40002</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" s="73" t="s">
-        <v>112</v>
+        <v>136</v>
+      </c>
+      <c r="J21" s="74" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -4347,28 +4522,28 @@
         <v>40003</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="J22" s="73" t="s">
-        <v>112</v>
+        <v>136</v>
+      </c>
+      <c r="J22" s="74" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -4376,28 +4551,28 @@
         <v>40004</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H23" s="58" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I23" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="J23" s="74" t="s">
-        <v>112</v>
+        <v>136</v>
+      </c>
+      <c r="J23" s="75" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -4405,47 +4580,47 @@
         <v>50001</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="J24" s="75" t="s">
         <v>118</v>
+      </c>
+      <c r="J24" s="76" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="59"/>
       <c r="C25" s="60"/>
       <c r="F25" s="60" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="J25" s="75" t="s">
         <v>118</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -4454,48 +4629,48 @@
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
       <c r="F26" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="77" t="s">
         <v>124</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="J26" s="76" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="64" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J27" s="75" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="J27" s="76" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -4504,48 +4679,48 @@
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
       <c r="F28" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" s="76" t="s">
-        <v>128</v>
+      <c r="J28" s="77" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="64" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="J29" s="75" t="s">
         <v>117</v>
+      </c>
+      <c r="J29" s="76" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -4554,19 +4729,164 @@
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
       <c r="F30" s="63" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G30" s="63" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H30" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" s="77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="64"/>
+      <c r="C32" s="22"/>
+      <c r="F32" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="64"/>
+      <c r="C33" s="22"/>
+      <c r="F33" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="64"/>
+      <c r="C34" s="22"/>
+      <c r="F34" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="76" t="s">
-        <v>117</v>
+      <c r="G34" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" s="76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="64"/>
+      <c r="C35" s="22"/>
+      <c r="F35" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="64"/>
+      <c r="C36" s="22"/>
+      <c r="F36" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="65"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="77" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4576,6 +4896,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4601,13 +4922,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="16"/>
@@ -4623,7 +4944,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="16"/>
@@ -4635,13 +4956,13 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G3" s="21"/>
     </row>
@@ -4709,16 +5030,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4741,7 +5062,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4758,19 +5079,19 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -4802,19 +5123,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4823,19 +5144,19 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4844,19 +5165,19 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4865,19 +5186,19 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4886,19 +5207,19 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
@@ -4909,19 +5230,19 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="20"/>
@@ -4933,25 +5254,25 @@
         <v>10002</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D11" s="13">
         <v>10003</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
@@ -4962,19 +5283,19 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4983,19 +5304,19 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5004,25 +5325,25 @@
         <v>20001</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5031,19 +5352,19 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5052,19 +5373,19 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5073,19 +5394,19 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="6:9">

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -2077,7 +2077,7 @@
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/character.xlsx
+++ b/DataConfig/Datas/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowHeight="17655" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="人物基础信息" sheetId="1" r:id="rId1"/>
@@ -2076,8 +2076,8 @@
   <sheetPr/>
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3990,8 +3990,8 @@
   <sheetPr/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4423,7 +4423,7 @@
         <v>106</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="G18" s="49" t="s">
         <v>108</v>
@@ -4758,7 +4758,7 @@
         <v>151</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>108</v>
@@ -4777,7 +4777,7 @@
       <c r="B32" s="64"/>
       <c r="C32" s="22"/>
       <c r="F32" s="22" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>108</v>
@@ -4796,7 +4796,7 @@
       <c r="B33" s="64"/>
       <c r="C33" s="22"/>
       <c r="F33" s="66" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>108</v>
@@ -4815,7 +4815,7 @@
       <c r="B34" s="64"/>
       <c r="C34" s="22"/>
       <c r="F34" s="22" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>108</v>
@@ -4834,7 +4834,7 @@
       <c r="B35" s="64"/>
       <c r="C35" s="22"/>
       <c r="F35" s="22" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>108</v>
@@ -4853,7 +4853,7 @@
       <c r="B36" s="64"/>
       <c r="C36" s="22"/>
       <c r="F36" s="22" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>108</v>
@@ -4874,7 +4874,7 @@
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="63" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="G37" s="63" t="s">
         <v>108</v>
